--- a/dataset/isi_f2.xlsx
+++ b/dataset/isi_f2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,831 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TMaenlaayhu  Konsep Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>dunia melayu meliputi selatan vietnam kemboja selatan myanmar segenting kra malaysia indonesia brunei dan filipina selatan sumber ismail hussein myanmar kemboja filipina segenting vietnam antara dunia melayu kra profesor emeritus dengan dunia kebangsaan brunei tan sri dato bangi penerbit ukm malaysia pendeta dr ismail 1993 hlm 14 singapura hussein ahli bahasa dan budayawan indonesia kepulauan melayu meliputi tanah melayu hingga tenasserim dan kepulauan nicobar filipina dan kepulauan solomon hingga papua new guinea sumber alfred russel wallace the annotated malay archipelago oxford john beaufoy pub 2009 hlm 60 alfred russel wallace sarjana barat tenasserim kepulauan filipina nicobar alam tanah melayu melayu pnaepwu a guinea kepulauan solomon dunia melayu merupakan sebuah kawasan yang luas meliputi malaysia indonesia brunei singapura selatan thailand dan filipina sumber ding choo ming manuskrip melayu sumber profesor dr ding maklumat peribumi bangi penerbit ukm 2016 hlm 20 choo ming pengkaji manuskrip melayu tokohtokoh ini telah mengemukakan pandangan yang hampir sama dari aspek geografi alam melayu iaitu kawasan yang merangkumi malaysia indonesia singapura brunei filipina selatan thailand selatan myanmar dan selatan indochina pada hari ini alam melayu merupakan sebahagian daripada asia tenggara cerna minda kps siapakah tokohtokoh yang mengemukakan interpretasikan konsep alam melayu pandangan tentang konsep alam melayu 5bahasa konsep alam melayu juga boleh dilihat dari aspek penggunaan bahasa serumpun yang dikaitkan dengan bahasa melayu bahasa melayu tergolong dalam bahasa austronesia yang merupakan antara 200 bahasa yang dipertuturkan di alam melayu bahasa serumpun di alam melayu mempunyai perkaitan dengan bahasa etnik peribumi persamaan ini boleh dikenal pasti melalui katakata tertentu apabila membuat perbandingan bahasabahasa serumpun ini terdapat pertalian kekeluargaan bahasabahasa ini dengan bahasa melayu profesor emeritus sumber asmah haji omar ensiklopedia bahasa melayu kuala lumpur dato dr asmah dewan bahasa dan pustaka 2008 hlm 4 haji omar tokoh bahasa jadual persamaan bunyi perkataan bagi beberapa etnik di alam melayu bahasa melayu bahasa jawa bahasa melayu tagalog melanau kadazandusun malaysia indonesia brunei filipina sibu sarawak sabah empat papat ampat apat pat apat lima limo lima lima limah limo bahasa melayu telah digunakan secara meluas di alam melayu sejak awal masihi lagi sifat orang melayu yang gemar belayar telah mengembangkan lagi bahasa melayu ke alam melayu tambahan pula sifat bahasa melayu yang sederhana dan mudah dipelajari membolehkan bahasa ini diterima di alam melayu sumber sutan takdir alisjahbana indonesia social and cultural revolution jakarta dian rakyat 2008 hlm 25 sutan takdir alisjahbana tokoh bahasa tahukah anda pandangan tokohtokoh ini menunjukkan istilah melayu polinesia digunakan sebelum bahawa bahasa di alam melayu adalah digantikan dengan austronesia serumpun dan mempunyai persamaan pada tahun 1972 pertubuhan pendidikan sains bunyi sebutannya dan kebudayaan bangsabangsa bersatu united nations of educational scientific and cultural organisation unesco telah memilih istilah mengapakah terdapat persamaan melayu bagi merujuk suku bangsa yang berbahasa bunyi perkataan dalam beberapa melayu yang mendiami asia tenggara bahasa di alam melayu 6budaya penduduk di alam melayu mempunyai budaya serumpun yang merangkumi bahasa dan tulisan persuratan struktur sosial kesenian kepercayaan dan adat sejak awal lagi budaya di alam melayu ini telah berkembang maju dengan munculnya beberapa kepandaian tertentu dalam bidang kesenian antaranya termasuklah pembuatan gangsa dan seni mempertahankan diri keduadua kepandaian ini merupakan ciptaan asli di alam melayu selain itu nilainilai serumpun wujud dalam masyarakat alam melayu terutamanya gotongroyong dalam aspek seni persembahan pula muncul wayang kulit di kelantan dan pulau jawa dato a aziz deraman sumber a aziz deraman masyarakat dan kebudayaan malaysia budayawan kuala lumpur dewan bahasa dan pustaka 2005 hlm 14 persamaan budaya dalam kalangan penduduk alam melayu membuktikan bahawa alam melayu ini merupakan kawasan yang memiliki kebudayaan serumpun silat menjadi identiti budaya serumpun di alam melayu alam melayu merupakan suatu lingkungan geografi yang luas dan mempunyai persamaan bahasa dan budaya walaupun penduduk alam melayu kini dibahagikan kepada beberapa cerna minda buah negara tetapi ikatan keserumpunan bahasa dan budaya masih kuat dalam kalangan penduduk di alam melayu hal ini nyatakan aspek keserumpunan memupuk kesedaran bahawa kita serumpun di alam melayu alam melayu 712 kewujudan kerajaan di alam melayu pengenalan kerajaan alam melayu telah bermula daripada petempatan kecil yang berkembang menjadi pelabuhan pelabuhan ini seterusnya berkembang menjadi kerajaan kerajaan ini muncul seawal abad pertama antara kerajaan tersebut termasuklah funan champa srivijaya angkor majapahit kedah tua dan gangga nagara 1 kerajaan funan 2 kerajaan champa lokasi lembah sungai mekong champa lokasi selatan dan tengah vietnam masa abad pertama angkor masa abad kedua pusat kerajaan vyadhapura funan pusat kerajaan indrapura laut china selatan selat kgeadnaghg atu naagara 4lo kkaersiaj laaenm abanhg skuonrgai melaka mekong srivijaya masa abad kesembilan 3 kerajaan srivijaya pusat kerajaan hariharalaya lokasi lembah sungai musi sumatera masa abad ketujuh pusat kerajaan lautan majapahit 5 kerajaan majapahit palembang hindi lokasi lembah sungai brantas jawa timur kerajaankerajaan awal alam melayu masa abad ke13 pusat kerajaan kota trowulan 6 kerajaan kedah tua lokasi sungai mas dan sungai bujang masa abad kelima 7 kerajaan gangga nagara pusat kerajaan sungai mas dan lokasi pantai barat bahagian kedah pangkalan bujang tua tengah tanah melayu selat mpuassaat aebraadj akaenen paamngkalan m el gnaagnagrgaa k a kewujudan kerajaan alam melayu ka sejak awal abad pertama membuktikan bahawa alam melayu juga mempunyai kerajaan yang sezaman dengan tamadun lain kerajaan ini telah berjaya membina kegemilangan yang agung kewujudan kerajaan ini menyedarkan kita bahawa mengapakah kerajaankerajaan kawasan yang kita diami ini juga awal di alam melayu muncul mempunyai warisan kerajaan yang agung di lembah sungai seperti tamadun lain di dunia 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madagaskar Australia KPeapsiufilkauan  Kewujudan Kerajaan di Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13 kerajaan alam melayu yang masyhur pengenalan antara kerajaan alam melayu yang masyhur termasuklah funan champa srivijaya angkor majapahit kedah tua dan gangga nagara kemasyhuran kerajaan ini dapat dilihat dalam aspek pemerintahan ekonomi agama dan kemunculan pelabuhan kerajaan funan kerajaan funan yang berpusat di vyadhapura diasaskan oleh seorang brahmin bernama kaundinya beliau berkahwin dengan soma pemerintah wanita di sungai mekong dan membentuk kerajaan funan kemasyhuran kerajaan funan masyhur semasa diperintah oleh fan shihman beliau telah meluaskan empayar funan ke sungai mekong hingga teluk camranh di sebelah timur kemudian beliau menguasai selatan myanmar dan segenting kra kejayaan beliau menguasai wilayah ini membolehkan funan menguasai jalan perdagangan utama antara timur dengan barat kesannya pada abad ketiga funan menjadi pusat perdagangan utama di alam melayu raja funan terakhir ialah rudravarman serangan kerajaan chenla yang terletak di utara funan telah menyebabkan kemerosotan kerajaan funan mengapakah golongan brahmin penting dalam pemerintahan kerajaan funan kerajaan champa kerajaan champa diasaskan oleh chulien pada tahun 192 m pusat kerajaan ini adalah di indrapura champa sering berhadapan dengan serangan dari dai viet chulien berjaya membebaskan champa daripada pengaruh china kemasyhuran zaman kemasyhuran champa bermula di bawah pemerintahan che bong nga beliau berjaya mengatasi ancaman dai viet dan meluaskan empayar champa ke wilayah dai viet hingga lembah sungai merah serangan champa ke wilayah dai viet berjaya membunuh raja tran due tong pemerintah dai viet pemerintahan beliau mendapat pengiktirafan daripada dinasti ming pada tahun 1369 tahukah anda kemerosotan kerajaan champa bermula apabila kerajaan dai viet merujuk pemerintahnya indravarman meninggal dunia pada tahun kawasan utara vietnam 1441 dai viet menggunakan peluang ini dengan melancarkan hari ini beberapa serangan ke atas champa pada tahun 1471 champa ditawan oleh dai viet 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kerajaan Alam Melayu yang Masyhur </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>kerajaan srivijaya kerajaan srivijaya diasaskan oleh dapunta hyang sri jayanasa pada tahun 683 m di palembang beliau telah memperkukuh kerajaan srivijaya dengan menakluk kawasan sekitarnya seperti bangka dan taruma kemasyhuran semasa era pemerintahan sangramadhananjaya pada abad kelapan srivijaya telah berjaya menakluk sumatera selatan myanmar tanah melayu dan segenting kra penaklukan ini juga membolehkan srivijaya menguasai jalan laut antarabangsa iaitu selat melaka dan selat sunda seterusnya menjadi kuasa perdagangan utama di alam melayu selain terkenal sebagai pusat perdagangan srivijaya menjadi pusat pengajian agama buddha serangan tentera chola dari selatan india pada tahun 1025 telah menyebabkan kerajaan srivijaya menjadi lemah mengapakah penguasaaan jalan laut cerna minda antarabangsa membolehkan sesebuah kerajaan menjadi masyhur apakah faktor yang menyebabkan kerajaan srivijaya menjadi lemah kerajaan angkor kerajaan angkor yang berpusat di hariharalaya diasaskan oleh jayavarman ii dari chenla beliau telah menyatukan wilayah di lembah sungai mekong kemasyhuran suryavarman ii meluaskan empayar angkor ke sekitar lembah sungai mekong hingga selatan myanmar beliau berjaya menghalang ancaman daripada champa dan dai viet di samping mewujudkan jalinan perdagangan antara pedagang tempatan dengan pedagang luar usaha beliau ini diteruskan pula oleh jayavarman vii yang telah meluaskan empayar angkor hingga sempadan annam beliau membina angkor thom dan mendirikan 102 buah hospital selepas kematian jayavarman vii angkor mula lemah serangan siam pada tahun 1594 telah melemahkan kerajaan angkor apakah kepentingan jalinan cerna minda perdagangan antara pedagang tempatan dengan pedagang luar siapakah pemerintah angkor yang kepada kerajaan alam melayu berjaya meluaskan empayar hingga sempadan annam 10 binc aktiviti saya lihat saya fikir saya bertanya i see i think i wonder gambar menunjukkan salah sebuah pintu di dalam angkor thom angkor thom merupakan ibu kota kerajaan angkor sumber michael freeman dan claude jacques ancient angkor bangkok rivers books ltd 2007 hlm 74 secara berkumpulan bincang dan lakukan aktiviti yang berikut 1 kaji gambar angkor thom dan tuliskan apaapa yang dapat anda lihat 2 dengan merujuk pelbagai sumber dan melayari internet kumpulkan maklumat tentang angkor thom a apakah jenis bahan binaan yang digunakan b berapakah tempoh masa yang diambil untuk membinanya c bagaimanakah masyarakat kerajaan angkor membinanya d mengapakah masyarakat kerajaan angkor membinanya 3 kaitkan kepentingan angkor thom pada masa ini 4 dapatan maklumat dibentangkan di dalam kelas secara bergilirgilir setiap kumpulan dibenarkan bertanya bagi mendapatkan maklumat tambahan 11kerajaan majapahit kerajaan majapahit diasaskan oleh raden vijaya dengan bantuan tentera mongol dalam perebutan kuasa di jawa pada tahun 1294 kerajaan ini berpusat di kota trowulan kemasyhuran kemasyhuran majapahit bermula dengan pelantikan patih gajah mada sebagai perdana menteri majapahit oleh pemerintah tribuana tunggadewi patih gajah mada berjaya mengembalikan keamanan dan keselamatan kerajaan majapahit beliau juga mula meluaskan tanah jajahannya ke timur pulau jawa pesisir pantai timur sumatera pesisir selatan dan barat pulau borneo bahagian selatan dan timur sulawesi dan kepulauan maluku hal ini menjadikan majapahit sebagai pusat perdagangan pada abad ke14 kematian patih gajah mada dan serangan kerajaan demak pada tahun 1478 telah menyebabkan kerajaan majapahit menjadi lemah cerna minda namakan kawasan perluasan kuasa oleh patih gajah mada kerajaan kedah tua kemunculan kerajaan kedah tua bermula dengan penglibatan masyarakat di guar kepah yang menjalankan kegiatan perdagangan dengan pedagang dari luar di sungai mas pada peringkat awal pusat kerajaan ini adalah di sungai mas dan pangkalan bujang kewujudan kerajaan kedah tua ini diperkukuhkan dengan catatan golongan agama dan pedagang dari china india dan arabparsi sumber china menamakan kerajaan kedah tua sebagai chieh cha manakala sumber dari india dan arab masingmasing merujuk kerajaan kedah tua sebagai kataha dan kalahbar kemasyhuran kemasyhuran kerajaan kedah tua dikaitkan dengan kepesatan kegiatan perdagangan kemerosotan di lembah bujang pedagang dari timur dan barat datang untuk menjalankan kegiatan perdagangan dengan penduduk tempatan dan pedagang luar yang lain seiring dengan kemajuan perdagangan ini kerajaan kedah tua juga menjadi pusat keagamaan agama buddha kemasyhuran kerajaan kedah tua ini menyebabkan kerajaan srivijaya menguasai kedah tua namun begitu serangan tentera chola dari india pada tahun 1025 telah melemahkan kegiatan perdagangan di kedah tua kerajaan kedah tua mula mengalami perubahan pemerintahan pada abad ketujuh apabila munculnya pengasasan kesultanan kedah yang memulakan kerajaan baharu di kedah cerna minda apakah faktor kemasyhuran kerajaan kedah tua 12penemuan beberapa buah candi di kawasan lembah bujang yang menunjukkan kewujudan kerajaan kedah tua sumber nik hassan shuhaimi nik abdul rahman ed early history singapura didier millet 1998 hlm 106 kerajaan gangga nagara berdasarkan kajian arkeologi kerajaan gangga nagara muncul pada abad keenam walau bagaimanapun kerajaan gangga nagara telah berfungsi sebagai pusat pelabuhan sejak abad kelima menurut sumber tradisi pengasas kerajaan gangga nagara ialah raja ganji sarjuna terdapat pendapat lain yang menyatakan kerajaan gangga nagara ini dibuka oleh raja khmer dari kemboja pada peringkat awal pusat kerajaan ini adalah di pangkalan kemasyhuran kemasyhuran kerajaan gangga nagara bermula pada abad kesembilan sejak abad kelima kerajaan gangga nagara sering dikunjungi oleh pedagang luar kerana kekayaan hasil bumi seperti emas dan bijih timah kerajaan gangga nagara juga berjaya mempertahankan kedaulatannya daripada serangan kerajaan srivijaya pada tahun 850 m kerajaan gangga nagara mulai lemah apabila diserang oleh tentera chola dari india pada tahun 1025 serangan ini telah memusnahkan pelabuhan gangga nagara cerna minda apakah kekayaan hasil bumi kerajaan gangga nagara kerajaan funan champa srivijaya angkor majapahit kedah tua dan gangga nagara merupakan kerajaan yang masyhur kerajaan ini merupakan contoh kebijaksanaan kepimpinan masyarakat alam melayu oleh sebab itu kebijaksanaan dan kemasyhuran ini wajar menjadi contoh kepada kita untuk membina tamadun bangsa yang setanding dengan bangsabangsa lain di dunia kaitkan kepemimpinan pemerintah dengan kemasyhuran sesebuah kerajaan 1314 kerajaan alam melayu dan kerajaan luar yang sezaman pengenalan kerajaan alam melayu muncul sezaman dengan kerajaankerajaan luar yang lain hal ini menunjukkan bahawa kerajaan alam melayu membangun dan maju setanding dengan kerajaan tersebut kerajaan alam melayu juga mempunyai hubungan perdagangan keagamaan dan diplomatik dengan kerajaan ini kerajaan luar yang sezaman abad pertama amerikautara empayar rom asia empayar empayar parsi kushan dinasti han funan afrika amerikaselatan colosseum rom tapak bandar oc eo pada abad pertama kemunculan kerajaan funan sezaman dengan empayar rom empayar parsi empayar kushan dan dinasti han cerna minda kerajaan namakan kerajaan luar yang sezaman dengan kerajaan awal alam alam melayu melayu 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kerajaan Alam Melayu dan Kerajaan Luar yang Sezaman </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pagoda xumi dinasti tang amerika aabbaadd kkeesseemmbbiillaann utara empayarbyzantine pagoda xumi asia hdtintapsti taanrgtscultural kerajaan chinacomen85art abbasiyah dinasti s2975html tang angkor kerajaan menara cham champa chola di mi son kerajaan afrika champa srivijaya hagia sophia amerika empayar byzantine selatan angkor wat kerajaan angkor candi bahal kerajaan srivijaya pada abad kesembilan kerajaan champa srivijaya dan angkor sezaman dengan kerajaan abbasiyah empayar byzantine dinasti tang dan kerajaan chola abad ke14 amerikautara kerajaan turki uthmaniyah empayar mongol afrika kesultanan delhi angkor champa qutb minar amerika majapahit kesultanan delhi selatan pada abad ke14 kerajaan champa angkor dan majapahit sezaman dengan empayar mongol kerajaan turki uthmaniyah dan kesultanan delhi gapura bajang ratu kerajaan majapahit kerajaan alam melayu merupakan kerajaan yang penting dan mempunyai kerajaan alam melayu muncul sezaman tamadun tinggi yang setanding dengan dengan kerajaankerajaan luar yang lain kerajaan luar yang lain buktikan 15hubungan perdagangan kerajaan alam melayu menjalinkan hubungan perdagangan dengan kerajaan luar kedudukan strategik di laluan perdagangan timur dan barat serta kekayaan hasil bumi mendorong pemerintah kerajaan alam melayu menjalinkan hubungan perdagangan dengan kerajaan lain laut k a rom spia antioch tyre alexandria barbaricon guangzhou tamralipti barygaza aden turan arikamedu oc eo kedah tua palembang tuban petunjuk pedagang luar ke alam melayu pedagang alam melayu lautan hindi ke pelabuhan luar barangan alam melayu dibawa ke rom jalan perdagangan alam melayu dengan kerajaan luar bermula dari abad pertama hingga abad ke15 perkembangan hubungan perdagangan ini menunjukkan amalan sikap keterbukaan para pemerintah kerajaan alam melayu telah membawa kemakmuran ekonomi cerna minda berdasarkan peta di atas nyatakan apakah kepentingan kegiatan pelabuhan yang terdapat di india perdagangan terhadap sesebuah dan china negara pada masa ini 16hubungan keagamaan hubungan kerajaan alam melayu dengan kerajaan luar mendorong penyebaran agama hindu buddha dan islam penyebaran agamaagama ini telah mempengaruhi pelbagai aspek kehidupan seperti pentadbiran perundangan ekonomi dan sosiobudaya hindu buddha islam terdapat beberapa cara peranan asoka pemerintah terdapat beberapa cara penyebaran agama hindu empayar maurya penyebaran agama di alam melayu iaitu menghantar samisami islam di alam melayu melalui peranan pedagang buddha ke alam melayu iaitu melalui peranan tentera dan golongan untuk menyebarkan agama pedagang pemerintah brahmin buddha dan pendakwah penemuan artifak pengaruh hindu di lembah bujang kedah ukiran pengaruh islam yang sumber nik hassan shuhaimi penemuan artifak pengaruh buddha ditemukan di beruas perak nik abdul rahman ed early di lembah bujang kedah sumber nik hassan shuhaimi history singapura didier millet 1998 hlm 120 sumber nik hassan shuhaimi nik nik abdul rahman ed early abdul rahman ed early history history singapura didier millet singapura didier millet 1998 hlm 96 1998 hlm 132 penyebaran agamaagama ini ke alam melayu menggambarkan sikap keterbukaan penduduk alam melayu agama hindu dan buddha telah dianuti oleh sebahagian penduduk tempatan setelah kedatangan agama islam sebahagian besar penduduk di alam melayu menganut agama ini cerna minda bagaimanakah agama hindu buddha dan islam tersebar ke alam melayu 17hubungan diplomatik hubungan diplomatik merupakan hubungan politik antara dua kerajaan dalam hal ini kerajaan alam melayu telah menjalinkan hubungan diplomatik dengan kerajaan di china dan india bagi mengukuhkan kedudukannya dan membuka jalan kepada perkembangan perdagangan hubungan kerajaan alam melayu dengan china funan champa utusan dihantar pada abad ketiga utusan dihantar pada abad ketiga tujuan tujuan memulihkan hubungan setelah berperang memohon bantuan ketenteraan untuk dengan sekutu china iaitu dai viet melawan dai viet majapahit srivijaya utusan dihantar pada utusan dihantar pada china abad ketujuh abad ke14 tujuan tujuan mendapatkan menjalinkan hubungan pengiktirafan dan persahabatan memperkukuh hubungan persahabatan dan perdagangan angkor kedah tua utusan dihantar pada abad ke12 tujuan memperkukuh persahabatan dan utusan dihantar pada abad ketujuh perdagangan tujuan memperkukuh hubungan perdagangan kps bina garis masa hubungan kerajaan alam melayu dengan china 18hubungan kerajaan alam melayu dengan india funan srivijaya utusan dihantar pada utusan dihantar pada abad ketiga abad kesembilan tujuan tujuan memperkukuh mengeratkan hubungan hubungan perdagangan persahabatan dan dan keagamaan dengan india hubungan keagamaan india majapahit angkor utusan dihantar pada abad ke14 utusan dihantar pada abad ke12 tujuan tujuan mengeratkan hubungan mengeratkan hubungan persahabatan persahabatan hubungan diplomatik antara kerajaan alam melayu dengan kerajaan luar menunjukkan usaha persahabatan yang cuba dijalinkan antara kerajaan kerajaankerajaan alam melayu bersifat terbuka dan saling menghormati dalam menjalinkan hubungan dengan kerajaan luar hubungan ini penting untuk membantu kemajuan kerajaan alam melayu jelaslah bahawa pemerintah kerajaan alam melayu bijak mengurus hubungan kerajaannya dengan kerajaan luar aktivitifikirpasangankongsi thinkpairshare berdasarkan peta kerajaan alam melayu champa di sebelah lakukan aktiviti yang berikut angkor a secara individu kenal pasti lokasi kerajaan funan lcahuinta alam melayu yang masyhur selatan selat kgeadnaghg atu naagara melaka b bincangkan dengan rakan sekelas tentang srivijaya negara dan ibu negara asia tenggara yang ada pada hari ini kemudian senaraikannya c kongsikan hasil perbincangan di dalam kelas lautan majapahit hindi 19imbas kembali kerajaan alam melayu konsep alam melayu aspek geografi aspek bahasa aspek budaya 1 kerajaan funan 2 kerajaan champa lokasi lembah sungai mekong champa lokasi selatan dan tengah vietnam kewujudan kerajaan alam masa abad pertama angkor masa abad kedua pusat kerajaan vyadhapura funan pusat kerajaan indrapura m eklaeyraujaan lcsaehulinata selat melakakgeadnaghg atu naagara t an 4lo kkaersiaj laaenm abanhg skuonrgai funan mekong 3 kerajaan srivijaya srivijaya masa abad kesembilan kerajaan champa lokasi lembah sungai pusat kerajaan hariharalaya musi sumatera kerajaan srivijaya masa abad ketujuh ppaulseamt bkaenrgajaan lhainudtian majapahit 5lo kkaersiaj alaenm mbaahj aspuanhgaiti kerajaan angkor brantas jawa timur kerajaankerajaan awal alam melayu masa abad ke13 kerajaan majapahit pusat kerajaan kota trowulan kerajaan kedah tua 6 kerajaan kedah tua lokasi sungai mas dan sungai bujang kerajaan gangga nagara masa abad kelima 7 kerajaan gangga nagara ppeunsgakta lakne braujjaanagn sungai mas dan ktu ead a h ltmpeuonaksgsaaaaths i ta apbrnaaaandjht a kmai beealn ra ay tu b a h a g i a n selat en pa am melaka gn aag n agr g aa k e a n g k a l a n kerajaan alam melayu yang masyhur kemasyhuran amerikautara kerajaan alam melayu dan kerajaan turki uthmaniyah empayar mongol kerajaan luar yang sezaman hubungan perdagangan hubungan keagamaan afrika kesultanan hubungan diplomatik delhi angkor champa amerika qkuestbu lmtaninaanr d elhi majapahit selatan gapura bajang ratu kerajaan majapahit bab ini telah menjelaskan bahawa alam melayu merupakan lingkungan kawasan yang luas dalam aspek geografi keserumpunan bahasa dan budaya kerajaan ini telah mencapai kegemilangan dan menjadi masyhur kegemilangan ini juga dikaitkan dengan keterbukaan kerajaan alam melayu untuk mengadakan hubungan dengan kerajaan luar bab seterusnya akan membincangkan kegemilangan kerajaan alam melayu dalam aspek pemerintahan dan ekonomi 20pemahaman dan pemikiran kritis 1 penduduk alam melayu mempunyai ikatan keserumpunan berdasarkan pernyataan di atas apakah aspek keserumpunan tersebut i agama ii bahasa iii budaya iv ekonomi a i dan ii b i dan iv c ii dan iii d iii dan iv 2 kerajaan ini diasaskan oleh jayavarman ii kerajaan ini terletak di lembah sungai mekong kerajaan alam melayu yang manakah berkaitan dengan maklumat di atas a funan b angkor c champa d srivijaya 3 mengapakah peranan patih gajah mada dianggap penting kepada kerajaan majapahit a meluaskan empayar b mengasaskan kerajaan c menyebarkan pegangan agama d menguasai laluan perdagangan 4 apakah kepentingan hubungan diplomatik kepada kerajaan alam melayu a kesetiaan rakyat b kemakmuran negara c peningkatan penduduk d pengekalan sumber alam 21pemahaman dan pemikiran kritis 5 tenasserimkneicpoublaaruan filipina tanah melayu pngaeupwinu eaa kseoploumlaounan nama smeegyleaanntatminnagr kembojavietnam filipina s kra brunei malaysiasingapura indonesia nama taiwan papua new tanah guinea melayu madagaskar australia kepulauan pasifik new zealand nama berdasarkan gambar di atas jawab soalan yang berikut a namakan tokoh di atas yang mentakrifkan konsep alam melayu mengikut aspek geografi b padankan gambar tokoh di atas dengan peta geografi di sebelahnya c nyatakan pendapat tokoh lain tentang konsep alam melayu berdasarkan aspek geografi 6 kerajaan alam melayu juga merupakan kerajaan yang penting dan mempunyai tamadun tinggi yang setanding dengan kerajaan luar yang lain berdasarkan pernyataan di atas jawab soalan yang berikut a senaraikan kerajaan luar yang sezaman dengan kerajaan alam melayu pada abad pertama b nyatakan kegemilangan kerajaan alam melayu dalam aspek perluasan kuasa c pada pendapat anda bagaimanakah kita dapat meneruskan kegemilangan tamadun kerajaan alam melayu 7 secara berkumpulan hasilkan satu buletin tentang hubungan kerajaan alam melayu dengan china dan india aspek perbincangan buletin hendaklah mengandungi perkara yang berikut a bentuk hubungan b cara penghantaran utusan c tujuan jalinan hubungan 22cakna dan cerminan sejarah nilai patriotisme dan iktibar apabila mempelajari budaya serumpun kita memperoleh pengetahuan tentang persamaan amalan budaya masyarakat pemahaman sejarah kewujudan kerajaan alam melayu dapat melahirkan rasa bangga akan kegemilangan negara hubungan antara kerajaan alam melayu dengan kerajaan luar mendidik kita agar menjalinkan kerjasama dan bersifat terbuka untuk kemakmuran negara diri dan keluarga negara sikap toleransi dan berbaikbaik dengan sebagai warganegara malaysia kita harus ahli keluarga akan mengukuhkan institusi berbangga kerana negara kita bersifat terbuka kekeluargaan dalam menjalinkan hubungan persahabatan dengan negara luar oleh itu kita perlu menjaga imej baik negara di mata masyarakat antarabangsa jalinan persahabatan antara negara asean pertubuhan negaranegara asia tenggara the association of southeast asian nations dengan negara maju dapat memberikan faedah kepada keduadua belah pihak dalam memajukan negara masingmasing 23bab2 sistem pemerintahan dan kegiatan ekonomi masyarakat kerajaan alam melayu sinopsis kerajaan alam melayu mempunyai sistem apakah elemen pemerintahan tersendiri iaitu sistem beraja masyarakat kerajaan alam melayu juga kewarganegaraan dan menjalankan pelbagai kegiatan ekonomi nilai sivik yang anda seperti pertanian perdagangan mengutip dapati hasil hutan dan hasil laut serta perlombongan dan pembuatan 1 menilai kepentingan kebijaksanaan pemimpin dalam mentadbir negara 2 menghuraikan kepentingan menghargai apakah yang akan warisan kerajaan alam melayu anda pelajari 3 menerangkan iktibar yang diperoleh daripada kegemilangan kerajaan alam 1 menerangkan sistem pemerintahan melayu kerajaan alam melayu 4 merumuskan kepentingan kehidupan 2 menghuraikan kegiatan ekonomi berorganisasi dalam membentuk masyarakat kerajaan alam melayu kemakmuran negara 2244</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bab  Sistem Pemerintahan dan Kegiatan Ekonomi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ukiran kapal dagang pada dinding candi borobudur yang menggambarkan kegiatan perdagangan masyarakat alam melayu sumber koleksi suffian mansor 2015 kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi pemerintahan kerajaan alam melayu 2 meneroka bukti perkembangan ekonomi masyarakat kerajaan alam melayu 3 membuat interpretasi kehebatan sistem pemerintahan kerajaan alam melayu 4 membuat imaginasi kegiatan ekonomi masyarakat kerajaan alam melayu 5 membuat rasionalisasi hubungan antara kerajaan alam melayu dengan tamadun dunia 225521 sistem pemerintahan pengenalan sistem pemerintahan yang diamalkan oleh kerajaan alam melayu yang masyhur ialah sistem beraja sistem beraja ini terbahagi kepada dua iaitu pusat dan wilayah kerajaan funan kerajaan champa rajarajaraja funan menggunakan pelbagai raja gelaran antaranya termasuklah kurung rajaraja champa menggunakan gelaran bnam yang bermaksud raja gunung rajadhiraja rajaraja champa diiktiraf sebagai rajadhiraja yang melambangkan raja funan pemerintah yang mulia dan suci serta dikaitkan sebagai raja segala raja dan cakravatin yang dengan dewa siva bermaksud pemerintah alam sejagat pemerintahan pusat dan wilayah raja champa dibantu oleh para pembesar yang pemerintahan pusat dan wilayah bertanggungjawab mengutip cukai menjaga raja funan dibantu oleh golongan agama keamanan dan mengukuhkan pertahanan dan golongan tentera pada peringkat wilayah champa dibahagikan funan dibahagikan kepada tujuh buah kepada lima wilayah iaitu indrapura amaravati wilayah ketua wilayah ini terdiri daripada vijaya kauthara dan panduranga puteraputera raja mereka digelar sebagai raja kecil kerajaan srivijaya rajarajaraja srivijaya mempunyai unsur kesaktian dan dianggap sebagai bodhisattva yang merujuk peranan raja sebagai buddha di bumi raja srivijaya digelar sebagai raja di gunung dan maharaja di pulau pemerintahan pusat dan wilayah raja dibantu oleh yuvaraja iaitu putera mahkota pratiyuvaraja sebagai raja muda dan rajakumara raja turut dibantu oleh golongan agama tentera pemungut cukai hakim dan penjaga harta kerajaan pentadbiran wilayah terbahagi kepada dua iaitu inskripsi pada telaga batu tentang kedatuan yang ditadbir oleh datu berketurunan raja dan sistem pemerintahan kerajaan pradatuan yang ditadbir oleh datu bukan berketurunan raja srivijayasumber koleksi mardiana nordin 2015 glosari cerna minda inskripsi kata ungkapan lambang yang ditulis siapakah yang layak menggunakan atau diukir pada permukaan sesuatu objek gelaran raja kecil 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bab  Sistem Pemerintahan dan Kegiatan Ekonomi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sistem Pemerintahan </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kerajaan angkor kerajaan kedah tua raja kerajaan kedah tua banyak dibayangi rajaraja angkor menggunakan gelaran dewaraja oleh kerajaan besar di alam melayu yang mengaitkan raja sebagai dewa kuasa kedua dan terutamanya kerajaan srivijaya namun ketiga yang penting dalam sistem pemerintahan ialah begitu kerajaan kedah tua mempunyai permaisuri dan raja muda bentuk pentadbiran yang mudah pemerintahan pusat dan wilayah dengan adanya seorang ketua ketua rajaraja angkor dibantu oleh pembesarpembesar ini mengurus hal perdagangan dan yang bertanggungjawab dalam bidang keagamaan keagamaan apabila kerajaan kedah tua kehakiman keselamatan dan perbendaharaan menjadi sebahagian daripada kerajaan pada peringkat wilayah angkor dibahagikan srivijaya corak pemerintahannya kepada wilayah daerah daerah kecil dan kampung berubah kerajaan kedah tua menjadi sebahagian daripada pradatuan kerajaan srivijaya kerajaan majapahit kerajaan gangga nagara raja struktur pemerintahan kerajaan gangga rajaraja majapahit menggunakan gelaran maharaja nagara tidak jelas kajian menunjukkan sri maharaja dan sri bathara kerajaan gangga nagara mengamalkan sistem pemerintahan beraja raja ini pemerintahan pusat dan wilayah berperanan membangunkan kemajuan raja dibantu oleh sapta prabu dan para pembesar perdagangan dan bertanggungjawab sapta prabu ialah majlis penasihat diraja yang terdiri dalam hal ehwal keselamatan daripada kerabat diraja majapahit dibahagikan kepada 14 wilayah setiap wilayah ini dipecahkan kepada kabupaten kawadanan pakuwuan dan kebuyutan iaitu daerah dan daerah kecil serta kampung golongan pemerintah sistem pemerintahan merupakan tonggak penting dalam usaha rajaraja kerajaan alam melayu golongan untuk membangunkan kerajaannya sistem diperintah pemerintahan yang teratur dengan susunan kuasa raja di puncak pemerintahan yang dibantu oleh pembesar pusat dan wilayah telah mewujudkan kestabilan di alam melayu oleh itu kita harus terdapat dua golongan utama dalam menghargai kestabilan dan keamanan negara supaya struktur sosial masyarakat kerajaan kita dapat hidup makmur dan maju alam melayu iaitu golongan pemerintah dan golongan diperintah anda akan mempelajarinya dengan lebih lanjut tahukah anda dalam bab 3 wanita kerabat diraja mendapat tempat yang tinggi dalam pentadbiran kerajaan majapahit apakah kebaikan sistem mereka menjadi anggota sapta prabu malahan pemerintahan beraja ada yang dilantik menjadi raja 2722 kegiatan ekonomi pengenalan petempatan awal dan peranan sungai dalam mengembangkan kegiatan ekonomi masyarakat kerajaan alam melayu telah dibuktikan melalui penemuan arkeologi seperti yang anda pelajari semasa di tingkatan 1 masyarakat kerajaan alam melayu menjalankan pelbagai kegiatan ekonomi seperti pertanian perdagangan mengutip hasil hutan dan laut serta perlombongan dan pembuatan pertanian alam melayu mempunyai tanah yang subur untuk kegiatan pertanian pada tahap awal kegiatan pertanian bertujuan untuk menyara diri sahaja namun begitu apabila terdapat lebihan hasil pertanian lebihan tersebut akan dipasarkan atau dibekalkan untuk memenuhi keperluan penduduk yang tidak terlibat dalam kegiatan pertanian sebahagian besar kawasan alam melayu ditanam dengan padi baray padi kerajaan funan kerajaan champa dan kerajaan angkorkerajaan funan dan angkor yang terletak di lembah sungai mekong mendapat manfaat daripada kesuburan tanahnya hujan membekalkan air ke tasiktasik besar seperti tonle sap yang digunakan untuk mengairi kawasan padi sawah pemerintah angkor telah membina kolam yang dikenali sebagai baray untuk menyimpan padi ditanam di kawasan tanah tinggi atau bukit yang kurang mendapat bekalan air air di angkor penanaman padi menuaikan hasil tiga dengan dibuat teres atau relung hingga empat kali setahun di champa pula terdapat ketua air di setiap kampung untuk menyelenggarakan terusan dan daik glosari kerajaan majapahit daik benteng atau tembok panjang pulau jawa mempunyai tanah subur yang sesuai untuk yang dibuat daripada tanah untuk kegiatan pertanian sungai bengawan solo dan sungai menahan air dan mencegah banjir brantas membekalkan air untuk pengairan padi sawah pemerintah majapahit telah membina beberapa sistem pengairan untuk meningkatkan pengeluaran padi sawah tahukah anda kerajaan srivijaya sungai bengawan solo pernah padi menjadi tanaman utama kerajaan srivijaya padi diabadikan dalam lagu bengawan sawah ditanam di kawasan pedalaman palembang solo oleh gesang martohartono terutama di tanah tinggi pasemah dan hulu musi lagu ini menceritakan kesibukan sungai tersebut dalam urusan cerna minda perdagangan lagu ini diterjemahkan ke dalam 13 bahasa dunia nyatakan faktor kemajuan penanaman padi di alam melayu 2288</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bab  Sistem Pemerintahan dan Kegiatan Ekonomi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kegiatan Ekonomi </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>rempahratusrempahratus yang terdapat di alam melayu ialah bunga cengkih buah pala dan lada hitam bunga cengkih ditanam di kepulauan maluku buah pala pula ditanam di pulau banda manakala lada hitam ditanam di sumatera dan jawa bunga cengkih buah pala lada hitam kegiatan pertanian yang lain selain tanaman padi masyarakat kerajaan alam melayu juga mengusahakan tanaman nasi merupakan makanan ruji penduduk lain seperti pisang tebu bijan kekacang alam melayu oleh sebab itulah tanaman lada hitam kelapa sayuran dan buahbuahan mereka padi menjadi keutamaan dalam bidang turut terlibat dalam kegiatan menangkap pertanian hanya di bahagian kepulauan kegiatan benefitsherbsandspiceshealth ekonomi ikan di sawah paya dan sungai malahan ada benaelfaitmso mfbelalackyupe bppuenrghat mcel ngkih buah pala masyarakat yang berusaha mendapatkan kulit kurakura dan lada hitam ditanam sebagai tanaman alam dagangan melayu aktivitikumpulan pelangi rainbow groups 1 muridmurid dibahagikan kepada empat kumpulan utama 2 setiap kumpulan dibahagikan pula kepada empat tajuk perbincangan yang berbezabeza seperti yang berikut a pertanian merupakan perniagaan buktikan b bagaimanakah rempah ratus dapat dikomersialkan c berikan hujah yang menyokong pernyataan bahawa pertanian bergantung pada tanah yang subur d kaitkan kemajuan kegiatan pertanian dengan sumbangan teknologi 3 selepas berbincang bina kumpulan yang baharu yang terdiri daripada ahli kumpulan lain 4 setiap ahli kumpulan akan menyatakan hasil perbincangan daripada kumpulan asal kepada ahli kumpulan yang baharu secara bergilirgilir 29perdagangan perdagangan merupakan kegiatan ekonomi yang penting bagi kerajaan alam melayu barangan dari alam melayu menjadi tarikan pedagang luar selain itu kedudukan alam melayu di tengahtengah laluan perdagangan timur dan barat dan adanya kemudahan pelabuhan telah membolehkan kerajaan alam melayu berkembang maju hasil kegiatan perdagangan dengan pedagang luar pelabuhan tersebut dilengkapi dengan pelbagai kemudahan seperti bekalan air tempat tinggal tempat menyimpan barang dagangan dan kawasan berjual beli kerajaan funan tahukah anda pelabuhan oc eo di pelabuhan kerajaan barang didagangkan damar kapur barus kayu srivijaya terdapat jawatan cendana dan gaharu tuhan vatakvurah yang berperanan sebagai penyelia kerajaan champa kegiatan perdagangan dan pelabuhan turan kam ran sri banoy dan maliti perkapalan barang didagangkan beras emas perak gading gajah dan gaharu kerajaan srivijaya pelabuhan palembang barang didagangkan damar kapur barus gaharu madu rotan rempah mutiara rumpai laut gading gajah dan sumbu badak kerajaan angkor pelabuhan yasodharapura barang didagangkan gaharu buah pelaga lilin lebah minyak sayuran damar dan gading gajah kerajaan majapahit pelabuhan tuban sidayu gresik dan surabaya barang didagangkan rempah beras rotan kayu cendana gaharu ikan kulit penyu dan mutiara kerajaan kedah tua kps pelabuhan sungai mas dan pangkalan bujang rasionalkan kepentingan barang didagangkan rotan damar kayu cendana pelabuhan dan kemajuan dan gading gajah kegiatan perdagangan kerajaan gangga nagara gambar latar belakang sungai musi pelabuhan pangkalan lembah kinta tanjung di palembang merupakan kawasan rambutan bidor dan sungai siput kegiatan perdagangan kerajaan awal alam barang didagangkan emas bijih timah rempah melayu yang mencapai zaman kemuncak semasa zaman kerajaan srivijaya ratus kapur barus dan damar 3300pedagang luar pedagang luar yang sering berdagang dengan alam melayu adalah dari china india arab dan parsi mereka membawa pelbagai barang dagangan untuk dijual dan ditukar dengan barangan daripada kerajaan alam melayu pedagangpedagang china membawa pelbagai barangan dari china seperti sutera tembikar pinggan dan mangkuk payung gula dan gendang untuk mendapatkan barangan rempah merupakan barang dagangan terutama yang mempunyai nilai perubatan dari alam melayu utama dari alam melayu pedagang india pula membawa kain kapas tembikar dan pelbagai jenis batu berharga seperti akik dan karnelian untuk dijual kepada penduduk tempatan mereka mendapatkan kain sutera dari china dan pelbagai jenis barang dari alam melayu seperti rempah gaharu dan kapur barus damar madu tukar gambar akik dengan pedagang arab dan parsi membawa pelbagai jenis mangkuk ini tembikar minyak wangi barangan kaca dan manik yang didagangkan dengan kerajaan alam melayu di alam melayu mereka membeli rempah dan kayu wangi untuk didagang semula ke tanah arab dan rom mangkuk zaman dmainngkauskt zia mtaann dginasti tang manik ified1082928antiquetangdynastychangshabowl selain digunakan untuk withruyimotives membuat pakaian sutera juga digunakan sebagai warkah laluan diraja dan panjipanji kerajaan perdagangan kerajaan awal aktiviti perdagangan di alam melayu telah membantu membangunkan pelabuhan dan memajukan pembuatan cerna minda kapal masyarakat kerajaan alam melayu juga mahir membuat kapal dan menguasai ilmu pelayaran mereka nyatakan pelabuhanpelabuhan mampu belayar hingga afrika kita harus menghargai dan kerajaan alam melayu mencontohi kegigihan mereka memajukan diri ini aktivitipembentangan hasil kendiri self access learning gambar di sebelah menunjukkan ukiran kapal pada dinding candi borobudur 1 apakah yang dapat dilihat pada ukiran tersebut 2 apakah jenis barangan yang boleh dimuatkan di dalam kapal dagang tersebut 3 lakarkan replika kapal dagang pada masa dahulu 4 bandingkan binaan kapal dagang dahulu dengan kapal dagang sekarang 5 bentangkan hasil dapatan 31hasil hutan dan laut majapahit srivijaya funan kebanyakan hasil hutan diperolehi bumi srivijaya juga kaya dengan salah satu sumber penting kepada ekonomi funan adalah hasl daripada negerinegeri naungan hasil hutan seperti kapur barus h utan dan hasil laut barangbarang ini mendapat permintaan sarang burung kayukayu wangi antara hasil hutan ini adalah kapur daripada perdagang asing antara barang yang diperolehi adalah kayu gaharu dan cendana barus rotan kayu gaharu dan seperti bulu burung raja udang dan merak mutiara burung nuri kekayaan hasil srivijaya juga dihasil cendana gading gajah dan coral dari wilayah naunganya dengan kayukayu wangi gading gajah c hampa tanduk badak kayu wangi dan kapur barus salah satu lagi hasil utama orang laut yang juga dikenali sebagai hasil hutan ini adalah pelbagai dari kayukayuan kepada haiwan liar antara binatang liar yang menjadi datang drai srivijaya ialah hasil laut orang seletar merupakan penyokong setia tumpuan untuk didagangkan adalah seladang banting badak pelantuk gajah kuching liar harimau dan hasil laut ini digerakkan oleh orang kepada pewaris kerajaan srivijaya h arimau kumbang kepentingan binatang liar ini adalah kulit tanduk gading dan organ dalamannya laut orang laut bukan sahaja memburu binatangbinatang ini juga perlu mendapat pekenan raja dan juga perlu membayar yuran dengan menjadi kumpulan yang mengawal sumber keselamatan perdagang dan kerajaan gading gajah bagi hasil tumbuhan gaharu merupakan keluaran utama champa gaharu champa tetapi juga merupakan pelaut yang ntanmenterioranglautterakhirdi m endapat reputasi baik di jepun dan asia barat perdagang india mengakui gaharu champa adalah terkenal dalam mendapatkan hasil hasil hutan dan laut singapura gaharu terbaik bagi perdagang cina mereka sanggup membayar gaharu ini dengan timbangan perak hasil laut untuk perdagangan kerajaan alam melayu kaya dengan hasil hutan dan laut pada peringkat awal masyarakat kerajaan alam melayu menjalankan kegiatan mengutip hasil hutan dan hasil laut bagi kegunaan mereka antara hasil hutan dan laut dari alam melayu sahaja apabila kegiatan ini membawa hasil yang melebihi keperluan masyarakat setempat maka angkor lebihan ini didagangkan dalam kalangan petempatan tersebut kawasan petempatan ini seterusnya berkembang menjadi kawasan perdagangan antara hasil hutan dan laut yang mendapat permintaan barangbarang hutan yang diperolehi dari angkor kebanyakannya trepang gading gajah rtoitnang gi daripada pedagang asing termasuklah gaharu sarang burung rotan kapur barus gamat terdapat diwilayah naungannya penguasaan angkor keatas segenting mutiara dan rumpai laut kra memberi feadah kepada angkor kursusnya untuk mendapat hasil hutan tambralinga misalnya mempunyai hasil kayu geharu yang hasil hutan d iminati oleh perdagang cina gaharu digunakan susmebebr a gai bahan pewangi httdpawnw wpsealreunebwjaertsaeynsc ogevaerhytahirnguy ou hasil laut sumber thesea sumber needtoknowaboutrattanfurniture cucumber banyak didapati di hutan 3607106114908malaysiasitagadinggajah sungai mekong tanah selundupansenilairp5miliar melayu dan sumatera sirip ikan yu sarang burung kulit harimau aktiviti sarang burung layanglayang banyak berdasarkan pembacaan anda di surat khabar carikan beberapa berita didapati di utara pulau tentang usaha membiak haiwan liar atau serangga sebagai satu borneo dan digunakan perniagaan di malaysia salah satu contohnya ialah madu kelulut untuk kesihatan dan gamat dijadikan bahan makanan dan perubatan perubatan sumber sumber kfinbantexas phototiger_skinhtml smuamnfbaeart shatrtpangsabnugrubnugahwhaatlietco mnutrisimengenal rotan mudah didapati di seluruh alam melayu rotan digunakan sebagai bahan binaan dan barang kraf tangan rumpai laut dijadikan mutiara dijadikan makanan barang perhiasan kapur barus banyak ditemukan di sumatera gamat mutiara dan rumpai laut mudah dan borneo kapur barus digunakan didapati di perairan alam melayu terutama sebagai bahan pewangi di selat melaka dan laut sulu hasil hutan dan laut ini mendapat permintaan tinggi daripada pedagang kerana mempunyai pelbagai kegunaan seperti sumber makanan ubatan wangian perhiasan dan bahan binaan cerna minda bagaimanakah kita boleh mengkomersialkan nyatakan hasil hutan dan hasil laut hasil hutan dan hasil laut negara masyarakat kerajaan alam melayu 32perlombongan dan pembuatan masyarakat kerajaan alam melayu turut menjalankan kegiatan perlombongan dan pembuatan perlombongan ialah kegiatan melombong emas perak dan bijih besi pada peringkat awal masyarakat kerajaan alam melayu menjalankan kegiatan melombong dengan cara mendulang secara kecilkecilan pembuatan pula ialah kegiatan membuat barang harian dan mewah seperti perhiasan emas cuka kelapa pembuatan garam dan pembuatan tembikar perlombongan di champa di champa perak emas di lombong dilombong di indrapura di kawasan dan kawasan di antara pergunungan hue amaravati dan vijaya emas perak di angkor bijih besi dilombong di pergunungan phnom dek bijih besi pembuatan masyarakat kerajaan masyarakat kerajaan funan dan angkor champa mahir dalam menghasilkan pembuatan barangan pelbagai barangan tembikar daripada bijih besi barang perhiasan dan emas seperti emas barang perhiasan tembikar masyarakat masyarakat kerajaan kerajaan champa majapahit mengusahakan mengusahakan pembuatan garam gula pembuatan cuka dan minyak di samping kelapa itu mereka mengusahakan pembungkusan daging garam kerbau dan membuat cuka kelapa mi daripada beras kekayaan sumber alam di alam melayu menyebabkan pelbagai kegiatan ekonomi dapat dijalankan kebijaksanaan pemerintah mengurus cerna minda sumber alam dan kegigihan rakyat bekerja telah memakmurkan alam melayu oleh sebab itu nyatakan kegunaan hasil kita harus bijak memanfaatkan dan mengurus perlombongan alam sekitar untuk memajukan diri dan negara 33imbas kembali sistem pemerintahan dan kegiatan ekonomi masyarakat kerajaan alam melayu sistem pemerintahan beraja pemerintahan pusat dan wilayah kegiatan ekonomi pertanian hasil hutan dan laut perdagangan perlombongan dan pembuatan kerajaan funan champa srivijaya angkor majapahit kedah tua dan gangga nagara mengamalkan sistem pemerintahan beraja pemerintahan ini terdiri daripada dua peringkat iaitu pusat dan wilayah kegiatan ekonomi masyarakat kerajaan alam melayu juga berkembang dengan maju seiring dengan pemantapan sistem pemerintahan para pedagang tempatan telah berinteraksi dengan pedagang dari luar dengan melakukan aktiviti jual beli kemajuan masyarakat alam melayu juga dapat dilihat dalam aspek sosiobudaya yang akan dibincangkan dalam bab seterusnya 34pemahaman dan pemikiran kritis 1 apakah gelaran yang digunakan oleh raja funan a dewaraja b yuwaraja c bodhisattva d kurung bnam 2 pentadbiran wilayah kerajaan srivijaya terbahagi kepada dua iaitu kedatuan dan pradatuan berdasarkan maklumat di atas siapakah pentadbir wilayah pradatuan a datu merupakan orang luar b datu yang berketurunan raja c datu merupakan rakyat biasa d datu yang bukan berketurunan raja 3 kerajaan ini meletakkan peranan wanita sebagai penasihat dalam pemerintah kerajaannya kerajaan alam melayu manakah boleh dikaitkan dengan penyataan ini a srivijaya b majapahit c funan d angkor 4 penduduk majapahit menghasilkan garam gula pembungkusan daging kerbau dan mi daripada beras berdasarkan penyataan di atas apakah nilai yang dapat dikaitkan dengan masyarakat alam melayu a menghargai alam sekitar b kreatif dalam penciptaan c tabah menghadapi cabaran d bertoleransi dalam kehidupan 35hasil hutan dan laut majapahit srivijaya funan pemahaman dan pemikiran kritis kebanyakan hasil hutan diperolehi bumi srivijaya juga kaya dengan salah satu sumber penting kepada ekonomi funan adalah hasl daripada negerinegeri naungan hasil hutan seperti kapur barus h utan dan hasil laut barangbarang ini mendapat permintaan sarang burung kayukayu wangi antara hasil hutan ini adalah kapur daripada perdagang asing antara barang yang diperolehi adalah kayu gaharu dan cendana barus rotan kayu gaharu dan seperti bulu burung raja udang dan merak mutiara burung nuri kekayaan hasil srivijaya juga5 dihasil cendana gading gajah dan coral dari wilayah naunganya dengan kayukayu wangi gading gajah c hampa tanduk badak kayu wangi dan kapur barus salah satu lagi hasil utama orang laut yang juga dikenali sebagai hasil hutan ini adalah pelbagai dari kayukayuan kepada haiwan liar antara binatang liar yang menjadi datang drai srivijaya ialah hasil laut orang seletar merupakan penyokong setia tumpuan untuk didagangkan adalah seladang banting badak pelantuk gajah kuching liar harimau dan hasil laut ini digerakkan oleh orang kepada pewaris kerajaan srivijaya h arimau kumbang kepentingan binatang liar ini adalah kulit tanduk gading dan organ dalamannya laut orang laut bukan sahaja memburu binatangbinatang ini juga perlu mendapat pekenan raja dan juga perlu membayar yuran dengan menjadi kumpulan yang mengawal sumber keselamatan perdagang dan kerajaan gading gajah bagi hasil tumbuhan gaharu merupakan keluaran utama champa gaharu champa tetapi juga merupakan pelaut yang ntanmenterioranglautterakhirdi m endapat reputasi baik di jepun dan asia barat perdagang india mengakui gaharu champa adalah terkenal dalam mendapatkan hasil singapura gaharu terbaik bagi perdagang cina mereka sanggup membayar gaharu ini dengan timbangan perak hasil laut untuk perdagangan berdasarkan gambar baray di atas jawab soalan yang berikut antara hasil hutan dan laut dari alam melayu angkor a apakah kegunaan baray b apakah peranan raja untuk memajukan kegiatan pertanian barangbarang hutan yang diperolehi dari angkor kebanyakannya trepang gading gajah c sebagai seoranrg opteamni mpin bagaimanakah anda dapat memajukan negara terdapat diwilayah naungannya penguasaan angkor keatas segenting k ra memberi feadah kepada angkor kursusnya untuk mendapat hasil 6 isikan tempat kosong di bawah hutan tambralinga misalnya mempunyai hasil kayu geharu yang d iminati oleh perdagang cina kegiata n ekon omi ma syarakat k erajaa n alam melayu h as il h u tan sumberh asil la ut p erlomb ongan pembuatan sumber thesea sumber needtoknowaboutrattanfurniture cucumber sirip ikan yu sarang burung kulit harimau aktiviti berdasarkan pembacaan anda di surat khabar carikan beberapa berita tentang usaha membiak haiwan liar atau serangga sebagai satu perniagaan di malaysia salah satu contohnya ialah madu kelulut sumber sumber kfinbantexas phototiger_skinhtml 7 berdasarkan gambsmauamrn fbdaeairt a shattartpasng sjabanuwgrubanubgah wshaoatliaetcloa mn nyuatrnisgi mbeenrgieknualt a senaraikan hasil hutan kerajaan alam melayu b apakah kegunaan hasil hutan tersebut pada zaman kemasyhuran kerajaan alam melayu c adakah hasil hutan dan laut masih penting dalam pembangunan ekonomi masyarakat dan negara pada hari ini bincangkan 36cakna dan cerminan sejarah nilai patriotisme dan iktibar pengetahuan tentang sistem pemerintahan kerajaan alam melayu menyedarkan kita tentang kepentingan mentaati pemerintah kestabilan politik dan kemakmuran ekonomi penting untuk membina kegemilangan tamadun bangsa dan negara kita perlulah bijak memanfaatkan kekayaan sumber alam untuk kemakmuran ekonomi negara diri dan keluarga negara kita mestilah bersifat kreatif dan inovatif sebagai rakyat kita harus terlibat dalam demi kemajuan diri dan keluarga kita program pembangunan ekonomi negara pembangunan dan kemajuan negara menjadi tanggungjawab kita bersama sama daya kreativiti dan inovasi amat penting dalam menjana kekayaan ekonomi negara sumber ihsan permodalan nasional berhad 37bab3 sosiobudaya masyarakat kerajaan alam melayu replika batu bersurat talang tuwo yang ditemukan di palembang bertarikh 684 m sinopsis sumber koleksi mardiana nordin 2017 sosiobudaya merupakan cara hidup dan pemikiran sesebuah masyarakat masyarakat kerajaan funan champa srivijaya angkor majapahit kedah tua dan gangga nagara berkembang dengan ciriciri sosiobudaya yang hampir sama walau bagaimanapun sosiobudaya ini diamalkan mengikut kesesuaian situasi dan kreativiti kerajaan masingmasing sosiobudaya masyarakat kerajaan alam melayu sentiasa berkembang dan diwarisi dari satu generasi ke satu generasi apakah yang akan anda pelajari menjelaskan sosiobudaya masyarakat kerajaan alam melayu ukiran watak ramayana pada dinding angkor wat sumber dawn f rooney angkor an introduction to the temples bangkok asia books co ltd 1994 hlm 102 3388apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menghuraikan kepentingan menghargai warisan kerajaan alam melayu 2 menerangkan iktibar yang diperoleh daripada kegemilangan kerajaan alam melayu 3 merumuskan kepentingan kehidupan berorganisasi dalam membentuk kemakmuran negara replika batu bersurat talang tuwo yang ditemukan di palembang bertarikh 684 m kemahiran pemikiran sumber koleksi mardiana nordin 2017 sejarah yang anda dapati 1 memahami kronologi perkembangan sosiobudaya masyarakat kerajaan alam melayu 2 meneroka bukti kewujudan bahasa dan sistem tulisan masyarakat kerajaan alam melayu 3 membuat interpretasi perkembangan persuratan masyarakat kerajaan alam melayu 4 membuat imaginasi struktur sosial masyarakat kerajaan alam melayu 5 membuat rasionalisasi amalan sosiobudaya masyarakat kerajaan alam melayu 339931 bahasa dan tulisan pengenalan perkembangan bahasa berkait rapat dengan perkembangan sistem tulisan sifat keterbukaan masyarakat kerajaan alam melayu membolehkan sistem tulisan berkembang dalam kerajaan funan champa srivijaya angkor majapahit dan kedah tua penggunaan bahasa turut mengalami situasi yang sama kerajaan funan kerajaan champa kerajaan funan menjadikan bahasa masyarakat kerajaan champa menuturkan sanskrit sebagai bahasa utama hal bahasa melayu champa dan bahasa ini dibuktikan dengan penemuan batu sanskrit hal ini dibuktikan dengan bersurat funan bertarikh abad kedua penemuan batu bersurat dalam keduadua tulisan masyarakat funan berasaskan bahasa tulisan orang hu yang menggunakan dalam aspek tulisan masyarakat kerajaan tulisan orang india champa menggunakan tulisan palava dan funan menggunakan kalendar saka tulisan champa kuno penggunaan tulisan yang berasal dari india palava dibuktikan dengan penemuan inskripsi bertarikh abad keenam yang ditulis oleh raja sambhuvarman agama islam tersebar di champa sejak abad kelapan oleh itu bahasa melayu champa menjadi bahasa utama seiring tahukah anda dengan perkembangan tulisan jawi pendidikan masyarakat kerajaan alam melayu berlaku kepada semua golongan masyarakat golongan pemerintah seperti raja kaum batu bersurat tertua kerabat dan bangsawan menerima pendidikan berbahasa melayu formal yang berlangsung di istana proses champa yang ditemukan ini melahirkan golongan bijak pandai dan bertarikh abad keempat pujangga istana yang boleh menghasilkan karya sumber abdul rahman dalam bentuk batu bersurat dan manuskrip alahmadi aksara dan golongan diperintah iaitu rakyat menerima batu bersurat melayu pendidikan tidak formal yang lebih mengkhusus kuno tradisi penulisan manuskrip melayu kuala kepada kehidupan harian seperti ilmu lumpur perpustakaan ubatubatan petua bercucuk tanam ilmu negara 1997 hlm 134 pertukangan dan persenjataan serta adat resam glosari kalendar saka kalendar ini diperkenalkan oleh raja kanishka daripada dinasti kushan di utara india pada tahun 78 m kalendar saka ini mengandungi 12 bulan dalam setahun sumber paul michel munoz early kingdoms of the indonesian archipelago and the malay peninsula singapura editions didier millet 2006 hlm 321 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sosiobudaya Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bahasa dan Tulisan </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>kerajaan srivijaya kerajaan angkor masyarakat kerajaan srivijaya masyarakat kerajaan angkor menggunakan menggunakan bahasa melayu sebagai bahasa sanskrit dan khmer hal ini bahasa utama dalam urusan pentadbiran dibuktikan dengan penemuan inskripsi dan harian bahasa ini menerima pada dinding candi pengaruh daripada bahasa sanskrit terdapat dua jenis tulisan yang ditemukan hal ini dibuktikan dengan penemuan pada dinding candi iaitu tulisan palava batubatu bersurat seperti kedukan bukit dan tulisan khmer kota kapur telaga batu dan talang tuwo di sumatera bertarikh abad ketujuh batu bersurat ini ditulis dalam bahasa melayu dengan pengaruh bahasa sanskrit menggunakan tulisan palava tulisan palava sumber george coedes dan louischarles damais sriwijaya history religion and language of an early malay polity kuala lumpur mbras 1992 hlm 46 batu bersurat talang tuwo sebahagian terjemahan ayat pada batu bersurat talang tuwo pada tahun saka 606 pada saat itulah swasti sri sakiwarsatita 606 dim taman yang dinamakan śriksetra dibuka dwitiya suklapaksa wulan caitra sana di bawah pimpinan baginda sri jayanasa tatkalana parlak sriksetra ini niparwuat niat baginda semoga yang ditanam di sini parwanda punta hiyam sri jayanasan ini seperti pokok kelapa pinang nipah sagu pranidhananda punta hiyam sawanakna dan pelbagai pokok buahbuahan dapat yam nitanam di sini niyur pinam hanau dimakan hasilnya rumwiya dnan samsrana yam kayu sumber george coedes dan louischarles namakan wuahna damais sriwijaya history religion language of an early malay polity kuala lumpur mbras 1992 hlm 49 transliterasi ejaan rumi bahasa melayu dengan pengaruh bahasa sanskrit pada batu bersurat talang tuwo apakah kepentingan penemuan batu bersurat 41kerajaan majapahit bahasa utama masyarakat kerajaan majapahit ialah jawa kuno masyarakat kerajaan ini menggunakan tulisan kawi hal ini dibuktikan dengan penemuan inskripsi dan persuratan bertarikh abad ke14 selepas tersebarnya agama islam masyarakat kerajaan majapahit mula menggunakan hurufhuruf arab dalam sistem tulisan mereka tulisan yang menggunakan huruf arab bagi menulis bahasa jawa tulisan kawi dikenali sebagai tulisan pegon tulisan pegon kerajaan kedah tua penemuan batubatu bersurat menunjukkan penggunaan bahasa sanskrit dan tulisan palava di kedah tua buktinya melalui penemuan batu bersurat di sungai mas dan cherok tok kun yang bertarikh abad kelima batu bersurat cherok tok kun di pulau pinang cerna minda senaraikan jenis tulisan yang terdapat di alam melayu cuba buat 1 replika batu bersurat dapatkan alatan yang diperlukan seketul batu yang i seketul batu mempunyai ii plastisin tanah liat permukaan rata iii lidi yang tajam 4422bahasa dan tulisan penting kepada perkembangan masyarakat kerajaan alam melayu di samping menjadi alat komunikasi utama bahasa dan tulisan berfungsi untuk menyimpan rekodrekod pemerintahan perundangan perdagangan dan keagamaan pada hari ini hasil tulisan masyarakat kerajaan tersebut menjadi sumber rujukan dan dokumentasi kepada ahli sejarah untuk memahami ketamadunan masyarakat silam glosari kps dokumentasi himpunan atau kumpulan bahan bertulis yang dapat rasionalkan kepentingan digunakan sebagai bukti atau keterangan bagi sesuatu kajian sistem bahasa dan tulisan tulisan kawi tulisan ini berasal dari india perkataan kawi diambil di alam melayu daripada istilah kavi dalam bahasa sanskrit yang bermaksud penyair tahukah anda bahasa pertuturan utama masyarakat negara kita hari ini ialah bahasa melayu bahasa melayu mengalami evolusi mengikut peredaran zaman huruf arab digunakan di alam melayu tulisan arab diadaptasi dan disesuaikan hingga lahirnya tulisan jawi hurufhuruf ini digunakan sepenuhnya namun ditambah lima huruf lagi untuk disesuaikan dengan sebutan dan perkataan melayu hurufhuruf tersebut ialah ca ﭺ nga ﻉ pa ﭫ ga dan nya bahasa melayu juga bersifat terbuka ekoran pertembungan pelbagai budaya bahasa melayu telah menerima pengaruh beberapa bahasa asing sehingga memperkaya lagi perbendaharaan kata bahasa melayu antara pengaruh bahasa asing terhadap bahasa melayu adalah seperti dalam jadual yang berikut jadual pengaruh bahasa asing terhadap bahasa melayu seperti dalam kurungan sanskrit tamil cina parsi arab bhakti bakti petti peti tau ge tauge anggur anggur kursiy kerusi buddhi budi puralli perli poh pia popia gandum gandum qamus kamus bhumi bumi kadai kedai te ko teko khurma kurma dzalim zalim bhasha bahasa satai sate tau hu tauhu khusti gusti sirwal seluar dosa dosa kattil katil sam pan sampan lashkar askar fardhu fardu 2 3 4 uli dan balutkan tulis perkataan hasil plastisin di atas tugasan ke seluruh permukaan replika permukaan batu plastisin tersebut batu tersebut menggunakan bersurat lidi yang tajam 443332 persuratan pengenalan sebelum sistem tulisan digunakan dengan meluas masyarakat kerajaan alam melayu terkenal dengan tradisi lisan tradisi lisan lahir berdasarkan alam sekeliling tema utama tradisi lisan ini bertemakan asalusul binatang nasihat seloka teladan dan adat apabila sistem tulisan lahir persuratan berkembang dalam kalangan masyarakat persuratan merupakan antara bukti keintelektualan masyarakat kerajaan alam melayu bukti kegiatan persuratan awal kerajaan alam melayu yang ditemukan adalah dalam bentuk batu bersurat kerajaan angkor kerajaan srivijaya kegiatan persuratan kerajaan funan kegiatan persuratan masyarakat kerajaan kegiatan persuratan masyarakat kerajaan angkor dibuktikan masyarakat kerajaan srivijaya dibuktikan dengan dengan penemuan batu funan dibuktikan dengan penemuan beberapa batu bersurat sdok kok thom penemuan batu bersurat bersurat seperti karang di barat laut kemboja terawal di alam melayu brahi dan palas pasemah yang mengisahkan yang bertarikh abad kedua bertarikh abad ketujuh pemerintahan jayavarman ii batu bersurat ini inskripsi yang terpahat memerihalkan pengukuhan pada dindingdinding candi kerajaan terutama pula menggambarkan kepentingan taat setia aspek keagamaan dan terhadap raja pemerintahan kerajaan champa kegiatan persuratan masyarakat kerajaan champa dibuktikan dengan penemuan batu bersurat tertua di kauthara bertarikh 192 m di champa juga ditemukan sebanyak 206 buah batu bersurat selain itu ditemukan bukti persuratan inskripsi pada dinding angkor wat champa dalam bentuk sumber michael freeman dan claude manuskrip sejak abad jacques ancient angkor bangkok ke13 karya sastera rivers books ltd 2007 hlm 38 yang masyhur ialah akayet inra patra dan akayet batu bersurat karang brahi deva mano bertarikh 686 m ditemukan di jambi cerna minda sumber george coedes dan louischarles damais sriwijaya apakah bukti persuratan history religion language of an early malay polity kuala lumpur masyarakat kerajaan alam mbras 1992 hlm 50 melayu 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sosiobudaya Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Persuratan </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>kerajaan majapahit kerajaan kedah tua kegiatan persuratan masyarakat kerajaan kegiatan persuratan masyarakat kerajaan majapahit dibuktikan dengan penemuan kedah tua dibuktikan dengan penemuan batu bersurat trowulan bertarikh 1358 batu bersurat antaranya termasuklah yang ditulis dalam bahasa jawa kuno di bukit choras dan bukit meriam bertulisan kawi bertarikh abad kelima selain itu ditemukan bukti persuratan ditemukan juga inskripsi yang ditulis dalam bentuk manuskrip karya sejarah di atas pinggan tanah liat kepingan emas termasyhur ialah nagarakertagama yang dan kepingan perak dikarang oleh prapanca pada tahun 1365 sebahagian besar inskripsi menyentuh karya lain yang terkenal ialah pararaton tentang doa dan amalan dalam agama dan tantu panggelaran buddha persuratan kerajaan alam melayu mendapat pengaruh epik dan sastera india yang terkenal seperti ramayana mahabhrata purana dan jataka yang disadurkan ke dalam bahasa tempatan di alam melayu apabila islam tersebar ke alam melayu sastera islam yang berbentuk syair gurindam cerita hikayat dan nazam mula mempengaruhi persuratan melayu ukiran pada dinding candi banteay srei kisah kehidupan nabinabi seperti nabi sulaiman angkor yang menggambarkan watak dan nabi muhammad saw ditulis ke dalam bahasa krishna daripada karya mahabhrata melayu antara karya kisah nabi yang terkenal sumber michael freeman dan claude jacques termasuklah hikayat nabi bercukur hikayat nabi ancient angkor bangkok rivers books ltd 2007 hlm 215 wafat hikayat bulan berbelah dan hikayat nabi yusof karya epik pula yang banyak mengisahkan perjuangan pahlawan islam diterjemahkan ke bahasa glosari melayu seperti hikayat amir hamzah hikayat saduran sesebuah cerita yang iskandar zulkarnain dan hikayat muhammad ali isi utama cerita tersebut diambil hanafiah kemudian tokoh islam seperti nabi dan daripada karya yang lain pahlawan ini menjadi elemen yang mempengaruhi persuratan melayu aktivitilaungan shout out hikayat seri rama karya persuratan saduran daripada berdasarkan gambar ukiran watak sastera epik ramayana karya inilah hikayat nur muhammad dan ramayana pada dinding angkor sumber nabi mukjizat dan nabi tradizionesacraitramayana_ wat anda diminta memberikan idea bercukur dan nabi wafat hikayat_seri_ramahtml secara lisan karya persuratan pengaruh 1 ceritakan maklumat pada daripada cerita nabinabi gambar di atas sumber endangered archives british library 2 susun dapatan maklumat secara sistematik nazam gurindam syair 3 simulasikan aktiviti masyarakat pada zaman tersebut 4533 seni bina pengenalan kerajaan funan masyarakat kerajaan funan mampu membina kapal seni bina merupakan suatu seni besar yang boleh memuatkan sehingga 700 orang mereka bentuk sesebuah binaan yang dan 1000 tan kargo barangan mereka juga terkenal mempunyai fungsifungsi tertentu dengan perahu panjang yang boleh membawa 100 oleh itu kecemerlangan masyarakat orang penumpang kerajaan alam melayu dapat dilihat sistem pengairan dibina untuk mengawal limpahan melalui hasil seni bina mereka air dan mengalirkan air masin keluar dari tanah antaranya termasuklah seni bina candi pertanian perkapalan dan sistem pengairan candi telah dibina sebagai rumah ibadat pusat pendidikan dan pertemuan masyarakat tinggalan candi masyarakat kerajaan funan yang ditemukan ialah candi go cay thi di oc eo kerajaan angkor masyarakat kerajaan angkor mempunyai seni bina yang berkait rapat dengan kegiatan pertanian mereka membina baray berukuran 2 x 8 kilometer yang dapat menampung 30 juta meter padu air untuk disalurkan ke sawahsawah padi di sekitarnya seni bina kerajaan angkor yang masyhur ialah angkor wat dan angkor thom angkor wat dibina oleh raja suryavarman ii pada abad ke12 angkor wat dibina dengan keluasan 208 hektar binaan menara utama di tengahtengah candi ini ialah setinggi ukiran kapal perang kerajaan angkor pada 65 meter angkor wat sumber thierry zephir angkor the tour of the masyarakat kerajaan angkor turut membina monuments singapura archipelago press 2008 kapal untuk kegunaan perdagangan dan hlm 20 peperangan gambaran binaan angkor wat dari pandangan sisi sumber michael freeman dan claude jacques ancient angkor bangkok rivers books ltd 2007 hlm 55 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sosiobudaya Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seni Bina </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>tahukah anda candi borobudur merupakan candi bagi penganut buddha yang terletak di magelang jawa tengah indonesia candi ini merupakan candi tinggalan binaan di tapak buddha yang terbesar di dunia candi go cay thi di oc eo dibina pada abad kesembilan sumber john guy lost semasa pemerintahan kerajaan kingdoms hindubuddhist sculpture of early southeast asia sailendra candi ini dibina new york the metropolitan berbentuk gunung yang museum of art 2014 hlm 113 bersegisegi dan memiliki beberapa tingkat di bahagian puncaknya terdapat 72 buah cerna minda patung buddha yang diletakkan mengapakah kerajaan funan membina sistem pengairan di dalam stupa kerajaan champa seni bina masyarakat kerajaan champa dapat dilihat melalui candi mi son binaan candinya sumber john guy antara candi kerajaan champa lost kingdoms hindu yang masyhur termasuklah buddhist sculpture kompleks candi di lembah of early southeast asia new york the mi son dong duong dan metropolitan museum of po nagar art 2014 hlm 14 aktivitirangkaian chain link secara berkumpulan murid membuat rantaian kertas dengan menyusun setiap kertas yang dituliskan idea atau maklumat berkaitan soalan yang berikut1 apakah ciriciri keistimewaan angkor thom angkor thom 2 bina lakaran kota berkonsepkan kelestarian alam sekitar pelan menunjukkan gambaran angkor thom angkor thom 4477kerajaan srivijaya masyarakat kerajaan srivijaya turut membina candi antara candi yang masyhur termasuklah candi muara takus dan candi muara jambi di sumatera ibu kota srivijaya menjadi pusat binaan kapal rekod kerajaan china mencatatkan palembang sebagai pusat binaan ukiran tugu di bukit siguntang kapalkapal melayu kunlunpo yang besar boleh belayar palembang yang menggambarkan hingga pelabuhan tonkin dan tenggara china kapalkapal era kerajaan srivijaya sumber koleksi mardiana nordin 2014 kerajaan majapahit masyarakat kerajaan majapahit membina banyak candi semasa era kegemilangannya antaranya termasuklah candi tikus di jawa timur dan candi cetho di jawa tengah selain candi masyarakat kerajaan majapahit membina pintu gerbang seperti gapura wringin lawang iaitu pintu gerbang laluan raja dan gapura bajang ratu iaitu pintu masuk ke dalam sebuah bangunan suci candi cetho sumber mashatoshi iguchi java di jawa timur essay the history and culture of southern country leicester matador 2015 hlm 305 kerajaan kedah tua seni bina kerajaan kedah tua banyak tertumpu kepada binaan candi bagi agama hindu dan buddha di lembah bujang antara tinggalan candi buddha yang masyhur termasuklah di bukit choras bukit pendiat dan bukit meriam tinggalan candi hindu yang masyhur adalah di bukit batu pahat dan bendang dalam keduadua candi ini mendapat pengaruh candi batu pahat seni bina kerajaan cola india sumber nik hassan shuhaimi seni bina arca hindu dan buddha turut ditemukan di lokasi nik abdul rahman ed early history singapura didier millet candi tersebut 2006 hlm 125 kerajaan gangga nagara penemuan patung buddha yang diperbuat daripada gangsa setinggi 18 meter di tanjung rambutan merupakan antara bukti seni bina masyarakat kerajaan gangga nagara turut ditemukan beberapa binaan patung buddha lain di sungai siput dan pangkalan seni bina arca tersebut menerima pengaruh daripada kerajaan gupta india kebijaksanaan masyarakat kerajaan alam melayu dibuktikan melalui kemahiran seni bina seperti perkapalan pengairan dan candi kemahiran tersebut merupakan bukti yang masih boleh dilihat hingga hari ini dan merupakan khazanah sejarah kerajaan alam melayu yang mesti dipelihara dan dipulihara 4834 struktur sosial pengenalan masyarakat kerajaan alam melayu terikat dengan struktur sosial yang hampir sama asas struktur ini terbahagi kepada kelas atasan yang dikenali sebagai golongan pemerintah dan kelas bawahan dikenali sebagai golongan diperintah golongan diraja status tertinggi terdiri daripada raja dan kerabat diraja permaisuri putera puteri adikberadik ibu bapa dan ahli keluarga ukiran pada candi borobudur yang golongan menggambarkan golongan pemerintah bangsawan di istana pemerintah mendukung sistem pentadbiran sumber koleksi mardiana nordin 2010 kerajaan terdiri daripada pembesar ilmuwan golongan agama pujangga dan pendeta istana rakyat merdeka mengukuhkan sistem beraja melalui konsep taat setia golongan dan menjana ekonomi kerajaan diperintah ukiran pada dinding candi bayon terdiri daripada pekerja istana askar petani angkor menunjukkan aktiviti penternak pedagang nelayan dan artisan rakyat sedang menimbang barang hamba semasa berjual beli sumber michael freeman dan berkhidmat dalam sektor sosioekonomi dan meningkatkan status pemiliknya claude jacques ancient angkor terdiri daripada tawanan perang hamba berhutang dan rela menjadi hamba bangkok rivers books ltd 2007 hlm 215 struktur sosial masyarakat kerajaan alam melayu yang tersusun memperkukuh sistem politik dan kedudukan pemerintah kelas atasan memainkan peranan menjaga dan melindungi rakyatnya manakala kelas bawahan memberikan taat setia kepada golongan pemerintah peranan keduadua golongan ini mengukuhkan sistem masyarakat dan menyumbang kepada kestabilan kerajaan kepelbagaian sosiobudaya masyarakat kerajaan alam melayu memperlihatkan kebijaksanaan manusia perkembangan ini juga menunjukkan bahawa masyarakat kerajaan alam melayu saling bekerjasama untuk mempertingkatkan kehidupan mereka hal ini harus menjadi inspirasi kepada peningkatan penciptaan untuk kemajuan negara sekali gus memupuk permuafakatan dalam kalangan warganegara bandingkan struktur sosial masyarakat kerajaan alam melayu dengan masyarakat pada hari ini 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sosiobudaya Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Struktur Sosial </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>imbas kembali bahasa dan tulisan persuratan sosiobudaya masyarakat kerajaan alam melayu seni bina struktur sosial bab ini telah membincangkan kecemerlangan sosiobudaya masyarakat kerajaan alam melayu yang berkembang mengikut peredaran zaman kita perlu berbangga dengan tradisi dan budaya bangsa yang memupuk sifat kreatif dan inovatif dalam kehidupan seharian kecemerlangan sosiobudaya seterusnya diperkukuhkan dengan pegangan masyarakat kerajaan alam melayu terhadap agama dan kepercayaan yang akan dibincangkan dalam bab seterusnya 50pemahaman dan pemikiran kritis 1 tandakan lima nama kerajaan alam melayu di dalam rajah di bawah a p k l u s s a t d a n g k o r c b k g a i d n i i c f e s u k o v a h w h d b n p i m a t i h a p a j a m r m n h h s a u p y u n i l r y t a f p t j n c a d e 2 apakah faktor yang mendorong perkembangan persuratan masyarakat kerajaan alam melayu a sistem tulisan b kepercayaan dan agama c struktur sosial masyarakat d sistem pemerintahan beraja 3 kerajaan funan telah membina baray apakah kepentingan baray a pengairan b petempatan c pusat ibadat d perdagangan 4 dengan merujuk rajah di bawah apakah peranan kumpulan x dalam struktur sosial masyarakat kerajaan alam melayu i pentadbir ii pedagang golongan iii petukang pemerintah iv ilmuan a i dan ii golongan b i dan iv x diperintah c ii dan iii d iii dan iv 51pemahaman dan pemikiran kritis 5 berdasarkan gambar batu bersurat terengganu di atas jawab soalan yang berikut a apakah jenis tulisan yang digunakan pada batu bersurat di atas b nyatakan peranan tulisan terhadap perkembangan masyarakat kerajaan alam melayu 6 bahasa melayu menjadi bahasa utama dalam kerajaan champa dan srivijaya bahasa melayu mengalami proses evolusi mengikut peredaran zaman a apakah peranan bahasa melayu dalam kerajaan awal alam melayu b pada pandangan anda mengapakah bahasa melayu boleh kekal hingga kini lima menara 7 pintu masuk timur pintu masuk selatan galeri timur galeri selatan pintu masuk utara galeri barat pintu masuk utama barat galeri utara berdasarkan lakaran angkor wat di atas jawab soalan yang berikut a apakah ciriciri angkor wat b apakah kepentingan angkor wat sebagai warisan seni bina kerajaan alam melayu c bincangkan langkahlangkah memelihara dan memulihara angkor wat sebagai warisan dunia 52cakna dan cerminan sejarah nilai patriotisme dan iktibar memahami sosiobudaya masyarakat kerajaan alam melayu membolehkan kita mengenali sejarah kepelbagaian budaya di rantau yang kita diami ini mengetahui kegemilangan sosiobudaya masyarakat kerajaan alam melayu dapat meningkatkan kesedaran kita untuk mempertahankan warisan budaya di negara kita keterbukaan masyarakat kerajaan alam melayu menerima pengaruh luar dapat memupuk sikap toleransi untuk meningkatkan pencapaian bangsa dan negara diri dan keluarga negara sikap berganding bahu sesama ahli kita perlu menghormati kepelbagaian keluarga penting dalam membina aspek sosiobudaya di negara kita bagi keluarga yang sejahtera menjamin kemakmuran dan keunikan negara kita daripada kaca mata dunia sikap menghormati kepelbagaian masyarakat di negara ini amat penting demi keharmonian negara sumber koleksi dbp 2015 53bab4 agama kepercayaan dan keunikan warisan masyarakat kerajaan alam melayu masjid pangkalan kakap merbok kedah sumber koleksi ahmad salehee abdul 2017 sinopsis masyarakat kerajaan alam melayu mempunyai pegangan agama dan kepercayaan kepercayaan awal masyarakat ini ialah animisme dan dinamisme sebelum menerima pengaruh agama hindu dan buddha seterusnya masyarakat kerajaan alam melayu menerima pula pengaruh agama islam keunikan warisan kerajaan alam melayu yang merangkumi aspek sistem pemerintahan beraja dan kebijaksanaan pemerintah kegiatan ekonomi perkembangan sosiobudaya dan amalan beragama telah membuktikan kegemilangan kerajaan alam melayu apakah yang akan anda pelajari 1 menerangkan agama dan kepercayaan candi borobudur di pulau jawa masyarakat kerajaan alam melayu sumber joachim schliesinger origin of man in 2 menghuraikan keunikan warisan kerajaan southeast asia volume 5 part 2 hindu temples in alam melayu the malay archipelago phnom penh booksmango 2015 hlm 11 5544</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bab  Agama Kepercayaan dan Keunikan Warisan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menghuraikan kepentingan menghargai warisan kerajaan alam melayu 2 menerangkan iktibar yang diperoleh daripada kegemilangan kerajaan alam melayu 3 merumuskan kepentingan kehidupan berorganisasi dalam membentuk kemakmuran negara masjid pangkalan kakap merbok kedah kemahiran pemikiran sumber koleksi ahmad salehee abdul 2017 sejarah yang anda dapati 1 memahami kronologi pegangan agama dan kepercayaan masyarakat kerajaan alam melayu 2 meneroka bukti anutan agama dan kepercayaan masyarakat kerajaan alam melayu 3 membuat interpretasi keunikan warisan masyarakat kerajaan alam melayu 4 membuat imaginasi keunikan sistem beraja kerajaan alam melayu 5 membuat rasionalisasi keunikan warisan amalan beragama masyarakat kerajaan alam melayu 555541 agama dan kepercayaan pengenalan agama merupakan suatu sistem berkaitan anutan keimanan dan penyembahan terhadap tuhan manakala kepercayaan merupakan pegangan yang diyakini dapat menjadi panduan dalam kehidupan masyarakat kerajaan alam melayu memiliki agama dan kepercayaan yang memberikan panduan dalam kehidupan seharian mereka di samping itu pemerintah kerajaan alam melayu berperanan penting untuk memastikan pengukuhan dan kelangsungan agama dalam kerajaannya kepercayaan awal kepercayaan awal masyarakat kerajaan alam melayu ialah animisme dan dinamisme yang berkait l rapat dengan alam sekeliling cara hidup masyarakat yang hampir sama di seluruh alam melayu au menjadikan kepercayaan mereka juga hampir serupa t k a s animisme ialah kepercayaan bahawa pia perayaan hari moyang setiap makhluk hidupan dan tumbuhan oleh masyarakat memiliki roh atau semangat animisme temuan di bukit berkait dengan kepercayaan terhadap cheeding banting selangor makhluk halus dan penyembahan sumber m kamal kepada roh nenek moyang yang telah china hassan dan ghazali meninggal dunia yang dipanggil hyang basri ed religions and arab penyembahan roh nenek moyang beliefs vol 10 singapura penting untuk memastikan keluarga editions didier millet 2005 hlm 126 yang masih hidup mendapat kebaikan india atau menghindar kesusahan di dunia champaangkor dinamisme berkait rapat dengan kepercayaan funan terhadap kekuatan yang juga dikenali sebagai kedah tua mana atau semangat setiap benda dan gangga nagara makhluk dianggap mempunyai mana yang lautan hindi boleh mempengaruhi kehidupan seseorang srivijaya contohnya upacara pemujaan semangat tanaman dilakukan agar mendapat hasil tanaman majapahit yang subur dan banyak pawang masyarakat iban menyiapkan makanan korban miring semasa sambutan perayaan hari gawai sumber m kamal hassan dan ghazali basri ed cerna minda religions and beliefs vol 10 singapura editions didier millet 2005 hlm 125 apakah maksud animisme dan dinamisme adakah masih terdapat kepercayaan animisme dan dinamisme dalam kehidupan masyarakat asia tenggara pada hari ini bincangkan 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bab  Agama Kepercayaan dan Keunikan Warisan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agama dan Kepercayaan </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>penyebaran agama hindu buddha dan islam sebelum abad ke15 agama hindu dan buddha tersebar sebelum masihi lalu mempengaruhi kehidupan masyarakat kerajaan funan champa srivijaya angkor majapahit kedah tua dan gangga nagara agama islam pula tiba di alam melayu mulai abad ketujuh agama islam seterusnya tersebar dan diamalkan dalam kerajaan melayu seperti champa majapahit kedah dan pasai namun begitu beberapa aspek kehidupan masyarakat melayu seperti sistem pemerintahan bahasa persuratan dan seni bina yang mendapat pengaruh budaya hindu dan buddha masih diamalkan dan disesuaikan dengan agama islam agama hindu buddha dan islam tersebar ke alam melayu lazimnya berkait rapat pengaruh dengan peranan mubaligh pemerintah dan perkembangan perdagangan antarabangsa islam laut k a spia china arab india champaangkorfunan kedah tua gangga nagara lautan hindi srivijaya majapahit petunjuk penyebaran agama hindu penyebaran agama buddha penyebaran agama islam peta penyebaran agama hindu buddha dan islam sebelum abad ke15 ke alam melayu sumber adaptasi daripada m kamal hassan dan ghazali basri eds religions and beliefs singapura editions didier millet 2005 hlm 13 62 dan 86 57perkembangan agama kerajaan funan kerajaan angkor agama hindu dan buddha agama hindu menjadi tersebar dalam kalangan anutan utama dalam kalangan masyarakat kerajaan funan masyarakat kerajaan angkor sejak abad pertama lagi sejak kerajaan ini diasaskan antara raja funan yang dan menjadi gemilang semasa mengambil peranan besar pemerintahan suryavarman ii terhadap perkembangan agama candi hindu yang termasyhur tapak candi go cay thi buddha termasuklah fan shihman di angkor ialah angkor wat sumber john guy lost candi buddha tinggalan kingdoms hindubuddhist peranan agama hindu sebagai kerajaan funan ialah candi go sculpture of early southeast agama utama diambil alih asia new york the cay thi oleh agama buddha semasa metropolitan museum of art 2014 hlm 15 pemerintahan jayavarman vii pada abad ke12 kerajaan champa agama hindu tersebar dalam kalangan masyarakat kerajaan champa sejak abad keempat ketika pemerintahan bhadravarman beliau mendirikan candi angkor wat hindu di lembah mi son yang dikenali sumber thierry zephir angkor sebagai sivabhadresvara candi hindu the tour of the monuments singapura archipelago press 2008 turut dibina di po nagar hlm 893 candi dong duong pula merupakan bukti penyebaran agama buddha di champa penemuan batu bersurat bertarikh 1035 dan kerajaan srivijaya batu nisan bertarikh 1039 di panduranga kerajaan srivijaya merupakan pusat membuktikan penyebaran islam di champa kegiatan agama buddha sejak abad ketujuh islam mulai tersebar luas dalam kerajaan pendeta buddha bernama itsing champa semasa pemerintahan sultan dari china pernah datang ke srivijaya zainal abidin pada abad ke14 untuk mempelajari bahasa sanskrit dan menterjemahkan kitabkitab agama buddha antara candi buddha tinggalan kerajaan srivijaya yang masyhur termasuklah candi muara jambi candi bahal dan candi muara takus candi muara jambi sumber joachim schliesinger origin of man in southeast asia candi po nagar volume 5 part 2 hindu sumber charles higham early culture of temples in the malay mainland southeast asia bangkok rivers archipelago phnom book ltd 2002 hlm 269 penh booksmango 2015 hlm 16 58kerajaan majapahit tahukah anda agama hindu dan buddha berkembang serentak dan saling mempengaruhi dalam kalangan agama islam berkembang pesat masyarakat kerajaan majapahit hayam wuruk di pasai pada abad ke13 pemerintah telah menyatukan aliran dalam agama hindu dan pasai bernama merah silu memeluk buddha yang dipanggil tripaksa pada abad ke14 islam dan kemudian bergelar sultan antara candi tinggalan kerajaan majapahit yang malik alsaleh pengaruh islam masyhur termasuklah candi jabong candi sukuh kemudian terus berkembang dan dan candi brahu diwarisi oleh kerajaankerajaan lain agama islam tersebar di majapahit sejak abad di alam melayu ke14 buktinya wu ping pegawai kerajaan ming beragama islam dilantik sebagai wakil tetap di majapahit gan eng chou pegawai yang beragama islam juga pernah dilantik sebagai ketua kaum cina di tuban kota pelabuhan majapahit masjid setelah kerajaan majapahit demak runtuh kerajaan demak muncul dan menjadi pusat pengajian agama islam terbesar di jawa pada abad ke16 masjid demak sumber koleksi mardiana nordin 2015 kerajaan kedah tua kerajaan gangga nagara agama buddha telah diamalkan dalam masyarakat kerajaan gangga nagara kerajaan kedah tua sejak abad kelima dan menganut agama buddha hal ini menjadi anutan utama agama hindu turut dibuktikan dengan penemuan arcaarca tersebar kemudiannya buddha di lembah kinta kedah mula menerima pengaruh islam turut ditemui ialah patung buddha pada abad ke12 pemerintah kedah yang avalokitesvara di bidor perak arcaarca kesembilan iaitu maharaja derbar raja ii buddha ini bertarikh abad keenam hingga telah memeluk agama islam pada tahun 1136 kesembilan masihi pengaruh agama hindu buddha dan islam dapat dilihat dalam kerajaan alam melayu namun begitu semasa agama islam mulai tersebar luas di alam melayu kerajaan funan dan srivijaya telah pun berakhir aktivitikedai kopi cafe seperti di kafe murid duduk secara berkumpulan di sebuah meja guru meletakkan gambar masjid demak di tengahtengah meja tersebut secara berkumpulan murid membincangkan ciriciri keunikan masjid ini 5942 keunikan warisan masyarakat kerajaan alam melayu pengenalan keunikan warisan bermaksud legasi kebijaksanaan dan keunggulan yang ditinggalkan oleh pemerintah terdahulu untuk diwarisi oleh generasi seterusnya kerajaan alam melayu memiliki keunikan warisan seperti sistem pemerintahan beraja kebijaksanaan pemerintah perkembangan kegiatan ekonomi perkembangan sosiobudaya dan amalan beragama keunikan warisan inilah yang menjadikan tamadun melayu gemilang seperti tamaduntamadun dunia yang lain sistem pemerintahan beraja sistem pemerintahan kerajaan alam melayu berasaskan sistem beraja keunikan warisan sistem pemerintahan di alam melayu dapat dilihat apabila pemerintah mengasimilasikan pengaruh agama dalam pentadbiran raja menjadi tonggak utama kerajaan kedudukan raja diperkukuh dengan sistem pemerintahan yang dibantu oleh para pembesar dan memperoleh ketaatan daripada rakyatnya 1 pemilihan raja 3 gelaran pemerintah pemilihan raja berasaskan keturunan dan pengaruh hindu dan buddha memasyhurkan pembesar mengesahkannya gelaran raja dan maharaja gelaran sultan keturunan diraja dianggap suci dan digunakan setelah kedatangan islam berdaulat raja juga digelar bagi menggambarkan raja juga boleh dipilih daripada golongan kebesaran kuasa seperti raja di gunung dan tentera seperti dalam kerajaan funan dan maharaja di pulau champa terdapat golongan raja yang diberi gelaran wanita keturunan diraja boleh dilantik mengikut identiti dan keunikan kerajaan sebagai pemerintah seperti dalam kerajaan mereka misalnya raja funan champa majapahit angkor dan srivijaya yang menggunakan gelaran sanskrit varman 2 kedudukan raja semasa pengaruh hindu dan buddha berkembang raja dianggap sebagai titisan dewa dan mesti dihormati kedatangan islam memperkenalkan konsep khalifah rajaraja sentiasa ditaati mengingkari raja dianggap mengingkari tuhan dan perbuatan tersebut adalah menderhaka ukiran pada dinding candi borobudur yang menunjukkan situasi menyembah raja sumber koleksi mardiana nordin 2015 glosari kps asimilasi dengan meneroka bukti daripada pelbagai penyerapan budayabudaya yang berbeza sumber cari maklumat tentang negara di asia beza hingga menjadi satu tenggara yang masih mengamalkan sistem titisan dewa penjelmaan pemerintahan beraja 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bab  Agama Kepercayaan dan Keunikan Warisan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Keunikan Warisan Masyarakat Kerajaan Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kebijaksanaan pemerintah 1 memilih dan membangunkan pusat pemerintahan pemerintah memilih lokasi yang strategik sebagai pusat pemerintahan petempatan dan pelabuhan iaitu di pesisiran pantai atau lembah sungai hal ini menunjukkan kebijaksanaan pemerintah menggunakan alam sekitar dalam memperkembangkan kegiatan pertanian di kawasan subur seperti lembah sungai contohnya di angkor dan majapahit sungai juga berfungsi sebagai laluan pengangkutan utama memilih tempat yang menjadi laluan antarabangsa timur dan barat seperti pelabuhan oc eo di funan dan palembang tasik tonle sap di kemboja di srivijaya merupakan kawasan yang mengambil kira petunjuk arah yang memudahkan pedagang subur dan menjadi sumber air singgah di pelabuhan seperti bukit atau gunung dan teluk minuman serta aktiviti pertanian contohnya gunung jerai yang menjadi mercu tanda kerajaan masyarakat kerajaan angkor kedah bukit dan teluk juga membantu dalam aspek pertahanan tasik ini masih kekal berfungsi hingga hari ini kebijaksanaan pemerintah merupakan ciri unik yang membolehkan kerajaan alam melayu berkembang dengan cepat dan bertahan lama hal ini juga menyebabkan kerajaan luar tertarik untuk menguasai kerajaan alam melayu kebijaksanaan tasik pemerintah dalam memilih lokasi yang strategik diwarisi hingga tonle sap hari ini 2 menjalinkan hubungan diplomatik pemerintah menjalinkan hubungan diplomatik yang berterusan bagi menjamin kemakmuran kerajaan kebijaksanaan pemerintah dilihat melalui bentuk hubungan diplomatik iaitu hubungan persahabatan kerajaan srivijaya mengirimkan utusan persahabatan ke china pada abad ketujuh kerajaan majapahit menjalinkan persahabatan dengan china pada abad ke14 bantuan ketenteraan atau senjata maharaja chola dari india menghantar bantuan tentera ke srivijaya untuk membantu menyelesaikan pemberontakan pada abad ke11 perkahwinan perkahwinan pemerintah majapahit raden wijaya dengan puteri kerajaan singhasari pada abad ke13 hubungan diplomatik penting untuk memelihara kedaulatan kerajaan mendapatkan perlindungan meluaskan jaringan perdagangan dan memperkukuh agama dan budaya oleh sebab keunikan dan faedah yang diperoleh kelangsungan hubungan tersebut diwarisi oleh kerajaankerajaan melayu selepasnya hingga hari ini sistem pemerintahan beraja yang dilaksanakan dalam kerajaan alam melayu terbukti berjaya mengangkat pada pandangan anda kemasyhuran kerajaan dan pemerintahnya sistem yang unik adakah pemilihan lokasi dan berkesan ini diwarisi pula oleh kerajaan melayu yang di muara sungai atau lembah lahir selepas kerajaan tersebut sistem pemerintahan beraja sungai masih menjadi ciri ini masih diamalkan hingga hari ini dengan pengubahsuaian utama pembinaan bandar mengikut peredaran masa di beberapa buah negara hari ini 61kegiatan ekonomi kegiatan ekonomi masyarakat kerajaan alam melayu bergantung pada lokasi petempatan mereka petempatan berkembang sama ada di lembah sungai mahupun pesisiran pantai lalu mencorakkan jenis kegiatan ekonomi yang boleh dilakukan untuk menyara hidup dan menjalankan perdagangan 1 memanfaatkan kesuburan tanah masyarakat kerajaan alam melayu memanfaatkan kesuburan tanah untuk menjalankan kegiatan pertanian kawasan lembah sungai mekong sungai musi sungai bengawan solo dan sungai brantas menjadi tapak pertanian yang penting dan diwarisi dari zaman ke zaman lembah sungai brantas yang masih menjadi tapak pertanian hingga hari ini 2 mencipta sistem pengairan masyarakat kerajaan alam melayu memiliki kemahiran mencipta sistem pengairan seperti baray dan sistem saliran untuk memastikan bekalan air mencukupi di kawasan pertanian oleh itu tanaman utama seperti padi dan rempahratus serta tanaman sampingan dapat diusahakan sepanjang tahun keunikan dalam baray bersebelahan angkor wat kemahiran ini merupakan warisan yang penting terhadap sumber charles higham early cultures perkembangan ekonomi tamadun melayu of mainland southeast asia bangkok river books 2002 hlm 320 3 membina pelabuhan pemerintah dan masyarakat kerajaan alam melayu telah mendirikan pelabuhan di lokasi yang strategik dan mudah dikunjungi oleh para pedagang dari timur dan barat pelabuhan di kerajaan alam melayu berkembang dalam tiga bentuk iaitu a pelabuhan pembekal pelabuhan persinggahan untuk membekalkan bahan dagangan dan bekalan makanan kepada pedagang b pelabuhan kerajaan pelabuhan pembekal yang berkembang apabila wujudnya pusat pentadbiran atau kerajaan di pelabuhan tersebut c pelabuhan entrepot pelabuhan ini menjadi tumpuan pedagang dan berperanan sebagai pengumpul pengendali dan pengedar barang dagangan daripada para pedagang serantau dan antarabangsa kegiatan perdagangan membolehkan berlaku interaksi antara kerajaan serantau dengan kerajaan antarabangsa masyarakat kerajaan alam melayu memiliki kemahiran yang tinggi dalam ilmu pelayaran mahir selokbelok laluan laut dan sungai serta boleh menyelam dalam tempoh yang lama keunikan kegiatan pertanian dan perdagangan ini merupakan warisan yang diteruskan oleh kerajaankerajaan melayu seterusnya aktivitiiklan commercial cerna minda berdasarkan pelbagai sumber kumpul maklumat tentang apakah jenisjenis pelabuhan lokasi pelabuhanpelabuhan awal kerajaan alam melayu yang terdapat di alam melayu yang masih ada hingga kini kemudian bentangkan dapatan anda dengan gaya penyampaian iklan 62perkembangan sosiobudaya keunikan perkembangan sosiobudaya masyarakat kerajaan alam melayu merupakan warisan yang sangat bernilai perkembangan tersebut dapat dilihat dalam aspek tulisan bahasa persuratan dan seni bina 1 sistem tulisan dan bahasa masyarakat kerajaan alam melayu hikayat amir hamzah telah mengadaptasi pengaruh luar karya persuratan dalam untuk memperkembangkan sistem bahasa melayu dan ditulis dengan tulisan tulisan dan bahasa mereka tulisan jawi palava dan kawi yang berasal dari sumber juffri supaat india digunakan dengan meluas dan nazeerah gopaul sebagai medium tulisan bahasa aksara menjejaki tulisan tempatan dan sanskrit demikian melayu singapura national library board juga hurufhuruf arab disesuaikan 2009 hlm 96 sehingga terbentuknya tulisan jawi yang menjadi warisan sistem tulisan masyarakat melayu hingga kini 2 persuratanmasyarakat kerajaan alam melayu telah mempamerkan keintelektualan melalui kegiatan persuratan pada awalnya kegiatan ini berkembang dalam bentuk batu bersurat sehinggalah lahir karyakarya dalam bentuk manuskrip keunikan intelektual ini diwarisi dan diteruskan oleh kerajaankerajaan melayu 3 seni bina kemahiran dalam seni bina merupakan keunikan yang menjadi warisan kerajaan alam melayu seni bina dihasilkan bagi memudahkan kehidupan seperti dalam perkembangan kegiatan pertanian pelayaran perdagangan dan keagamaan kehidupan di persisiran pantai dan lembah sungai melahirkan petukangpetukang kapal yang handal ukiran dinding pada angkor thom menggambarkan glosari warisan seni bina perkapalan masyarakat kerajaan alam melayu adaptasi penyesuaian dengan sesuatu sumber michael freeman dan claude jacques ancient keadaan yang baharu atau berbezabeza angkor bangkok river books ltd 2007 hlm 89 kps secara berkumpulan dengan meneroka bukti daripada pelbagai sumber kumpulkan maklumat tentang pelbagai tulisan yang digunakan oleh masyarakat kerajaan alam melayu bentangkan 63amalan beragama agama memainkan peranan penting dalam membina corak kehidupan dan memperkaya kebudayaan tempatan masyarakat kerajaan alam melayu hal ini dibuktikan melalui keunikan warisan dalam amalan beragama masyarakat kerajaan alam melayu mengamalkan sifat terbuka dalam amalan beragama kepercayaan awal disesuaikan dengan penyebaran agama hindu dan buddha islam juga tersebar secara aman kesannya keunikan warisan masyarakat kerajaan alam melayu tergambar melalui anutan pelbagai agama contohnya sebahagian masyarakat kerajaan champa dan angkor menganut a agama hindu dan sebahagian yang lain menganut agama buddha pada masa m yang sama agar sifat toleransi juga merupakan keunikan dalam amalan beragama masyarakat e kerajaan alam melayu penganut agama hindu membina candi prambanan b berdekatan dengan candi borobudur tempat ibadat penganut agama buddha na di jawa tengah lam agama menjadi simbol penyatuan raja dan rakyat raja memerlukan golongan a agama untuk mengukuhkan kedudukannya di atas takhta kerajaan misalnya m golongan brahmin mempunyai peranan yang besar semasa pertabalan raja a pengasas kerajaan angkor jayavarman ii diisytiharkan kedudukan baginda la sebagai dewaraja oleh seorang brahmin bernama hiranyadama d na golongan agama juga diberi tempat dan status yang istimewa dalam kerajaan s mereka dilantik sebagai pentadbir dan penasihat pemerintah misalnya dalam i r a kerajaan funan srivijaya dan angkor warisan ini diteruskan oleh kerajaan lain w di alam melayu n a candi besar dibina sebagai lambang keagungan sesebuah kerajaan dan dikagumi k i hingga hari ini buktinya dengan binaan candi borobudur angkor wat candi n u prambanan dan candi muara jambi candi ini menjadi institusi agama yang e berperanan sebagai pusat ibadat tempat pemujaan roh nenek moyang dan pusat k perhimpunan para pendeta apepnadbiidlaik aang admana keisblaajmik atner kseebuanri kmana ssjiisdte mpu plae nddiidbiiknaan sieslbaamga mi eplaulsuait inibstaidtuasti pondok atau madrasah merupakan warisan yang diteruskan hingga hari ini kepelbagaian agama dan kepercayaan melahirkan masyarakat yang harmoni dan saling menghormati sifat ini diwarisi oleh masyarakat alam melayu hingga hari ini sistem pemerintahan beraja kebijaksanaan pemerintah kegiatan ekonomi perkembangan sosiobudaya dan amalan beragama merupakan keunikan masyarakat kerajaan alam melayu keunikan ini diwarisi oleh kerajaankerajaan melayu yang lahir kemudiannya oleh sebab itu generasi kini haruslah menghargai setiap keunikan tersebut dan menghayati warisannya 6644aktivitilawatan ke galeri gallery walk masjid pangkalan kakap merbok kedah masjid pangkalan kakap langkahlangkah menjalankan aktiviti 1 murid dibahagikan kepada beberapa kumpulan 2 setiap kumpulan akan mencari maklumat berikut yang berkaitan sama ada masjid pangkalan kakap atau candi borobodur a sejarah pembinaan b keunikan seni bina c kepentingan seni bina 3 dapatan yang diperoleh akan ditampal di dalam kelas 4 setiap murid akan bergerak di dalam kelas melihat hasil dapatan setiap kumpulan 5 setiap murid akan menganalisis dan membuat perbandingan jawapan yang diberikan oleh rakan mereka 6 setiap kumpulan akan berbincang sesama ahli kumpulan berkenaan hasil candi borobudur di jawa tengah indonesia yang telah kerja rakanrakan yang lain diangkat sebagai tapak warisan dunia oleh unesco 65imbas kembali agama kepercayaan dan keunikan warisan masyarakat kerajaan alam melayu agama dan kepercayaan kepercayaan awal penyebaran agama hindu buddha dan islam sebelum abad ke15 perkembangan agama keunikan warisan masyarakat kerajaan alam melayu sistem pemerintahan beraja kebijaksanaan pemerintah kegiatan ekonomi perkembangan sosiobudaya amalan beragama masyarakat kerajaan alam melayu memiliki agama dan kepercayaan yang menjadikan kehidupan mereka berlandaskan nilainilai murni seperti berakhlak mulia jujur dan saling menghormati sistem pemerintahan beraja dan kebijaksanaan pemerintah kegiatan ekonomi perkembangan sosiobudaya dan amalan beragama merupakan bukti keunikan warisan yang diteruskan oleh kesultanan melayu melaka yang akan dibincangkan dalam bab seterusnya 66pemahaman dan pemikiran kritis 1 apakah monumen yang membuktikan penyebaran agama hindu di kerajaan alam melayu a candi muara jambi b candi dong duong c candi borobudur d angkor wat 2 nyatakan agama dan kepercayaan yang dianuti oleh masyarakat kerajaan alam melayu agama dan kepercayaan masyarakat kerajaan alam melayu 3 padankan kerajaan berdasarkan maklumat yang berikut pemerintah fan shihman mengambil peranan kerajaan srivijaya penting terhadap perkembangan agama buddha antara candi termasyhur yang terdapat di kerajaan ini termasuklah candi muara jambi candi kerajaan champa bahal dan candi muara takus aliran agama buddha dan hindu disatukan dan kerajaan funan dipanggil tripaksa pemerintah bhadravarman mendirikan candi kerajaan majapahit hindu di lembah mi son 67pemahaman dan pemikiran kritis 4 bincangkan keunikan amalan sikap menghormati agama dan budaya pelbagai kaum yang diamalkan di negara kita 5 apakah keunikan sistem pemerintahan beraja dalam sesebuah kerajaan 6 pemerintah menjalinkan hubungan diplomatik yang berterusan bagi menjamin kemakmuran kerajaan berdasarkan pernyataan di atas jawab soalan yang berikut a apakah bentukbentuk hubungan diplomatik b apakah faedah daripada hubungan diplomatik c bandingkan bentuk hubungan diplomatik kerajaan dahulu dan kini 7 pelabuhan klang merupakan salah sebuah pelabuhan entrepot di negara kita pada hari ini berdasarkan gambar di atas jawab soalan yang berikut a namakan pelabuhan lain di malaysia b bincangkan keistimewaan pelabuhan di negeri anda c sekiranya anda seorang pemerintah yang bercadang untuk membuka sebuah pelabuhan apakah ciriciri lokasi yang akan anda pertimbangkan 68cakna dan cerminan sejarah nilai patriotisme dan iktibar memahami agama dan kepercayaan masyarakat kerajaan alam melayu memupuk sikap tolak ansur dalam diri kita mengetahui keunikan warisan masyarakat kerajaan alam melayu dapat melahirkan rasa bangga terhadap sejarah negara sifat toleransi dan saling menghormati akan mewujudkan semangat kekitaan yang membawa perpaduan dalam kalangan masyarakat diri dan keluarga negara patuh kepada ajaran agama dapat kita dapat mengukuhkan jati diri melalui membimbing diri dan keluarga ke arah pengamalan agama seperti dalam pembentukan sahsiah diri dan keluarga prinsip pertama rukun negara iaitu bahagia kepercayaan kepada tuhan tokong ular di bayan lepas pulau pinang masjid putra putrajaya kuil dewa murugan batu caves selangor 69bab5 kesultanan melayu melaka sinopsis kemunculan kesultanan melayu melaka merupakan kesinambungan kepada kerajaan masyhur di alam melayu kesultanan melayu melaka diasaskan oleh parameswara dan menjadi sebuah kerajaan yang unggul dan gemilang kemantapan kepimpinan raja sistem pemerintahan dan perundangan telah melonjakkan kegemilangan kesultanan melayu melaka namun begitu kesultanan melayu melaka yang berpusat di melaka berakhir dengan kedatangan portugis apakah elemen apakah yang akan anda kewarganegaraan dan pelajari nilai sivik yang anda 1 menceritakan pengasasan kesultanan dapati melayu melaka 2 menghuraikan kegemilangan kesultanan 1 menilai kepentingan sifat kepemimpinan melayu melaka dalam pembinaan negara 3 menerangkan berakhirnya pemerintahan 2 menghuraikan kepentingan menghargai kesultanan melayu melaka yang berpusat alam sekitar untuk kesejahteraan kehidupan di melaka 3 menjelaskan perpaduan sebagai asas keharmonian masyarakat 4 merumuskan iktibar yang diperoleh daripada sejarah kesultanan melayu melaka 7700istana sultan mansur shah sumber ahmad sarji ed the rulers of malaysia singapura editions didier millet 2011 hlm 110 kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi pengasasan dan perkembangan kesultanan melayu melaka 2 meneroka bukti kegemilangan kesultanan melayu melaka 3 membuat interpretasi aspek kegemilangan kesultanan melayu melaka 4 membuat imaginasi aktiviti perdagangan yang dijalankan oleh kesultanan melayu melaka 5 membuat rasionalisasi kegemilangan dan kejatuhan kesultanan melayu melaka yang berpusat di melaka 7711pengasasan kesultanan melayu melaka 51 pengenalan kesultanan melayu melaka diasaskan oleh parameswara sekitar tahun 1400 anda telah pun mempelajari dan mengetahui perincian pembukaan kota melaka semasa berada di tahun empat kesultanan melayu melaka merupakan kelangsungan kepada kerajaan masyhur di alam melayu parameswara parameswara berjaya memilih lokasi yang sesuai untuk mengasaskan kerajaan pemilihan lokasi ini menjadikan melaka sebagai sebuah kerajaan yang unggul di alam melayu pemilihan lokasi yang strategik oleh parameswara parameswara memilih lokasi yang strategik untuk membentuk gambaran muara sungai tempat pengasasan kesultanan melayu melaka kerajaan iaitu di muara sungai bertam yang juga dikenali sebagai sungai melaka pada asalnya muara sungai ini merupakan sumber ahmad sarji ed the rulers of malaysia singapura editions didier millets sebuah perkampungan nelayan dan tempat berjual beli serta 2011 hlm 111 pertukaran barang dagangan 1 laluan perdagangan kedudukan melaka di laluan perdagangan utama antara timur angin dengan barat membolehkannya monsun mengawal laluan kapal dagang timur laut selat melaka melaka gambaran laluan kapal dagang di selat angin melaka monsun sumber ahmad sarji ed the rulers barat daya of malaysia singapura editions didier millets 2011 hlm 111 peta menunjukkan selat melaka yang terlindung daripada tiupan angin monsun kedudukan strategik amat penting dalam pengasasan sesebuah kerajaan bincangkan 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kesultanan Melayu Melaka </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pengasasan Kesultanan Melayu Melaka </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2 bentuk muka bumimelaka mempunyai bentuk muka bumi yang berbukitbukau yang sesuai dijadikan benteng pertahanan dan menjadi panduan kapal dagang 3 benteng pertahanan pokok bakau dan apiapi yang terdapat di pesisir pantai pula menjadikannya sebagai benteng pertahanan dan pelindung semula jadi yang sukar ditembusi oleh musuh 4 terlindung angin monsun muara sungai yang terletak di selat melaka terlindung daripada tiupan angin monsun keadaan ini membolehkan kapal dagang datang dan berlabuh di pelabuhan melaka dengan selamat parameswara bijak memanfaatkan lokasi yang strategik dan alam semula jadi sebuah perkampungan nelayan menjadi sebuah pelabuhan yang maju kebijaksanaan parameswara memilih lokasi tersebut telah mendorong melaka kemudiannya muncul sebagai pusat perdagangan antarabangsa pengasasan melaka menunjukkan bahawa banyak manfaat yang diperoleh sekiranya kita menghargai alam sekitar untuk kesejahteraan kehidupan aktiviti pengurusan grafik graphic organiser 1 secara berkumpulan cari maklumat daripada pelbagai sumber peristiwa yang membawa kepada pengembaraan cerna minda parameswara dari palembang ke melaka 2 maklumat yang diperoleh dipindahkan dalam lembaran apakah kelebihan sungai pengurusan grafik seperti carta alir bertam 3 hasil tugasan dibentangkan di dalam kelas 73kegemilangan kesultanan melayu melaka 52 pengenalan kesultanan melayu melaka berkembang dari sebuah perkampungan nelayan dan akhirnya menjadi kerajaan yang masyhur beberapa faktor telah melonjakkan kerajaan ini berkembang menjadi sebuah kerajaan yang gemilang di alam melayu faktor kegemilangan kegemilangan kesultanan melayu melaka disebabkan oleh faktor kepemimpinan raja yang berwibawa sistem pentadbiran yang cekap dan sistem perundangan yang tersusun kepemimpinan raja raja merupakan ketua pemerintah dan ketua kerajaan yang mempunyai kuasa tertinggi hak kuasa ini berpunca daripada beberapa sumber 1 keturunan raja palembang berdasarkan teks sulalatus salatin pemerintah melaka berasal daripada zuriat keturunan anak raja palembang yang dikatakan bersusur galur daripada iskandar zulkarnain susur galur ini memberikan taraf kedudukan yang tinggi kepada sultan melaka dalam kalangan kerajaan lain di alam melayu diorama sultan melaka bertakhta di singgahsana sumber muzium negeri melaka 2 peranan yang unggul raja mempunyai pelbagai peranan dalam sistem pemerintahan menjadi simbol perpaduan dan kemakmuran merupakan ketua angkatan tentera alat kebesaran mengetuai hubungan diplomatik nobat dan konsep daulat menyelaraskan kegiatan ekonomi menjadi ketua agama islam menegakkan keadilan glosari sultansultan yang memerintah diorama model tiga dimensi 3d yang mengandungi pelbagai kesultanan melayu melaka objek untuk menggambarkan situasi sebenar 74</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kesultanan Melayu Melaka </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kegemilangan Kesultanan Melayu Melaka </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3 daulat dan alat kebesaran kepemimpinan raja juga dikaitkan dengan konsep daulat dan derhaka serta pelbagai institusi perajaan seperti adat istiadat istana dan alat kebesaran diraja daulat merupakan kuasa dan kewibawaan raja sebagai pemimpin rakyat mengakui kedaulatan raja dengan nobat diraja memberikan taat setia sepenuhnya dan tidak boleh menderhaka kepada raja antara alat kebesaran diraja termasuklah cap mohor nobat keris lembing dan mahkota alat kebesaran digunakan semasa upacara istiadat pertabalan perkahwinan dan kemangkatan raja tombak berambu konsep daulat adat istiadat dan alat kebesaran menjadikan raja mempunyai kedudukan yang tinggi dan istimewa hal ini mengukuhkan kedudukan raja dalam sistem pemerintahan kerajaan melaka cap mohor pending diraja 4 kewibawaan raja memiliki ciri kepemimpinan seperti adil berwibawa dan mengambil berat terhadap kebajikan rakyat raja memerintah berdasarkan bidang kuasa yang ditetapkan mengikut hukum kanun melaka sultan muzaffar shah dan sultan mansur shah merupakan pemerintah yang mengutamakan keamanan dan kebajikan rakyat sultan mansur gambaran ketika wasiat sultan mansur shah menasihatkan puteranya sultan alauddin shah disampaikan kepada sultan riayat shah supaya bersikap adil terhadap rakyat alauddin riayat shah menyiasat segala tuduhan dengan teliti dan sumber ahmad sarji ed the rulers of bekerjasama dengan pegawaipegawainya malaysia singapura editions didier millets 2011 hlm 116 kepemimpinan pemerintah kesultanan melayu melaka yang berdaulat dan berwibawa menyebabkan pemerintahannya diterima oleh rakyat dan diiktiraf oleh kuasa luar sebagai rakyat malaysia yang setia kepada raja kita perlu mempertahankan institusi raja yang merupakan lambang perpaduan dan kemakmuran negara kita cerna minda jelaskan ciri kepemimpinan raja dalam kesultanan melayu melaka yang mampu mewujudkan sistem pemerintahan gemilang 75sistem pentadbiran sultan berada di puncak sistem pemerintahan dan pentadbiran kesultanan melayu melaka sultan melantik pembesar untuk membantunya dalam pentadbiran hal ini menyebabkan kesultanan melayu melaka gemilang dengan sistem pentadbiran yang tersusun dan berkesan sultan 1 sistem pembesar empat lipatan pentadbiran kesultanan melayu melaka berasaskan sistem pembesar empat lipatan sistem ini bermaksud pada setiap peringkat pentadbiran terdapat pembesar yang dilantik pembesar oleh pemerintah bagi membantu melicinkan pentadbiran berempat sultan dibantu oleh pembesar berempat pembesar berlapan pembesar enam belas dan pembesar tiga puluh dua pembesar berlapan pembesar ini merupakan pentadbir kerajaan pada peringkat pusat jajahan daerah mukim dan kampung pembesar enam belas pembesar tiga puluh dua sistem pembesar empat lipatan sumber adaptasi daripada muhammad yusoff hashim ed empayar melaka tradisi agung melayu melaka perbadanan muzium melaka 2010 hlm 39 2 tugas pembesar tugas utama pembesar ialah mewujudkan sistem pentadbiran yang berkesan seperti menjaga keamanan kawasan mengutip cukai dan hasil lain melalui sistem serah membekalkan tenaga tentera ketika perang dan menyediakan tenaga buruh melalui sistem kerah pemerintah melaka juga mengurniakan kawasan khas kepada pembesar untuk ditadbir pengurniaan kawasan ini sebagai tanda untuk mendapat sokongan pembesar bagi mewujudkan pentadbiran yang mantap kawasan yang dikurniakan kepada pembesar berempat dikenali sebagai kawasan pegangan kawasan pembesar jajahan dan daerah pula dikenali sebagai kawasan pemakanan pembesar dibenarkan mengutip cukai di kawasannya dan menyerahkannya kepada pemerintah sebagai ufti cerna minda nyatakan tugas utama pembesar dalam kesultanan melayu melaka 76pembesar berempat merupakan pembesar peringkat pusat yang merupakan tonggak utama pentadbiran kesultanan melayu melaka mereka terdiri daripada bendahara penghulu bendahari temenggung dan laksamana mereka juga dikenali sebagai orang kaya berempat sultan pembesar berempat penghulu bendahara temenggung laksamana bendahari penasihat raja pemungut hasil ketua polis dan ketua angkatan menteri utama atau ufti penjara laut peringkat pusat ketua segala penguasa bandar pengawal ketua turus bendahari dan kota melaka peribadi raja angkatan perang ketua urus setia pegawai protokol ketua duta ketua hakim istana istana ketua utusan pemangku sultan ketua syahbandar hakim di darat ke negara luar hakim di laut pentadbiran sistem pembesar empat lipatan yang mantap telah membawa keamanan dan kemakmuran kepada kesultanan melayu melaka corak pentadbiran melaka ini diwarisi kemudiannya oleh kerajaan melayu yang lain kita patut berbangga dengan kestabilan sistem pentadbiran negara kita pada masa ini yang dimantapkan daripada warisan kesultanan melayu melaka bandingkan sistem pembesar glosari kesultanan melayu melaka sistem serah pemberian sebahagian daripada dengan sistem pentadbiran hasil tanaman yang diusahakan oleh rakyat negara kita sekarang kepada pemerintah pemberian ini dilakukan sebagai balasan kepada pembesar yang menyediakan tanah untuk rakyat kadar dan nilai serahan bergantung pada hasil tanaman dan ternakan yang diperoleh aktiviti peta pemikiran thinking map sistem kerah merupakan sesuatu pekerjaan yang dibuat tanpa diberi upah misalnya secara berkumpulan buat perbandingan membina istana kubu jalan dan saliran sistem tugas antara bendahara dengan perdana ini menunjukkan wujud sikap taat setia sedia menteri pada masa ini bentangkan dengan berkorban dan rakyat berganding bahu untuk menggunakan peta pemikiran yang sesuai membantu pemerintah 77sistem perundangan kesultanan melayu melaka telah memperkenalkan sistem perundangan yang mantap hal ini telah melonjakkan kesultanan melayu melaka ke arah kegemilangan undangundang tersohor kesultanan ini ialah hukum kanun melaka dan undangundang laut melaka 1 hukum kanun melaka hukum kanun melaka mula ditulis semasa pemerintahan sultan muzaffar shah 14461456 undangundang ini disusun semula secara teratur pada masa pemerintahan sultan mahmud shah 14891511 undangundang ini mengandungi 44 fasal yang berkaitan hak keistimewaan tanggungjawab raja dan pembesar hukum kanun melaka hukum islam juga terdapat dalam undangundang ini yang berkaitan dengan jenayah urusan jual beli dan kekeluargaan hukum kanun melaka ini dapat mewujudkan keamanan dan menjamin keselamatan rakyat jenayah di dalam negeri melaka dapat diatasi dengan baik dan terurus 2 undangundang laut melaka undangundang ini ditulis semasa zaman sultan mahmud shah bertujuan menentukan peraturan pelayaran dan perdagangan undangundang yang mengandungi 25 fasal ini menerangkan peraturan di laut tertib berniaga dan tatacara berjual beli kandungannya juga berkaitan tanggungjawab nakhoda anak kapal kiwi dan syahbandar undangundang ini menyebabkan aktiviti perdagangan berjalan undangundang dengan lancar dan adil keadaan ini memberikan keyakinan laut melaka kepada para pedagang glosari kiwi saudagar yang menghantar dan menyebarkan barangan mereka untuk diperdagangkan mereka menyewa petak tempat letak barangan di dalam kapal atau perahu sekiranya kiwi tidak belayar bersamasama tempatnya akan digantikan oleh wakilnya yang dikenali sebagai maula kiwi kiwi 783 undangundang adat kesultanan melayu melaka juga menggunakan undangundang adat dalam sistem pemerintahannya adat ini dikenali sebagai adat temenggung adat temenggung diasaskan oleh datuk ketemenggungan berkaitan sistem pemerintahan perwarisan takhta perkahwinan perwarisan harta dan perundangan berkaitan sistem penggantian sultan iaitu takhta kerajaan diwarisi oleh anak lelaki yang sulung mengamalkan sistem pemerintahan beraja kuasa tertinggi terletak di tangan sultan atau raja membolehkan sistem perwarisan takhta berlaku secara teratur sumber a aziz deraman suatu analisis masyarakat dan kebudayaan malaysia kuala lumpur dewan bahasa dan pustaka 2001 hlm 70 tahukah anda kepemimpinan raja yang berwibawa sistem pentadbiran yang mantap dan kesungguhan melaksanakan sistem adat temenggung merupakan undangundang telah membawa kepada kegemilangan undangundang adat yang kesultanan melayu melaka hal ini mewujudkan kestabilan diamalkan di semua negeri melayu politik kemakmuran ekonomi dan kesejahteraan hidup kecuali negeri sembilan adat rakyat sewajarnya setiap rakyat malaysia mematuhi temenggung diasaskan oleh datuk dan mendaulatkan undangundang demi keamanan dan ketemenggungan di palembang kesejahteraan negara adat ini dibawa masuk ke melaka pada awal abad ke15 dari aktiviti melaka adat temenggung disebarkan kerusi panas hot seating ke negeri melayu yang lain hukum kanun melaka dan undangundang laut melaka telah berjaya membawa kegemilangan cerna minda kesultanan melayu melaka 1 secara berkumpulan kaji kepentingan apakah yang anda fahami berkaitan undangundang tersebut dengan adat temenggung 2 seorang wakil kumpulan akan tampil di depan kelas dan membentangkan dapatan kajian pelaksanaan undangundang dapat menggunakan persembahan multimedia menjamin kemajuan dan kemakmuran 3 murid lain boleh bertanya soalan kepada sesebuah negara bincangkan wakil kumpulan ini 79aspek kegemilangan kesultanan melayu melaka telah meneruskan tradisi kegemilangan kerajaan yang unggul di alam melayu kegemilangan kerajaan ini dapat dilihat dalam aspek pembentukan empayar kemunculan sebagai pusat penyebaran agama islam dan pusat perdagangan serta kejayaan menjalinkan hubungan luar dengan kerajaan lain kegemilangan kesultanan melayu melaka juga dapat dibuktikan dengan kemunculan bahasa melayu sebagai lingua franca dan sebanyak 84 bahasa dipertuturkan di melaka empayar yang luas empayar kesultanan melayu melaka meliputi seluruh semenanjung tanah melayu dan kawasan pantai timur sumatera empayar ini terdiri daripada tanah jajahan dan naungan kegemilangan empayar yang luas ini dapat dilihat dalam aspek cara pembentukan kepentingan dan struktur pentadbirannya cara pembentukan empayar 1 penaklukan penaklukan dilakukan untuk menjamin keselamatan dan kemakmuran kesultanan melayu melaka kawasan taklukan di semenanjung tanah patani melayu ialah seperti kuala linggi kelantan kedah beruas pahang terengganu dan kelantan aru terengganu beruas kawasan taklukan di sumatera pula ialah siak rokan kampar dan rupat gpsuautmemrbbi a emrra amnj apupzeairuhkmiath w i n a n su l ta n melaka dengan s e lat s e la n g o r p a h ang mela n e g e r i m el a k a rok a n m e la k a ka j o h o r 2 perkahwinan 3 naungan siakkampar bentan perkahwinan berlaku antara sultan melaka terdapat pemerintah kerajaan lain yang inderagiri dengan puteri diraja kerajaan lain rela bernaung di bawah kesultanan lingga perkahwinan mengukuhkan lagi hubungan melayu melaka jambi persahabatan dan kekeluargaan antara raja yang berada di bawah naungan kerajaan melaka dengan kerajaan lain melaka ditabalkan oleh sultan melaka perkahwinan sultan mansur shah dengan antara kerajaan yang rela bernaung puteri majapahit raden galuh cendera termasuklah lingga patani dan kedah petunjuk kirana menyebabkan pengaruh melaka empayar kerajaan melaka semakin meluas ilustrasi raja yang bernaung di bawah kesultanan melayu melaka merafak sembah kepada glosari sultan melaka sumber muzium negeri melaka empayar kawasan yang diperluaskan mengandungi tahukah anda kumpulan beberapa bangsa dan negara yang diletakkan berdasarkan tulisan dalam sulalatus salatin kawasan inderagiri di bawah penguasaan satu jambi tungkal dan siantan merupakan anugerah betara majapahit kuasa berdaulat kepada menantunya sultan mansur shah 80kepentingan pembentukan empayar 1 politik meluaskan wilayah dan jajahan takluk mengukuhkan hubungan dengan kerajaan yang ditakluk menyekat pengaruh kuasa serantau seperti siam majapahit dan pasai 2 ekonomi menerima hadiah dalam bentuk wang emas timah dan bantuan ketenteraan mendapat bekalan seperti hasil pertanian rempahratus dan bijih timah untuk diperdagangkan di pelabuhan melaka menguasai perdagangan di selat melaka 3 sosial berlaku asimilasi budaya tempatan dengan budaya dari arab india china dan alam melayu wujud masyarakat majmuk yang terdiri daripada pelbagai suku dan bangsa 4 agama mendorong usaha penyebaran agama islam patani islam telah berkembang luas ke pahang kelantan perak timur kelantan sumatera dan patani kedah aru terengganu beruas pentadbiran empayar s e lat s e la n g o r p a h ang mela rok a n m e la k a 1 pentadbiran pusat ka j o h o r pusat pemerintahan dan pentadbiran di melaka yang terletaknya siakkampar bentan tempat raja bersemayam raja dibantu oleh pembesar pusat inderagiri lingga 2 pentadbiran kawasan naungan jambi kawasan naungan ialah kawasan yang mengakui ketuanan melaka dan menghantar ufti pemerintahan diketuai oleh pemerintah negeri peta empayar kesultanan berkenaan dan dibantu oleh pembesar tempatan melayu melaka petunjuk 3 pentadbiran kawasan jajahan sumber adaptasi daripada empayaar hkemraajada sn amrejila kead the rulers of pemerintahan diketuai oleh pemerintah yang dilantik oleh sultan malaysia singapura editions melaka didier millets 2011 hlm 112 perluasan empayar membolehkan kesultanan melayu melaka menguasai politik dan ekonomi wilayahnya serta menyebarkan agama islam hal ini telah mendorong kesultanan melayu melaka muncul sebagai sebuah kerajaan yang kuat dan gemilang di alam melayu kita patut berbangga dengan kejayaan dan kegemilangan kesultanan melayu melaka aktiviti cerna minda penulisan pantas rocket writing mengapakah kesultanan melayu dalam tempoh lima minit murid menyenaraikan melaka melakukan penaklukan aspek kegemilangan kesultanan melayu melaka 81pusat penyebaran agama islam sebelum kemunculan kesultanan melayu melaka kerajaan awal yang menerima pengaruh islam di alam melayu ialah samuderapasai dan perlak pengislaman pemerintah menyebabkan kesultanan melayu melaka muncul sebagai pusat penyebaran islam yang unggul di alam melayu pada abad ke15 acheh patanikelantan spaamsauideraperlak tepraehnagngganu mindanao rokan melaka brunei inderagiri palembang banjarmasin makasar banten demak bali petunjuk lombok kawasan pengaruh islam peta menunjukkan kawasan pengaruh islam ke alam melayu sumber adaptasi daripada muhammad yusoff hashim ed empayar melaka tradisi agung melayu melaka perbadanan muzium melaka 2010 hlm 193 cara penyebaran agama islam 1 pengislaman pemerintah 4 perdagangan pengislaman sultan iskandar shah pada islam tersebar melalui pedagang tahun 1414 diikuti oleh para pembesar dan arab india dan china yang rakyat datang ke melaka selain berjual sultan muzaffar shah telah menjadikan beli mereka juga mempunyai agama islam sebagai agama rasmi kesultanan sifat mubaligh yang mendorong melayu melaka penyebaran islam dari melaka mereka juga menyebarkan islam ke kawasan 2 perkahwinan lain yang disinggahi seperti perkahwinan puteri sultan mansur shah brunei filipina dan kepulauan dengan putera raja siak indonesia 3 peranan ulama dan mubaligh 5 peluasan kuasa pemerintah melaka menghantar ulama dan kesultanan melayu melaka mubaligh ke seluruh kawasan pengaruhnya menyebarkan agama islam ajaran tasawuf dan sufi dikembangkan melalui proses perluasan kuasa melalui ulama dari timur tengah dan india negeri naungan dan jajahan antaranya termasuklah maulana abu bakar memeluk islam sebagai tanda dan maulana yusuf taat setia kepada pemerintah sultan alauddin riayat syah menghantar melaka ulama untuk mengajar raja pahang kampar dan inderagiri tentang hal ehwal agama 88221 tumpuan ulama 2 tempat pembelajaran 3 persuratan melaka menjadi tumpuan semasa pemerintahan sultan pengaruh islam terdapat dalam ulama dan pendakwah muzaffar shah madrasah saduran karya sastera dari sultan melaka menjadi masjid dan surau menjadi arab dan parsi seperti hikayat penaung kepada aktiviti tempat mempelajari muhammad ali hanafiah dakwah dan perbincangan alquran dan ilmu tasawuf dan hikayat amir hamzah kitab agama seperti darul seiring dengan hal ini berlaku manzum perkembangan tulisan jawi dan bahasa melayu bahasa melayu narabeynep menjadi bahasa persuratan dan bahasa penulisan sumber muzium negeri melaka nasek sumber muzium negeri melaka 4 pemerintahan dan pentadbiran undangundang islam terkandung dalam hukum kanun sumber muzium negeri melaka melaka dan undangundang laut melaka manakala ulama memainkan peranan penting dalam hal pentadbiran jawatan mufti dan kadi diwujudkan untuk peranan istana kelicinan pengurusan agama melaka sebagai pusat keilmuan islam dan pusat pendidikan kesultanan melayu melaka telah muncul sebagai pusat bagaimanakah penyebaran agama islam yang unggul di alam melayu agama pedagang mampu islam telah berkembang dan menjadi budaya hidup masyarakat menarik minat alam melayu kita wajar mengamalkan sikap toleransi dan masyarakat untuk menghormati agama serta kepercayaan orang lain memeluk islam kps gambar di sebelah merupakan model istana sultan mansur shah a secara berkumpulan kumpul maklumat dengan meneroka bukti daripada qr code dan pelbagai sumber lain berkaitan istana sultan mansur shah bahaskan peranan istana sebagai pusat keilmuan dan pusat pendidikan yang terulung di alam melayu b cipta model istana dengan menggunakan bahan kitar semula berdasarkan imaginasi dan kreativiti anda huraikan ciriciri keistimewaannya c senaraikan usaha yang perlu dilakukan untuk mengembalikan peranan negara kita sebagai pusat keilmuan yang unggul di dunia 83pusat perdagangan pelabuhan melaka menjadi pusat perdagangan yang penting dalam mengendalikan perdagangan antarabangsa pelabuhan ini berfungsi sebagai pelabuhan entrepot yang mengumpulkan barangan dari alam melayu pelabuhan melaka juga menjadi pusat pengedaran barangan dari timur dan barat ke alam melayu perkembangan kegiatan perdagangan ini telah menyumbang kepada kegemilangan kesultanan melayu melaka pesisir benggala gujeratkembayat 1 kedudukan strategik cambay china melaka terletak di laluan pesisir coromandel pdeeenrddguaadgnu a kcnahgnia nsnat raatengtiakr a i n d i a burma formosa melabar pesisir siam k d i s e l a t kepulauan filipina melaka menyebabkan melaka ddaiklaumnj udnagn il uoaler ha plaemda mgaenlga yduari selat l aseulta ctahnina melaka lautan hindi kesannya melaka muncul melaka sebagai pusat perdagangan dan sumatera maluku borneo pelabuhan yang maju sulawesi petunjuk banda hubungan perdagangan melaka jawa peta menunjukkan melaka sebagai pusat perdagangan antarabangsa sumber adaptasi daripada muhammad yusoff hashim kesultanan melayu melaka kuala lumpur dewan bahasa dan pustaka 1989 hlm 45 2 pusat pengumpulan dan pengedaran pelbagai barangan barang yang dikumpul dan diedarkan kepada pedagang luar ialah timah emas kapur barus hasil hutan dan rempahratus barangan ini diperoleh daripada negeri naungan dan jajahan serta kawasan sekitar alam melayu barangan luar yang dibawa masuk ke melaka ialah benang emas kain pelikat batu delima tembikar wangian dan bahan makanan kepelbagaian barang dagangan ini membuktikan pelabuhan batu delima melaka sebagai emporium yang maju 3 dikunjungi pedagang dari dalam dan luar alam melayu pedagang yang paling ramai mengunjungi pelabuhan melaka ialah pedagang arab china dan gujerat glosari pedagang pasai dan jawa merupakan pedagang yang paling ramai dari alam melayu emporium pelabuhan melaka juga dikunjungi pusat perniagaan oleh pedagang dari brunei pegu parsi besar yang turki mesir luzon ceylon burma menjual pelbagai kemboja champa dan annam jenis barangan tempatan dan luar diorama pedagang arab sumber muzium negeri melaka 844 pusat perkapalan tahukah anda pelabuhan melaka dikunjungi oleh pelbagai jenis kapal besar kapal jong milik orang melayu dan kecil dibina di pegu dan jawa kapal kapal kecil terdiri daripada ini boleh memuatkan 40 hingga perahu sampan ghurab 100 orang saiznya lebih kecil penjajap sagur payar baluk replika jong jika dibandingkan dengan kapal lancang kakap balang dan jong pegu dan jawa kelulus kapal besar pula seperti jong dan bahtera kapalkapal dagang replika baluk di melaka sumber muzium negeri melaka barang siapa yang menguasai cerna minda melaka ia boleh menggugat jelaskan faktor kemunculan melaka sebagai pusat venice perdagangan dan pelabuhan entrepot tome pires suma oriental sejauh manakah kedudukan strategik menjadi ciri penting untuk kemajuan sesebuah pelabuhan venice aktivitisaya lihat saya fikir saya bertanya i see i think i wonder secara berkumpulan berdasarkan gambar di sebelah lakukan aktiviti yang berikut a ceritakan apakah yang anda lihat pada gambar di sebelah b bincangkan peranan pelabuhan melaka sebagai pusat perkapalan yang unggul di alam melayu c bagaimanakah pelabuhan melaka dapat mengekalkan reputasinya sebagai pelabuhan yang terbaik d hasilkan folio dan lakaran pelbagai jenis kapal dagang di pelabuhan ilustrasi kesibukan pelabuhan melaka melaka sumber adaptasi daripada muhammad yusoff hashim ed e bandingkan ciriciri kapal dagang empayar melaka tradisi agung melayu melaka perbadanan yang terdapat di pelabuhan melaka muzium melaka 2010 hlm 71 f bentangkan hasil dapatan di dalam kelas 85pengurusan perdagangan kesultanan melayu melaka mencapai kegemilangan disebabkan oleh peranannya sebagai pusat perdagangan dan pelabuhan entrepot yang unggul di alam melayu kegiatan perdagangan dapat dijalankan dengan lancar dan teratur hasil daripada pengurusan perdagangan yang cekap oleh syahbandar cukai perdagangan yang rendah penggunaan sistem tukar barang dan mata wang peranan orang laut serta kemudahan yang terdapat di pelabuhan melaka 1 syahbandar pelabuhan diuruskan dengan teratur dan cekap oleh pegawai yang mahir dan berpengalaman urusan perdagangan dikendalikan oleh syahbandar yang memainkan peranan penting dalam menjadikan melaka sebagai pelabuhan entrepot tugas syahbandar ialah mengurus pasar dan gudang menjaga kebajikan serta keselamatan pedagang syahbandar juga bertanggungjawab memeriksa alat timbang sukat dan mata wang menjadi hakim di pelabuhan mengurus peranan syahbandar yang dinyatakan dalam hukum cukai dan menguatkuasakan peraturan keluar masuk kapal kanun melaka 2 cukai perdagangan para pedagang tertarik dengan pengurusan cukai barangan yang cekap dan sistematik pengurusan cukai pelabuhan yang rendah menarik minat pedagang ke melaka cukai dan bayaran surat kebenaran berniaga di pelabuhan menjadi sumber pendapatan kesultanan melayu melaka terdapat dua jenis cukai yang dikenakan pertama cukai cukai tidak rasmi di pelabuhan melaka rasmi iaitu cukai import yang dikenali sebagai panduan kadarnya berbezabeza mengikut tempat asal pedagang kedua cukai tidak rasmi iaitu dalam bentuk hadiah pedagang dari china dan jepun hanya dikehendaki memberikan hadiah yang nilainya sama dengan cukai lima peratus 3 mata wang urusan berjual beli dijalankan dalam dua bentuk iaitu pertukaran barangan dan menggunakan mata wang perdagangan tukar barang berlaku antara barangan dari china dan alam melayu dengan barangan dari barat dan india penggunaan mata wang telah melancarkan lagi urusan jual beli mata wang timah zaman sultan pada peringkat awal digunakan tukaran nilaian seperti jongkong muzaffar shah timah serbuk emas dan kulit siput cowrie mata wang timah yang digunakan dikenali sebagai calains pada kepingan timah ini terpahat nama sultan melaka yang memerintah terdapat juga mata wang emas dan perak sumber muhammad yusoff hashim mata wang dari pasai hormuz dan cambay juga digunakan tun perak dalam sejarah dan dinamisme ketamadunan bangsa melaka institut kajian sejarah dan 8866 patriotisme malaysia 2008 hlm 194 orang laut orang laut memberikan taat setia kepada raja dan memainkan peranan yang penting dalam mengekalkan kestabilan kerajaan khasnya dalam memastikan urusan perdagangan dapat dijalankan tanpa gangguan mereka merupakan pelayar dan penunjuk arah yang cekap kepada pedagang yang berdagang di melaka orang laut juga bertanggungjawab sebagai tentera untuk menjamin keselamatan pedagang di perairan melaka ilustrasi menggambarkan orang laut sumber muzium negeri melaka 5 kemudahan pelabuhan pelabuhan di melaka dilengkapi dengan pelbagai kemudahan yang menarik minat pedagang antaranya termasuklah kemudahan yang berikut gudang tempat menyimpan barang kemudahan pengangkutan kemudahan bekalan makanan dan minuman ilustrasi buruh khidmat membaiki kapal mengangkut barangan tempat penginapan ke gudang simpanan syahbandar yang menjaga kebajikan pedagang kemudahan tempat beribadat sumber ahmad sarji ed the rulers of malaysia singapura editions didier millets 2011 hlm 130 kejayaan kesultanan melayu melaka menguasai perdagangan di selat melaka membolehkan kesultanan ini muncul sebagai pusat perdagangan yang unggul kesultanan melayu melaka juga berjaya meneruskan tradisi kerajaan alam melayu sebagai pusat perdagangan antarabangsa sebagai rakyat malaysia kita mesti bekerjasama untuk mengembalikan peranan negara kita sebagai sebuah kuasa orang laut perdagangan yang gemilang pada masa ini cerna minda mengapakah empat orang syahbandar dilantik untuk apakah aspek pengurusan perdagangan yang mengurus pedagang yang menyebabkan aktiviti perdagangan dapat dijalankan datang ke melaka dengan lancar di pelabuhan melaka aktivitidrama dramatisation 1 bentuk kumpulan dan buat skrip untuk lakonkan situasi di pelabuhan melaka yang bertajuk syahbandar memainkan peranan penting dalam memajukan pelabuhan melaka 2 pilih seorang murid untuk menjadi syahbandar 3 lakonkan situasi seperti di pelabuhan melaka 87hubungan luar kesultanan melayu melaka menjalinkan hubungan luar dalam bentuk hubungan diplomatik dan perdagangan hubungan berlaku dengan kerajaan alam melayu seperti kerajaan pasai demak majapahit dan makasar selain itu hubungan luar berlaku dengan kerajaan luar alam melayu seperti china ryukyu siam mesir parsi turki dan pegu hubungan ini menyebabkan kesultanan melayu melaka dapat menjamin kestabilan dan keselamatan kerajaan serta dapat mengekalkan penguasaannya terhadap perdagangan di selat melaka pasai demak hubungan berlaku atas dasar sama taraf hubungan berlaku atas dasar kepentingan hubungan diplomatik terjalin melalui bersama dalam perdagangan dan perkahwinan sultan melaka dengan puteri penyebaran islam kerajaan pasai iaitu puteri ratna kaumala kerajaan demak membekalkan beras hubungan juga berlaku atas dasar berkongsi bahan makanan rempahratus dan tentera pendapat dan perbincangan berkaitan hal kepada melaka agama islam hubungan ini penting bagi menjamin hubungan ini membantu kemunculan melaka keamanan dan kemakmuran melaka sebagai pusat penyebaran islam diorama perbincangan berkaitan hal agama diorama antara ulama pasai pedagang demak dengan melaka di melaka sumber muzium negeri melaka sumber muzium negeri melaka hubungan kesultanan melayu melaka dengan kerajaan alam melayu majapahit makasar hubungan terjalin disebabkan oleh melaka telah menghantar utusan perkahwinan pemerintah melaka dengan persahabatan ke makasar puteri majapahit hubungan ini berlaku dalam aspek hubungan ini dapat mengukuhkan lagi perdagangan perkapalan islam persahabatan dengan majapahit kebudayaan dan kesenian hasil hubungan ini wilayah melaka menjadi hubungan ini semakin rapat dengan semakin luas dan tamatnya ancaman kerajaan makasar menghadiahi budak daripada majapahit raja kepada sultan melaka aktiviti glosari peta pemikiran thinking map hubungan diplomatik hubungan secara berdasarkan maklumat dalam teks secara langsung dengan menggunakan perantaraan berkumpulan hasilkan peta pemikiran yang perwakilan diplomat antara dua negara sesuai berkaitan hubungan kesultanan hubungan luar kerjasama yang terjalin melayu melaka dengan kerajaan alam antara sesebuah kerajaan dengan kerajaan melayu bentangkan lain kerjasama ini berlaku dalam pelbagai aspek seperti politik ekonomi keselamatan pada pendapat anda apakah bentuk pertukaran teknologi kebudayaan dan keamanan hubungan luar negara kita pada masa ini jelaskan 88china ryukyu jepun hubungan diplomatik persahabatan dan melaka menjalinkan hubungan diplomatik dan perdagangan terjalin dengan kunjungan perdagangan dengan kerajaan ryukyu utusan diketuai oleh yin ching pada sultan mansur shah berutus surat dengan kerajaan tahun 1403 dan laksamana zheng he ryukyu berkaitan tingkah laku pedagangnya pada tahun 1405 yang melanggar undangundang di melaka pengurniaan payung kuning cap mohor hubungan ini membantu meningkatkan lagi dan sepersalinan pakaian sebagai perdagangan dengan melaka tanda pengiktirafan kepada sultan melaka melaka mendapat naungan dan perlindungan daripada china pengiktirafan dan perlindungan daripada china dapat mengelakkan ancaman siam melaka mahu situasi menang menang dengan siam untuk mengekalkan laksamana zheng he surat raja ryukyu kepada sultan melaka kedaulatannya sumber muzium negeri sumber hashim musa hang tuah catatan melaka okinawa serdang penerbit upm 2015 hlm 132 hubungan kesultanan melayu melaka dengan kerajaan luar alam melayu siam kerajaan lain melaka pernah diancam oleh siam hubungan berbentuk perdagangan pula semasa pemerintahan parameswara dilakukan dengan pegu luzon gujerat dan sultan muzaffar shah koromandel dan bengal melaka menjalinkan hubungan dengan melaka juga menjalinkan hubungan dengan siam atas dasar diplomatik dan mesir parsi turki dan arab perdagangan kesannya melaka telah muncul sebagai pusat melaka telah menghantar utusan perdagangan dan pusat penyebaran islam yang ke siam yang diketuai oleh tun telanai ulung di alam melayu dan menteri jana putera melalui hubungan ini melaka memperoleh bekalan kayu jati beras diorama dan bahan makanan daripada siam pedagang serta dapat menjamin keselamatannya siam sumber muzium negeri melaka hubungan luar menyebabkan negara lain menghormati kedaulatan kesultanan melayu melaka keselamatan kesultanan melayu melaka juga terjamin melalui hubungan berbaikbaik dengan kerajaan di dalam dan luar alam melayu sebagai generasi pewaris kita perlu terus memelihara hubungan baik dengan negara lain agar kedaulatan negara kekal terpelihara 8953 pengakhiran kesultanan melayu melaka yang berpusat di melaka pengenalan kegemilangan kesultanan melayu melaka berakhir dengan kedatangan portugis pada tahun 1511 peristiwa ini penting kerana tahun tersebut menandakan bermulanya serangan portugis dan penaklukan ke atas melaka kesultanan melayu melaka telah menggunakan beberapa strategi untuk menghadapi serangan portugis walaupun terpaksa berundur pemerintah kesultanan melayu melaka terus berjuang untuk mengembalikan kedaulatannya faktor dalaman masalah kepimpinan masalah perpaduan kelemahan sultan mahmud shah dan pembesar rakyat tidak bersatu padu dalam pemerintahan dan pentadbiran menyebabkan berlaku persaingan kuasa antara ketidakstabilan politik pembesar melaka yang menyebabkan amalan pilih kasih rasuah dan penyelewengan dalam perpecahan pentadbiran askar upahan dari luar yang tidak perbalahan sesama sendiri dalam kalangan pembesar taat setia kepada melaka serangan portugis kedatangan portugis ke alam melayu kerana ingin mencapai matlamat kekayaan keagamaan dan kemasyhuran di samping mengawal perdagangan rempah portugis ingin menyebarkan agama kristian dan menghapuskan penguasaan pedagang islam hubungan melakaportugis bermula dengan kedatangan lopez de sequeira pada 11 september 1509 kegagalan rundingan menyebabkan portugis di bawah pimpinan serangan portugis alfonso de albuquerque menyerang melaka serangan berlaku sebanyak tiga kali iaitu pada 25 julai 1511 10 ogos 1511 dan 24 ogos 1511 strategi melaka menghadapi serangan portugis kepemimpinan kesultanan melayu melaka melaksanakan pelbagai ikhtiar mempertahankan maruah dan kedaulatannya termasuklah aspek diplomasi strategi pertahanan dan pertempuran melaka juga tidak tandus dari segi semangat juang malahan askar tempatan digambarkan mempunyai semangat keperwiraan yang tinggi menggunakan lancaran dan perahu berapi pertahanan melaka diperteguhkan di kawasan pantai dengan kayukayan dan pelbagai jenis meriam serta petipeti berisi serbuk peluru tembakan meriam bertalutalu dari pantai melaka menggunakan tentera bergajah bagi menghadapi serangan portugis tentera bergajah melaka meriam milik cerna minda tentera kesultanan sumber ismail embong perjuangan abadi bangsa melayu melaka apakah yang dimaksudkan dengan kekayaan melayu kuala lumpur sumber ahmad sarji ed gapeniaga 2009 hlm 12 keagamaan dan kemasyhuran the rulers of malaysia singapura editions didier 90 millets 2011 hlm 140</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kesultanan Melayu Melaka </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">di Melaka </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>perjuangan mengembalikan kedaulatan sultan mahmud shah berundur dari melaka ke beberapa wilayah naungan serta jajahannya kemudian bersemayam di bentan di antara tahun 1515 hingga 1519 sultan mahmud shah melakukan tiga kali serangan untuk mendapatkan semula melaka tetapi gagal pada tahun 1526 pusat pemerintahan sultan mahmud shah di bentan telah dimusnahkan oleh portugis akhirnya sultan mahmud shah berundur ke kampar dan mangkat pada tahun 1528 s e l a t m linggi e l melaka a k pagoh a muarbatu bengkalis pahat bentan petunjuk siak serangan sultan mahmud shah ke arah portugis kampar serangan portugis ke arah sultan mahmud shah peta menunjukkan pengunduran sultan mahmud shah sumber mohd jamil mukmin tun fatimah serikandi melayu melaka institut kajian sejarah dan patriotisme malaysia 2013 hlm 12 kesultanan melayu melaka yang berpusat glosari di melaka berakhir pada 24 ogos 1511 legasi kegemilangan kesultanan melayu lancaran sejenis perahu yang melaka diwarisi dan diteruskan pula oleh bergerak laju kesultanan johor riau kekalahan kesultanan melayu melaka perlu dijadikan iktibar kepada kita tentang cerna minda kepentingan memelihara perpaduan hal ini bagi mengelakkan perpecahan apakah strategi yang digunakan oleh yang boleh mengancam perpaduan dan kesultanan melayu melaka bagi keamanan negara menghadapi serangan portugis pada pendapat anda mengapakah melaka mengalami kekalahan walaupun mempunyai strategi dan senjata yang baik 91imbas kembali kesultanan melayu melaka pengasasan kesultanan melayu melaka parameswara pemilihan lokasi yang strategik laluan perdagangan bentuk muka bumi benteng pertahanan terlindung angin monsun kegemilangan kesultanan melayu melaka faktor kegemilangan kepemimpinan raja sistem pentadbiran sistem perundangan aspek kegemilangan empayar yang luas pusat penyebaran agama islam pusat perdagangan pengurusan perdagangan hubungan luar pengakhiran kesultanan melayu melaka yang berpusat di melaka faktor dalaman serangan portugis strategi melaka menghadapi serangan portugis perjuangan mengembalikan kedaulatan bab ini telah memerihalkan parameswara mengasaskan sebuah kerajaan yang penting dan gemilang di alam melayu kegemilangan kesultanan melayu melaka membuktikan kerajaan di alam melayu mampu menjadi bangsa yang maju dan kuat kepemimpinan kesultanan melayu melaka berjuang dan berusaha untuk mengembalikan kegemilangan kerajaan semangat ini wajar dijadikan sumber inspirasi untuk menjadikan negara kita sebagai sebuah negara bangsa yang mempunyai imej dan jati diri yang tinggi warisan keagungan dan kegemilangan kesultanan melayu melaka kemudiannya diteruskan pula oleh kesultanan johor riau 92pemahaman dan pemikiran kritis 1 mengapakah parameswara memilih orang laut sebagai penjaga keamanan dan keselamatan melaka a mahir dalam perdagangan b memberikan taat setia kepada raja c merupakan penduduk asal negeri melaka d mempunyai hubungan dengan kerajaan siam 2 apakah keistimewaan sungai melaka yang menyebabkan parameswara mengasaskan kerajaan di tempat berkenaan i tanahnya subur ii mudah memperoleh sumber makanan iii bentuk muka bumi yang berbukit bukau iv terlindung daripada tiupan angin monsun a i dan ii b i dan iv c ii dan iii d iii dan iv 3 bagaimanakah hubungan antara kesultanan melayu melaka dengan china dapat membantu perdagangan di melaka a melaka dapat bantuan kewangan dari china b melaka dapat mengawal pedagangpedagang china c melaka dapat perlindungan china daripada ancaman luar d melaka dapat menguasai barang dagangan yang dibawa dari china 4 a senaraikan lokasi pengembaraan parameswara sehingga tertubuhnya kesultanan melayu melaka b jelaskan kelebihan faktor geografi yang menyebabkan parameswara mengasaskan kerajaan di melaka c sekiranya anda merupakan pengasas kesultanan melayu melaka apakah langkah yang akan anda ambil untuk membangunkan kerajaan ini 5 jadual di bawah berkaitan perluasan wilayah oleh kesultanan melayu melaka berdasarkan pelbagai sumber lengkapkan maklumat jadual di bawah kerajaan cara perluasan kuasa sebab perluasan kuasa kelantan inderagiri siak jambi aru 93pemahaman dan pemikiran kritis 6 bandingkan hukum kanun melaka dengan undangundang laut melaka nama pemerintah kandungan fasal hukum kanun melaka undangundang laut melaka 7 a nyatakan faktor yang menyebabkan kemunculan kesultanan melayu melaka sebagai pusat perdagangan yang unggul di alam melayu b apakah cadangan anda untuk menjadikan malaysia sebagai pusat perdagangan yang bertaraf dunia 8 ilustrasi serangan portugis terhadap kesultanan melayu melaka sumber ismail embong perjuangan abadi bangsa melayu kuala lumpur gapeniaga 2009 hlm 13 a apakah suasana yang anda dapat tafsirkan di dalam gambar di atas b mengapakah portugis menyerang dan menguasai kesultanan melayu melaka c kekalahan melaka kepada portugis bukan menandakan berakhirnya pemerintahan kesultanan melayu melaka berikan hujah anda 94cakna dan cerminan sejarah nilai patriotisme dan iktibar pengetahuan tentang kesultanan melayu melaka mengajar kita agar menghargai sistem pemerintahan beraja yang diamalkan di negara kita memahami kesultanan melayu melaka memupuk sikap taat setia dan patuh kepada raja dan kepimpinan negara pemahaman berkaitan sistem pemerintahan beraja mampu mewujudkan semangat bersatu padu rakyat berbilang kaum untuk mempertahankan kedaulatan negara diri dan keluarga negara kita perlu memberikan taat setia mengetahui dan memahami sejarah kepada ketua keluarga hal ini akan kegemilangan kesultanan melayu menjadikan hubungan lebih harmoni melaka akan menjadikan kita lebih dan saling menghormati antara ahli bersungguhsungguh untuk mengekalkan keluarga dan mempertahankan kedaulatan negara institusi raja merupakan tonggak utama kesejahteraan dan kemakmuran rakyat di negara ini 95bab6 kesultanan johor riau sinopsis kesultanan johor riau diasaskan oleh waris kesultanan melayu melaka kerajaan ini mewarisi dan meneruskan kegemilangan kesultanan melayu melaka kepimpinan kesultanan johor riau berjaya menghadapi cabaran ke arah kegemilangan kegemilangan dicapai dari aspek perdagangan dan persuratan melayu kegemilangan kesultanan johor riau sebagai sebuah empayar yang unggul di alam melayu berakhir dengan perjanjian inggeris belanda 1824 apakah yang akan anda pelajari 1 memerihalkan pengasasan kesultanan johor riau ilustrasi pelabuhan batu sawar 2 menghuraikan kegemilangan kesultanan sumber kamarudin ab razak kesultanan johor riau johor sehingga 1699 johor bahru yayasan warisan johor 2005 hlm 56 9966apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menilai kepentingan kelangsungan warisan pentadbiran negara 2 menjelaskan tanggungjawab pemimpin dan rakyat dalam sesebuah negara 3 menghuraikan kepentingan sumbangan warisan kesultanan melayu 4 merumuskan iktibar yang diperoleh daripada sejarah kesultanan melayu kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi pengasasan kesultanan johor riau 2 meneroka bukti kegemilangan kesultanan johor riau 3 membuat interpretasi cabaran yang dihadapi oleh kesultanan johor riau ke arah kegemilangan 4 membuat imaginasi kegemilangan kesultanan johor riau 5 membuat rasionalisasi strategi kesultanan johor riau dalam menghadapi pelbagai cabaran 997761 pengasasan kesultanan johor riau pengenalan kesultanan johor riau diasaskan oleh waris kesultanan melayu melaka kerajaan ini juga mewarisi sistem pemerintahan dan pentadbiran serta wilayah jajahan takluk dan naungan kesultanan melayu melaka kesultanan johor riau juga meneruskan tradisi kegemilangan dan keagungan kerajaan awal di alam melayu sayong pinang 1 pengasasan kerajaan kesultanan johor riau telah diasaskan oleh raja ali putera pekan tua sultan mahmud shah dan tun fatimah baginda menggunakan gelaran sultan alauddin riayat j o h o r shah i 15281564 bendahara seri nara diraja dititahkan menghimpunkan rakyat untuk membuka negeri lakaran wajah sultan di pesisir sungai johor alauddin riayat shah i sumber muzium kota tinggi johor singapura 2 pusat pemerintahan kota kara pekan tua peta menunjukkan kedudukan sultan alauddin riayat shah i pusat pemerintahan kesultanan membina pusat pemerintahan di johor riau di pekan tua kota kara pekan tua pada tahun sumber buyong adil sejarah johor kuala lumpur dewan bahasa dan 1528 pustaka 1971 hlm 54 kedudukan kota kara yang terletak berhampiran sungai yang lebar dan dalam memudahkan kapal untuk keluar masuk kawasan berbukit bukau di sekitar kota kara menjadi benteng pertahanan daripada ancaman luar ilustrasi kuala sungai telor pekan tua sumber kamarudin ab razak kesultanan johor sehingga cerna minda 1699 johor bahru yayasan warisan johor 2005 hlm 9 apakah keistimewaan sayong pemerintah pinang dari segi pertahanan kesultanan johor riau 98</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kesultanan Johor Riau </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pengasasan Kesultanan Johor Riau </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3 pusat pemerintahan kota sayong sayong pinang ilustrasi kota kara kota kara di pekan tua telah diserang dan dimusnahkan oleh sumber kamarudin abrazak kesultanan johor sehingga 1699 portugis pada tahun 1535 johor bahru yayasan warisan sultan alauddin riayat shah i johor 2005 hlm 15 berundur dan membuka pusat pemerintahan di kota sayong sayong pinang kawasan ini lebih selamat kerana kapal perang musuh sukar melintasi sungai yang sempit pekan tua kerajaan johor riau di pekan tua 4 pusat pemerintahan kota batu j o h o r s j johor lama johor lama ohor pada tahun 1540 sultan alauddin riayat shah i memindahkan pusat pemerintahan ke kota batu johor lama kawasan ini juga dikenal sebagai tanjung batu kedudukannya yang strategik di sungai singapura johor yang lebar dan dalam memudahkan kemasukan kapal dagang tahukah anda kesultanan johor riau yang diasaskan oleh sultan alauddin riayat shah i telah berkembang dan diperintah oleh sultan daripada dua keturunan dari tahun 1528 hingga 1699 pemerintahan kesultanan johor riau diketuai oleh waris sungai johor pada masa kini sumber koleksi dbp 2010 berketurunan kesultanan melayu melaka manakala dari tahun 1699 hingga 1824 sultan alauddin riayat shah i telah meletakkan kegemilangan dan kemasyhuran kesultanan asas yang kukuh untuk pemerintah seterusnya johor riau diteruskan pula oleh sultan mengembalikan kewibawaan dan kedaulatan berketurunan bendahara johor kerajaan kesultanan melayu semangat gigih pada pendapat anda mengapakah dan usaha tanpa jemu yang ditunjukkan oleh pemerintah kesultanan johor sultan alauddin riayat shah i wajar dijadikan riau sering memindahkan pusat iktibar oleh kita dalam menzahirkan semangat pemerintahan cinta akan negara 99cabaran ke arah kegemilangan kesultanan johor riau menghadapi pelbagai cabaran untuk mempertahankan kedaulatannya antara cabaran tersebut termasuklah persaingan johorachehportugis perang johorjambi konflik pembesar dan ancaman raja kechil 1 persaingan johorachehportugis berlaku peperangan antara tiga kuasa ini untuk menguasai perdagangan di selat johor melaka perang ini dikenali sebagai perang tiga segi atau perang seratus tahun peperangan ini berakhir apabila johor johor menyerang memberikan bantuan kepada belanda untuk portugis di melaka acheh menyerang mengalahkan portugis dan menguasai melaka kerana hendak johor kerana pada tahun 1641 acheh pula mengalami merampas semula perdagangan melaka daripada kemerosotan selepas kemangkatan sultan portugis acheh tergugat portugis menyerang iskandar thani johor kerana adanya pakatan johor dan 2 perang johorjambi acheh portugis acheh johor menuntut wilayah tungkal acheh menyerang daripada kerajaan jambi krisis dan portugis di melaka peperangan berlaku dari tahun 1659 kerana portugis hendak hingga 1679 menguasai perdagangan acheh johor menyerang jambi pada bulan jun 1679 jambi tewas dan tunduk di u bawah kuasa kesultanan johor riau yang berpusat di riau aktiviti utusan envoys 1 murid dibahagikan kepada beberapa kumpulan laut china selatan setiap kumpulan dibahagikan soalan di bawah a apakah cabaran yang dihadapi oleh selat kesultanan johor riau ke arah mencapai melaka melaka kegemilangan johor b adakah kesultanan johor riau berjaya riau sumatera menghadapi cabaran tersebut berikan pandangan anda jambi c sekiranya anda merupakan pemimpin tungkal kesultanan johor riau bagaimanakah anda menghadapi cabaran yang menggugat lautan hindi kedaulatan negara laut jawa 2 seorang utusan dipilih daripada setiap kumpulan untuk menerangkan hasil perbincangan kepada jawa kumpulan lain peta menunjukkan kedudukan jambi 3 utusan kembali semula kepada kumpulan asal sumber adaptasi daripada kamarudin ab razak dan menyatakan maklum balas yang diterima kesultanan johor sehingga 1699 johor bahru yayasan daripada kumpulan lain warisan johor 2005 hlm 19 1003 konflik pembesar konflik berlaku antara bendahara tun habib abdul majid dengan laksamana tun abdul jamil untuk menguasai pemerintahan kerajaan johor riau persaingan berakhir dengan pengunduran laksamana tun abdul jamil ke terengganu keturunan bendahara kembali berpengaruh dalam pemerintahan kerajaan johor riau tun habib meninggal dunia dan dikenali dengan gelaran makam bendahara tun habib abdul majid bendahara padang saujana jawatan bendahara sumber kamarudin ab razak peninggalan digantikan oleh anaknya tun abdul jalil sejarah di pesisiran sungai johor johor bahru yayasan warisan johor 1998 hlm 60 4 ancaman raja kechil raja kechil menyerang johor pada tahun 1718 kerana menuntut takhta kerajaan johor baginda mendakwa raja kechil dirinya sebagai putera sultan mahmud shah i sultan mahmud mangkat dijulang 16851699 dan mengisytiharkan dirinya glosari sebagai sultan johor riau dengan menggunakan gelaran sultan abdul jalil rahmat shah opu bugis gelaran untuk raja sulaiman putera sultan abdul jalil riayat shah kerabat diraja bugisluwu di iv meminta bantuan opu bugis lima bersaudara untuk sulawesi selatan antara yang mengusir raja kechil terkenal termasuklah opu raja kechil dapat dikalahkan pada 4 oktober 1722 raja bugis lima bersaudara yang sulaiman ditabalkan sebagai sultan johor dengan gelaran terdiri daripada daeng parani sultan sulaiman badrul alam shah 17221760 manakala daeng menambun daeng daeng merewah dilantik sebagai yang dipertuan muda merewah daeng chelak dan atau yamtuan muda bugis yang pertama di johor daeng kemasi cabaran yang dihadapi oleh kesultanan johor aktiviti riau tidak menggugat kewibawaan pemerintah mangkuk ikan emas dan kedaulatan johor kecekalan dan goldfish bowl kebijaksanaan para pemerintah menghadapi cabaran getir telah membawa kesultanan 1 berdasarkan gambar di bawah secara johor riau ke arah kegemilangan kita wajar berkumpulan bincangkan kehebatan mencontohi semangat juang yang tinggi dan peralatan yang digunakan oleh askar bugis mampu menghadapi segala cabaran demi a mengapakah persiapan kelengkapan mencapai kejayaan dan kecemerlangan pada perang dan strategi peperangan penting masa hadapan dalam menghadapi musuh b jelaskan strategi peperangan yang tahukah anda terdapat dalam kerajaan alam melayu 2 bentangkan di hadapan kelas dan jawab kesultanan johor riau juga dikenali sebagai soalan daripada kumpulan lain kesultanan johor riau lingga kerana lingga pernah menjadi pusat pemerintahan semasa pemerintahan sultan abdullah maayat shah 16151623 sultan sumber adaptasi daripada kamarudin ab razak abdul jalil rahmat shah 17181722 dan sultan kesultanan johor sehingga 1699 johor bahru yayasan mahmud shah ii 17611812 warisan johor 2005 hlm 19 110011strategi menghadapi cabaran kepemimpinan kesultanan johor riau berjaya menghadapi cabaran yang menggugat kedaulatannya dengan menggunakan beberapa strategi antaranya termasuklah memindahkan pusat pemerintahan membina kota pertahanan serta menjalinkan hubungan persahabatan dengan belanda 1 pemindahan pusat pemerintahan sebahagian besar pusat pemerintahan kesultanan johor riau terletak di sepanjang pesisir sungai johor semasa pemerintahan sultan ibrahim 16771685 kegemilangan kesultanan johor riau diteruskan di kepulauan riau lingga yang menjadi pusat pemerintahan yang baharu pusat pemerintahan sering berpindah disebabkan oleh keperluan strategi ketenteraan dan pertahanan serta muslihat mempertahankan diri daripada ancaman portugis dan acheh ilustrasi kota seluyut sumber kamarudin ab razak kesultanan johor sehingga 1699 johor bahru yayasan warisan johor 2005 hlm 35 kota sayong kota makam tauhid kota kota kara batu sawar kota seluyut i l u s t r a s i k o t a b a t u s a w a r kota panchor kota johor lama sumber kamarudin ab razak kesultanan kota tinggi johor sehingga 1699 johor bahru yayasan warisan johor 2005 hlm10 kotakota pertahanan singapura kesultanan johor riau 2 membina kota pertahanan petunjuk kota pertahanan yang dibina sering berubah kota pertahanan kesultanan johor riau riau mengikut lokasi pusat pemerintahan dan mempunyai bentuk serta ciri yang peta pusat pemerintahan kesultanan johor riau tersendiri sumber adaptasi daripada kamarudin ab razak kesultanan johor sehingga 1699 johor bahru yayasan warisan johor 2005 hlm 12 kota kara dibina semasa pengasasan kerajaan oleh sultan alauddin riayat shah i terletak di kuala sungai telor pagar dibuat dengan pancang kayu besar setinggi 40 kaki 12 meter diperkuatkan dengan bedil dan meriam cerna minda ilustrasi kota kara di pekan tua jelaskan ciriciri kota pertahanan yang dibina sumber kamarudin ab razak kesultanan johor sehingga oleh kesultanan johor riau 1699 johor bahru yayasan warisan johor 2005 hlm 24 1023 menjalinkan hubungan dengan belanda kepemimpinan kesultanan johor riau mengekalkan kedaulatan kerajaan dengan mengadakan perjanjian persahabatan dengan pihak belanda dasar berbaikbaik dengan belanda dilakukan sebagai strategi untuk menghadapi ancaman daripada portugis di melaka dan acheh hubungan johorbelanda bermula pada tahun 1602 apabila belanda menawarkan bantuan kepada sultan alauddin riayat shah ii 15971615 untuk melindungi johor daripada serangan portugis dan acheh perjanjian johorbelanda ditandatangani pada 17 mei 1606 antara admiral belanda cornelis matelief de jonge dan sultan alauddin riayat shah ii di atas kapal belanda bernama oranje surat perjanjian johor belanda 1606 sumber ahmad sarji ed the rulers of malaysia singapura editions didier millets 2011 hlm 69 belanda meminta bantuan johor untuk menyerang melaka johor mengambil bahagian dalam perang belandaportugis dengan memberikan bantuan yang berikut membantu mengangkut peralatan perang membuat tapak meriam menggali parit kubu menyekat musuh lari ke dalam hutan menaikkan semangat tentera belanda johor membantu belanda mengepung dan ilustrasi tentera johor membantu belanda menyerang portugis di melaka sejak mengepung melaka 2 ogos 1640 sumber kamarudin ab razak kesultanan johor portugis di melaka berjaya ditewaskan pada sehingga 1699 johor bahru yayasan warisan johor januari 1641 2005 hlm 65 strategi memindahkan pusat pemerintahan membina kota pertahanan dan mengadakan perjanjian persahabatan dengan belanda dapat mengekalkan kedaulatan dan kestabilan kesultanan johor riau kewibawaan dan kebijaksanaan pemerintahnya menggunakan pendekatan ini telah melonjakkan kesultanan ini ke arah kegemilangan dan keagungan di alam melayu kita perlu mempunyai keyakinan diri dalam mempertahankan kedaulatan negara 10362 kegemilangan kesultanan johor riau pengenalan kesultanan johor riau muncul sebagai sebuah kerajaan yang kuat dan unggul di alam melayu kerajaan ini mencapai kegemilangannya dalam aspek perdagangan dan persuratan melayu kerajaan ini juga berusaha menghidupkan kembali tradisi perdagangan kerajaan di alam melayu dengan arab india dan china pusat perdagangan yang unggul pada abad ke16 dan ke17 johor muncul sebagai pusat perdagangan yang menjadi tumpuan pedagang terdapat beberapa keistimewaan yang menyebabkan johor muncul sebagai pusat perdagangan yang unggul 1 kedudukan strategik batu hampar pelabuhan johor lama batu sawar dan panchor mudah dimudiki oleh batu sawar seluyut kyaapnagl lebbeasra dr ank edraalnaam sungai johor s lokasi pelabuhan di kawasan selatan panchor s jo johor lama selat melaka membolehkannya hor mengawal lalu lintas kapal dagang dari timur dan barat selat dpie lapbeurhsainm prainagua ny alnagl telrilnettaaks tebrau u pusat maritim yang strategik menjadi perdagangan singapura tumpuan para pedagang luar untuk dan berurus niaga peta menunjukkan lokasi pelabuhan kerajaan pelabuhan johor riau di sepanjang sungai johor entrepot 2 tumpuan para pedagang tumpuan pedagang dari china gujerat belanda dan pedagang inggeris pedagang jawa menjadikan johor sebagai pelabuhan pilihan disebabkan tidak berminat berdagang dengan portugis di melaka pedagang siam memasarkan hasil pertanian seperti beras turut menjadi tumpuan pedagang dari ilustrasi menunjukkan pedagang tanah jajahan dan naungan serta kerajaan china dan gujerat lain di alam melayu sumber adaptasi daripada diorama muzium negeri melaka 104</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Kesultanan Johor Riau </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kegemilangan Kesultanan Johor Riau </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3 pusat pengumpulan dan pengedaran pelbagai barang dagangan pelabuhan johor riau berperanan sebagai pusat pertukaran barangan keluaran alam melayu dengan barangan dari china india dan arab barangan dagangan yang dibekalkan pelabuhan batu sawar juga menjadi oleh tanah jajahan dan naungan johor pusat perdagangan untuk barangan ialah lada hitam bijih timah dan emas yang dibawa dari china bijih timah dibawa masuk dari klang antaranya termasuklah benang emas sungai ujong dan bernam serta pulau kain sutera putih barang tembikar bangka sumatera seramik kuali besi teh dan tembaga lada hitam dibawa dari jambi dan emas pedagang jawa membawa beras pula dari inderagiri pedagang gujerat pula membawa barang tempatan lain ialah kelapa kain wangian dan manik kering kayu gaharu damar kelembak johor juga mendapat bekalan beras sagu pinang ikan masin periuk belanga yang diniagakan oleh pedagang siam lilin dan garam yang didatangkan dari pahang timur sumatera kepulauan riau sungai ujong klang naning dan rembau tembikar china kain sutera lada hitam kelembak pusat perdagangan dan 4 kesibukan pelabuhan johor riau pelabuhan terdapat 500 hingga 600 buah kapal dagang entrepot pelbagai bangsa berlabuh di pelabuhan johor terutamanya di pelabuhan riau antara kapal yang berlabuh di riau termasuklah kapal siam portugis inggeris dan pulaupulau di alam melayu ilustrasi menunjukkan pelabuhan johor riau sumber muzium kota tinggi johor tahukah anda cerna minda nama saintifik kelembak ialah rheum officinale kelembak bagaimanakah pelabuhan johor merupakan tanaman yang digunakan untuk menghasilkan ubat riau muncul sebagai pelabuhan dan wangian daun dan akar kelembak dapat dimanfaatkan yang unggul sebagai antioksidan 105pengurusan pelabuhan kecekapan pelabuhan kesultanan johor riau mengendalikan barang dagangan dan kemampuannya membekalkan semula kapal dengan cepat dan murah merupakan antara faktor utama yang menjadikan pelabuhannya sebagai pelabuhan entrepot 1 kemudahan pelabuhan menyediakan gudang bawah tanah untuk menyimpan barangan bagi mengelakkan daripada kebakaran menyediakan pegawai terlatih untuk mengendalikan urusan perdagangan membekalkan barang yang diperlukan oleh pedagang seperti lada hitam dan rempahratus 2 urusan jual beli perdagangan dijalankan secara tukar barang dan menggunakan mata wang sultan alauddin riayat shah i memperkenalkan mata wang emas yang dikenali sebagai mas wang perak sebagai kupang dan wang timah sebagai katun pada akhir abad ke18 mata wang asing wang emas seperti dolar sepanyol dolar mexico dan duit belanda turut digunakan syahbandar merupakan pembesar yang bertanggungjawab mengurus sistem jual beli dan kutipan cukai pelabuhan cukai pelabuhan yang dikenakan terhadap pedagang adalah berpatutan syahbandar juga menetapkan ukuran dan berat wang kupang wang katun timbangan barangan sumber ahmad sarji ed the rulers of malaysia singapura editions didier millets 2011 hlm 68 3 sistem naungan pedagang luar dan pedagang tempatan mendapat naungan daripada bendahara temenggung laksamana dan raja indera bongsu sebahagian hasil keuntungan diberikan kepada pihak yang memberikan naungan dalam bentuk cukai perdagangan berdasarkan sistem naungan melalui sistem ini pedagang mudah mendapat surat kebenaran daripada belanda dan dapat belayar tanpa gangguan di selat melaka cerna minda apakah yang dimaksudkan dengan sistem naungan 1064 peranan orang laut orang laut ditugaskan sebagai pengawal pelabuhan penunda kapal dagang penunjuk arah kepada para pedagang dan pengawal di perairan johor dan selat melaka orang laut juga terlibat mengawal keselamatan kesultanan johor riau dengan menjadi tentera angkatan laut orang laut menyumbang kepada kegemilangan kesultanan johor riau sumber muzium kota tinggi johor 5 kemudahan membaiki dan membina kapal pelabuhan di johor juga mempunyai kemudahan membaiki dan membina kapal bersaiz kecil orang laut mahir dalam pembinaan kapal mereka membuat kapal pesisir pantai seperti kolek banteng penjajap balok dan pencalang kemahiran ini telah membantu memajukan kesultanan johor riau replika banteng sumber muzium kota tinggi johor kedudukan strategik dan kemudahan pelabuhan menyebabkan kesultanan johor riau menjadi tumpuan para pedagang kesultanan ini telah kps dapat menyaingi dan mengambil alih peranan melaka dan acheh sebagai pusat perdagangan gambar menunjukkan kesibukan pelabuhan yang unggul pada masa itu kita patut berasa batu sawar bangga dengan sejarah sebuah kerajaan gemilang yang pernah wujud di negara kita bandingkan pengurusan pelabuhan pada masa dahulu dan sekarang bincangkan aktiviti peta pemikiran thinking map batu sawar amat penting bagi kesultanan berdasarkan maklumat dalam teks johor riau kerana peranannya sebagai pusat hasilkan peta pemikiran yang sesuai perdagangan dan pusat pemerintahan setiap berkaitan pengurusan perdagangan murid mengemukakan idea masingmasing di pelabuhan kesultanan johor riau tentang gambar di atas 107pusat persuratan penghasilan karya persuratan membuktikan kesultanan johor riau juga tidak ketandusan dengan karya agung dan tokoh persuratan yang berkaliber batu sawar dan pulau penyengat riau memainkan peranan penting dalam perkembangan penulisan karya persuratan berkaitan kerajaan melayu karya agung kesultanan johor riau banyak menghasilkan karya agung karya agung bermaksud karya yang tertulis dalam bahasa melayu yang mampu mencetuskan unsur pemikiran sistem nilai dan kepercayaan falsafah atau pandangan hidup bangsa melayu karya agung juga melambangkan pencapaian unggul dalam tamadun melayu yang mencerminkan pemikiran dan pandangan hidup bangsa melayu sulalatus salatin bermaksud salasilah rajaraja atau peraturan segala rajaraja naskhah asal karya ini bernama hikayat melayu telah disusun dan ditulis semula oleh tun seri lanang pada tahun 1612 kandungannya menceritakan asal usul keturunan rajaraja melaka adat istiadat kerajaan dan sejarah kesultanan melayu melaka salinan naskhah sulalatus salatin sumber pusat manuskrip melayu perpustakaan negara malaysia hikayat hang tuah sejarawan menyatakan bahawa naskhah ini dihasilkan oleh pengarang dari johor selepas kekalahan portugis di melaka pada tahun 1641 hikayat hang tuah ialah sebuah epik kepahlawanan yang merentas sepanjang zaman kegemilangan kesultanan melayu melaka kandungannya juga berkaitan dengan ketaatan atau kesetiaan salinan naskhah hikayat hang tuah yang menceritakan hang tuah kepada raja dan kesultanan melayu melaka kehebatan hang tuah bertarung sumber pusat dokumentasi melayu dewan bahasa dan pustaka tahukah anda sulalatus salatin dan hikayat hang tuah diiktiraf sebagai hasil kesusasteraan klasik dan epik melayu tradisional oleh unesco dalam daftar ingatan dunia the memory of the world register 108tokoh persuratan tun seri lanang nama sebenar tun seri lanang ialah tun muhammad bin tun ahmad paduka raja dilahirkan di bukit seluyut kota tinggi pada tahun 1565 menjadi bendahara johor semasa pemerintahan sultan alauddin riayat shah ii menyusun dan menulis semula sulalatus salatin atas titah raja abdullah adinda sultan alauddin riayat shah ii dilantik sebagai penasihat sultan iskandar muda acheh dan menjadi raja uleebalang di samarlanga lakaran wajah tun seri lanang sumber muzium kota tinggi johor karya lain tajul salatin atau mahkota rajaraja ditulis oleh bukhari aljauhari karya ini merupakan antara karya persuratan yang tersohor dihasilkan pada zaman kesultanan johor riau tuhfat alnafis salasilah melayu dan bugis dan gurindam dua belas dikarang oleh raja ali haji hikayat anak panah sedasa dikarang oleh tun hisap misai tajul salatin syair ungku puteri dikarang oleh raja ahmad sumber pusat manuskrip melayu perpustakaan negara malaysia kelahiran karya persuratan merupakan pengiktirafan kepada kegemilangan kesultanan johor riau sebagai pusat persuratan alam melayu pada abad ke17 dan ke18 kesannya kesultanan ini muncul sebagai pusat perkembangan persuratan dan bahasa melayu yang terulung di alam melayu kita perlu menghargai karyakarya persuratan ini kerana karya tersebut merupakan warisan bernilai yang menjadi rujukan hingga hari ini kegemilangan sebagai pusat perdagangan dan pusat persuratan melayu menyebabkan kesultanan johor riau muncul sebagai kerajaan masyhur dan unggul di alam melayu kesultanan ini telah berjaya mewarisi kegemilangan dan kesinambungan kesultanan melayu melaka oleh itu usaha perlu dilakukan untuk mengembalikan semula kegemilangan negara dalam bidang perdagangan dan persuratan melayu warganegara malaysia perlu bekerjasama ke arah mencapai matlamat tersebut aktivitipeta pemikiran thinking map bincangkan langkah yang perlu secara berkumpulan kumpul maklumat tentang dilakukan untuk memartabatkan kegemilangan kesultanan johor riau dalam karyakarya persuratan melayu bidang persuratan melayu bentangkan hasil ke peringkat antarabangsa dapatan dengan menggunakan peta pemikiran 109imbas kembali kesultanan johor riau pengasasan kesultanan johor riau pengasasan pusat pemerintahan cabaran ke arah kegemilangan persaingan johorachehportugis perang johorjambi konflik pembesar ancaman raja kechil strategi menghadapi cabaran pemindahan pusat pemerintahan membina kota pertahanan menjalinkan hubungan dengan belanda kegemilangan kerajaan pusat perdagangan yang unggul kedudukan strategik tumpuan para pedagang pusat pengumpulan dan pengedaran pelbagai barang dagangan kesibukan pelabuhan johor riau pengurusan pelabuhan kemudahan pelabuhan urusan jual beli sistem naungan peranan orang laut kemudahan membaiki dan membina kapal pusat persuratan karya agung tokoh persuratan bab ini telah menerangkan pengasasa n d an perkembangan kesultanan johor riau serta kemampuannya menghadapi segala cabaran untuk mencapai kegemilangan sistem pemerintahan bercorak empayar yang diwarisi oleh kesultanan johor riau berakhir dengan perjanjian inggeris belanda 1824 warisan kesultanan melayu diteruskan pula oleh kerajaan negeri melayu lain yang akan dibincangkan dalam bab seterusnya 110pemahaman dan pemikiran kritis 1 perang tiga segi berlaku antara johorachehportugis dikenali juga dengan perang seratus tahun apakah faktor yang membawa kepada peperangan di atas a persaingan kuasa acheh b perluasan pengaruh portugis c perebutan kuasa antara pembesar d persaingan untuk menguasai perdagangan di selat melaka 2 sultan alauddin riayat shah i telah mengambil beberapa langkah untuk memantapkan dan mengekalkan kewibawaan kesultanan johor riau apakah tindakan tersebut i mengalahkan portugis dan acheh ii mengawal perdagangan di selat melaka iii menguasai tanah jajahan dan naungan kesultanan melayu melaka iv membina kota pertahanan untuk mempertahankan pusat pentadbiran a i dan ii b i dan iv c ii dan iii d iii dan iv 3 bagaimanakah kesultanan johor riau dapat menamatkan ancaman jambi yang menggugat kedaulatannya a membuat pakatan dengan belanda b menjalankan pemerintahan yang cekap c menyerang dan menewaskan kerajaan jambi d meminta bantuan daripada askar upahan bugis 4 lengkapkan maklumat berkaitan kota pertahanan kesultanan johor riau di dalam jadual di bawah gambar nama kota susunan kronologi keistimewaan kota 111pemahaman dan pemikiran kritis 5 cari perkataan dalam teka kata lengkapkan ayat di bawah dengan perkataan tersebut a sultan alauddin riayat shah i telah mengasaskan kerajaan di b kota pertahanan yang dibina di johor lama dikenali sebagai c persaingan antara johorachehportugis telah menyebabkan d daeng merewah telah dilantik sebagai bugis yang pertama di johor e kota menjadi pusat pemerintahan kesultanan johor riau semasa pemerintahan sultan abdul jalil shah i f perjanjian johorbelanda ditandatangani di atas kapal bernama g pelabuhan johor menjadi tumpuan pedagang dari h merupakan hasil hutan yang diperdagangkan di pelabuhan johor riau i orang laut mahir dalam membina kapal pesisir pantai seperti 6 ilustrasi menunjukkan kota kara yang menjadi antara pusat pentadbiran kesultanan johor riau a apakah keistimewaan pusat pentadbiran dan kota pertahanan ini b adakah anda bersetuju bahawa strategi peperangan lebih penting daripada kota pertahanan untuk mempertahankan kedaulatan negara daripada ancaman musuh berikan rasional anda 112cakna dan cerminan sejarah nilai patriotisme dan iktibar memahami kegigihan dan kesungguhan kepemimpinan kesultanan johor riau mempertahankan kedaulatan kerajaan pengetahuan tentang kegemilangan kerajaan melayu mendidik kita supaya berbangga dengan sejarah tradisi dan budaya bangsa semangat kekitaan yang ditunjukkan oleh masyarakat dahulu mengajar kita tentang kepentingan bersatu padu bersefahaman dan bermuafakat dalam mempertahankan kedaulatan negara diri dan keluarga negara semangat kerjasama dan saling membantu peranan golongan intelek dan rakyat dalam menghadapi cabaran dan bijak yang berilmu pengetahuan serta menyelesaikan masalah sesama ahli keluarga sanggup berkorban amat penting dalam akan melahirkan keluarga yang sejahtera dan mengekalkan dan mempertahankan harmoni kedaulatan negara dan bangsa dato dr zurinah binti hassan merupakan penerima anugerah sasterawan negara ke13 pada tahun 2016 dan merupakan wanita pertama yang menerima anugerah tertinggi negara ini anugerah sasterawan negara merupakan pengiktirafan kerajaan kepada budaya intelektual dan pengkaryaan persuratan melayu 113bab7 kesultanan melayu pahang perak terengganudan selangor sinopsis tengkolok sultan perak dikenali dengan lipatan kesultanan pahang perak terengganu dan selangor ayam patah kepak merupakan kelangsungan daripada kesultanan melayu melaka pengasas kesultanan pahang dan perak merupakan kesinambungan langsung daripada kesultanan melayu melaka pengasasan kesultanan selangor dan terengganu pula berkait rapat dengan kesultanan johor riau oleh itu warisan kesultanan melayu melaka diteruskan oleh kesultanan pahang perak terengganu dan selangor hal ini dapat dilihat dalam sistem pemerintahan agama islam dalam pemerintahan perundangan adat istiadat persuratan dan ekonomi apakah yang akan anda tengkolok sultan selangor pelajari dikenali dengan lipatan setanjak balung raja 1 menerangkan kelangsungan kesultanan melayu melaka di pahang perak terengganu dan selangor 2 menghuraikan warisan kesultanan melayu melaka terhadap pahang perak terengganu dan selangor hingga kini 111144</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bab  Kesultanan Melayu Pahang Perak Terengganu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dan Selangor </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menilai kepentingan kelangsungan warisan pentadbiran negara 2 menjelaskan tanggungjawab pemimpin dan rakyat dalam sebuah negara 3 menghuraikan kepentingan sumbangan warisan kesultanan melayu 4 merumuskan iktibar yang diperoleh daripada sejarah kesultanan melayu tengkolok sultan terengganu dikenali dengan lipatan belalai gajah kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi kelangsungan kesultanan melayu melaka melalui peristiwa pengasasan kesultanan pahang perak terengganu dan selangor 2 meneroka bukti kelangsungan warisan tengkolok sultan sistem pemerintahan kesultanan melayu pahang dikenali melaka dalam kerajaan pahang perak dengan lipatan helang terengganu dan selangor menyongsong angin 3 membuat interpretasi warisan persuratan kesultanan melayu melaka di pahang perak terengganu dan selangor 4 membuat imaginasi kelangsungan adat istiadat kesultanan melayu melaka di pahang perak terengganu dan selangor 5 membuat rasionalisasi kelangsungan warisan kesultanan melayu melaka di pahang perak terengganu dan selangor 11115571 pengasasan kesultanan pahang perak terengganu dan selangor pengenalan pengasasan kesultanan pahang perak terengganu dan selangor menandakan lahirnya empat buah negeri melayu berdaulat legasi kesultanan melayu melaka diteruskan secara langsung di pahang dan perak manakala pengasasan kesultanan terengganu dan selangor merupakan kesinambungan daripada kesultanan johor riau kesultanan pahang kesultanan pahang diasaskan oleh keluarga u diraja kesultanan melayu melaka pada zaman g kegemilangan kerajaan tersebut mbelintes stekai pada abad ke15 pahang merupakan pahang laut sebahagian wilayah naungan kesultanan china melayu melaka seri bija diraja dilantik selatan sebagai wakil untuk mentadbir pahang ssemantan s pahang semasa melaka diperintah oleh sultan pekan mansur shah baginda telah menghantar selat puteranya raja muhammad untuk melaka ditabalkan sebagai sultan pahang peta menunjukkan pusat pemerintahan kesultanan pahang sumber adaptasi daripada ahmad sarji ed the rulers of raja muhammad berangkat dari melaka malaysia singapura editions didier millet 2011 hlm 80 ke pahang diiringi oleh golongan bangsawan melaka mereka telah dilantik sebagai bendahara penghulu bendahari temenggung dan hulubalang besar serta pengikut mereka untuk membantu mentadbir kerajaan pahang raja muhammad mengasaskan kesultanan pahang pada tahun 1470 dengan gelaran sultan muhammad shah sultan muhammad shah mendirikan pusat pemerintahan di pekan berhampiran kuala sungai pahang wilayah pemerintahan kerajaan pahang meliputi dari sedili besar hingga terengganu istana abu bakar di pekan pahang sumber koleksi dbp 2016 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bab  Kesultanan Melayu Pahang Perak Terengganu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dan Selangor </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sultan abdul jamil shah merupakan sultan ketiga yang memerintah pahang 14951512 dan antara sultan yang masyhur baginda mengekalkan hubungan yang harmoni dengan kesultanan melayu melaka baginda juga berjaya mempertahankan pahang semasa diserang oleh siam bersamasama bantuan daripada kesultanan melayu melaka sultan abdul ghafur muhaiyuddin shah 15921614 tidak meninggalkan waris kerana puteranya raja muda abdullah mangkat oleh itu pahang diperintah oleh kesultanan johor riau dari tahun 1614 hingga 1884 ketika ini pahang merupakan wilayah pegangan bendahara johor keluarga bendahara johor yang mentadbir pahang kemudian mengasaskan kesultanan pahang yang baharu pengasasnya ialah bendahara siwa raja wan ahmad wan ahmad ditabalkan sultan ahmad almuazzam shah sebagai sultan pahang pada 12 disember 1884 dengan gelaran sumber ihsan arkib negara sultan ahmad almuazzam shah dengan penggunaan gelaran sultan ini maka muncullah kesultanan baharu di pahang yang cerna minda berdaulat dan kekal hingga hari ini siapakah yang mengasaskan kesultanan melayu pahang kps aktiviti kajian dokumen antara kandungan teks ini pada halaman 153 kajian dokumen melalui teks sulalatus salatin maka baginda pun menyuruh karangan tun seri lanang yang diselenggarakan memanggil seri bija diraja ke pahang oleh a samad ahmad terbitan dewan bahasa maka seri bija diraja pun datanglah dan pustaka 2001 maka raja muhammad pun diserahkan baginda kepada seri bija diraja disuruh rajakan di pahang secara berkumpulan jawab soalan yang berikuta apakah peristiwa yang berlaku b bagaimanakah perkaitan peristiwa tersebut dengan pengasasan kesultanan pahang c berikan interpretasi anda terhadap peristiwa tersebut peristiwa sepak raga 117kesultanan perak kesultanan perak diasaskan oleh keluarga diraja kesultanan melayu melaka pada abad ke16 kerajaan ini lahir selepas berakhirnya kesultanan melayu melaka yang berpusat di melaka pada abad ke15 perak merupakan sebahagian wilayah naungan kesultanan melayu melaka serangan portugis menyebabkan sultan mahmud shah dan keluarga meninggalkan melaka dan akhirnya bersemayam di kampar sumatera pembesar perak bernama perak tun saban dan nakhoda kassim telah ke kampar selat menjemput putera sultan mahmud shah bernama raja muzaffar untuk ditabalkan sebagai sultan perak melaka raja muzaffar berangkat ke perak bersamasama alat kebesaran berupa sebilah pedang cura si manja kampar kini sebilah keris cap mohor nobat dan surat ciri baginda berangkat ke perak bersamasama anak isteri para pengikut dan pengiring yang menjemputnya dari perak peta menunjukkan pergerakan raja raja muzaffar mengasaskan kesultanan perak pada muzaffar dari kampar ke perak tahun 1528 dengan gelaran sultan muzaffar shah sumber adaptasi daripada ahmad sarji ed the rulers of malaysia singapura editions didier millet 2011 hlm 33 sultan muzaffar shah mendirikan pusat pemerintahan yang pertama di tanah abang di pesisir sungai perak keturunan sultan muzaffar shah mewarisi takhta aktiviti hingga hari ini lawatan ke galeri gallery walk glosari 1 murid dibahagikan kepada beberapa kumpulan surat ciri kalimah ucapan berbentuk puisi yang 2 setiap kumpulan dikehendaki memuji kebesaran rajaraja melayu asalnya ditulis merujuk pelbagai sumber dan dalam bahasa sanskrit tetapi kini kandungannya melayari internet bagi mengumpul ditambah dengan bahasa melayu lama dan bahasa arab maklumat berkaitan alat regalia kesultanan perak 3 dapatan yang diperoleh akan tahukah anda ditampal di dalam kelas alat kebesaran mesti ada semasa pertabalan raja 4 setiap kumpulan akan bergerak di negerinegeri melayu seperti perak pahang melihat dan menganalisis hasil terengganu selangor kedah kelantan perlis negeri dapatan kumpulan lain sembilan dan johor juga dikenali sebagai alat regalia 5 setiap kumpulan akan berbincang alat kebesaran terdiri daripada pedang keris mahkota bersamasama ahli kumpulan dan nobat misalnya di perak antara alat kebesaran berkenaan dapatan kumpulan tersebut termasuklah pedang cura si manja kini keris dan membuat penambahbaikan taming sari dan mahkota diraja maklumat 118sultan iskandar dzulkarnain sultan perak ke15 17521765 telah memperkemaskan sistem pentadbiran negeri perak dan mula mengguna pakai undangundang 99 perak istana iskandariah kuala kangsar perak sumber koleksi dbp 2017 tahukah anda tun saban dan saudara perempuannya tok temong merupakan pembesar asal wilayah di negeri perak gambar menunjukkan makam tok temong tok temong merupakan pemerintah di daerah temong perak sebelum bermula pemerintahan sultan muzaffar shah pada hari pertabalan baginda tok temong telah menghadiahi baginda sebutir batu geliga dinamakan mestika embun yang dijadikan alat kebesaran negeri perak hingga hari ini p e r a k selat melaka perak kinta s s tanah abang peta menunjukkan pusat pemerintahan kesultanan perak sumber ahmad sarji ed the rulers of malaysia makam tok temong singapura editions didier millet 2011 hlm 34 sumber koleksi dbp 2017 susur galur pemerintah kesultanan melayu pahang dan perak merupakan keturunan langsung kesultanan melayu melaka oleh itu keduadua negeri ini meneruskan legasi kesultanan melayu melaka dalam institusi kesultanannya cerna minda siapakah pembesar perak yang menjemput senarai sultan pahang raja muzaffar untuk menjadi sultan di perak perak terengganu dan selangor 119kesultanan terengganu kesultanan terengganu mempunyai kaitan rapat dengan kesultanan johor riau kesultanan ini diasaskan pada awal abad ke18 oleh keluarga diraja daripada susur galur bendahara johor riau terengganu merupakan wilayah naungan kesultanan johor riau sejak abad ke16 pada tahun 1708 sultan abdul jalil menganugerahkan terengganu kepada tun zainal abidin iaitu putera kepada tun habib abdul majid bendahara johor riau yang ke11 tun zainal abidin juga merupakan putera angkat raja patani yang digelar nang chayam raja kuning raja patani telah menyediakan kelengkapan untuk menabalkan tun zainal abidin sebagai sultan terengganu tun zainal abidin berangkat ke terengganu diiringi oleh 80 orang keluarga patani termasuk beberapa orang tokoh agama seperti qadhi wan imam mahmud dan che buang antara alat kebesaran yang turut dibawa lautchina termasuklah keris diraja keris panjang nang selatan chayam terenggtanuanjung s baru terengganu tun zainal abidin mengasaskan kesultanan terengganu pada tahun 1708 dengan gelaran sultan zainal abidin i sultan zainal abidin i mendirikan pusat pemerintahan yang pertama di tanjung baru kuala berang wilayah terengganu semasa diasaskan meliputi dari kemaman hingga besut keturunan sultan zainal abidin i mewarisi peta menunjukkan pusat pemerintahan takhta terengganu hingga hari ini kesultanan terengganu sumber adaptasi daripada ahmad sarji ed the rulers of malaysia singapura editions didier millet 2011 hlm 90 tahukah anda patani merupakan antara kesultanan melayu yang wujud pada abad ke16 hingga ke19 kesultanan patani pernah diperintah oleh rajaraja perempuan iaitu raja biru raja hijau raja ungu dan raja kuning mereka digelar nang chayam sumber siti hawa salleh penyelenggara hikayat patani kuala lumpur dewan bahasa dan pustaka istana maziah yang siap dibina pada tahun 1897 1992 hlm xixii sumber muzium negeri terengganu 120sultan zainal abidin iii 18811918 merupakan antara sultan terengganu yang masyhur baginda terkenal sebagai sultan yang membawa pemodenan terengganu antara sumbangan penting baginda termasuklah penggubalan undang undang tubuh iaitu undangundang bagi diri kerajaan terengganu yang dikenali sebagai itqan almuluk bi tadil alsuluk baginda juga memperkemaskan sistem sukat dan timbang menubuhkan mahkamah syariah menubuhkan pasukan polis dan membina istana maziah istana rasmi kesultanan terengganu hingga hari ini aktivitihentian bas bus stop gambar menunjukkan kupang emas duit syiling yang digunakan semasa pemerintahan sultan zainal abidin iii 18811918 sultan zainal abidin i gambar di sebelah sumber mohamed anwar omar din dan nik anuar nik mahmud dirgahayu tuanku sejarah kesultanan kiri tercetak nama baginda manakala gambar terengganu 17082008 kuala terengganu yayasan di sebelah kanan permukaan tercatat khalifah diraja sultan mizan 2011 hlm 299 almukmin 1 gambar ini ditampal pada dinding kelas dengan dicerakinkan soalan yang berbezabeza iaitu a apakah kepentingan penemuan duit syiling tersebut hentian pertama b nyatakan pengaruh islam yang terdapat pada duit syiling ini hentian kedua c bagaimanakah duit syiling ini dihasilkan pada zaman itu hentian ketiga d apakah bahan dan teknologi yang digunakan untuk menghasilkan duit syiling ini hentian keempat 2 bergerak secara berkumpulan dari satu hentian ke hentian yang lain sambil berbincang soalan yang diberikan istana maziah yang moden di kuala terengganu terengganu 3 kongsikan pendapat dan rekodkan ulasan sumber muzium negeri terengganu serta maklumat yang diperoleh 121kesultanan selangor kesultanan selangor diasaskan oleh keluarga diraja bugis yang berpengaruh dalam kesultanan johor riau pada abad ke18 selangor merupakan sebahagian daripada u wilayah naungan kesultanan johor riau sejak abad ke16 pada abad ke18 masyarakat bugis semakin ramai menetap di selangor pada ketika itu daeng chelak dyianpge rtbuearnk emtuurduan akne sbulutagnisa nm joehnojard ri iayuang selangor s k u a l a selangor putera daeng chelak bernama raja s e l a n g o r selat lumu telah menghadap sultan perak melaka sultan mahmud shah untuk mendapatkan pengiktirafan sultan mahmud shah telah menabalkan raja lumu sebagai sultan selangor baginda dianugerahkan nobat dan cap mohor peta menunjukkan pusat pemerintahan kesultanan raja lumu mengasaskan kesultanan selangor selangor pada tahun 1766 dengan gelaran sumber adaptasi daripada ahmad sarji ed the sultan salehuddin shah rulers of malaysia singapura editions didier millet 2011 hlm 44 sultan salehuddin shah mendirikan pusat pemerintahan pertama di kuala selangor keturunan sultan salehuddin shah mewarisi takhta selangor hingga hari ini tahukah anda klang merupakan wilayah penting di selangor semasa kesultanan melayu melaka naskhah sulalatus salatin mencatatkan bahawa sultan muzaffar shah telah melantik tun perak sebagai penghulu di klang sebelum tun perak istana alam shah klang selangor menjadi bendahara melaka yang masyhur sumber koleksi dbp 2017 122sultan alaiddin suleiman shah 18981938 merupakan antara sultan selangor yang masyhur pada zaman baginda banyak jalan raya dan landasan kereta api telah dibina pembinaan rumah dan kedai meningkat terutama di kuala lumpur dan klang kebijaksanaan baginda memerintah telah mendorong rakyat mengadakan sambutan keramaian jubli emas di klang sempena genap 40 tahun pemerintahan baginda kesinambungan pengasasan kerajaan pahang perak terengganu dan selangor menunjukkan penerusan tradisi kesultanan yang telah diamalkan oleh kesultanan melayu melaka tradisi kesultanan tersebut kekal bertahan dan kini sistem kesultanan disesuaikan dengan sultan alaiddin suleiman shah corak pemerintahan baharu selepas negara kita sumber cheah jin seng selangor 300 early mencapai kemerdekaan postcards singapura editions didier millet 2011 hlm 21 cerna minda bagaimanakah raja lumu memperoleh pengiktirafan untuk ditabalkan menjadi sultan selangor aktivitisaya lihat saya fikir saya bertanya i see i think i wonder kuala selangor merupakan pusat pentadbiran kerajaan selangor mulai tahun 1766 pemerintahan di lokasi ini diteruskan oleh sultan ibrahim dan sultan muhammad namun sultan abdul samad memindahkan ibu kota selangor ke jugra pada tahun 1857 ibu kota selangor kemudian berpindah pula ke klang dan seterusnya ke shah alam hingga hari ini kubu pertahanan di kuala selangor secara berkumpulan lakukan aktiviti yang berikut 1 bincang dan tuliskan apakah yang anda nampak pada gambar di atas 2 menyenaraikan kepentingan pusat pentadbiran 3 menyenaraikan kriteria yang perlu diambil kira untuk membina pusat pentadbiran sesebuah kerajaan 4 membentangkan dapatan di hadapan kelas 12372 warisan kesultanan melayu melaka di pahang perak terengganu dan selangor pengenalan kesultanan pahang perak terengganu dan selangor memiliki keunikan warisan kesultanan melayu melaka yang merangkumi aspek sistem pemerintahan agama islam dalam pemerintahan perundangan adat istiadat persuratan dan ekonomi sistem pemerintahan aspek utama warisan sistem pemerintahan kesultanan melayu melaka ialah sultan sebagai tonggak utama kerajaan dan penggantian pemerintah yang berasaskan adat temenggung di negeri perak putera sultan juga akan mewarisi takhta tetapi melalui sistem penggiliran asas pentadbiran kesultanan melayu melaka melalui sistem pembesar empat lipatan turut diwarisi oleh negerinegeri ini kesultanan pahang mengamalkan sistem pewarisan takhta waris ganti digelar tengku mahkota pelantikan sultan juga atas persetujuan jumaah pangkuan diraja negeri sistem pentadbiran masih berasaskan pembesar empat panji diraja pahang lapan dan enam belas empat pembesar utama pahang ialah a orang kaya indera shahbandar b orang kaya indera segara c orang kaya pahlawan keris panjang diraja pahang d orang kaya indera perba jelai sumber ahmad sarji ed pemerintahan kerajaan negeri dijalankan bersamasama the rulers of malaysiia majlis mesyuarat kerajaan singapura editions didier millet 2011 hlm 81 keris taming sari kesultanan perak keris kebesaran mengamalkan sistem diraja negeri perak penggiliran dewan negara sumber alat perak bertanggungjawab alat kebesaran di raja perak kuala memilih dan melantik sultan panji diraja perak lumpur kementerian sistem penggiliran seperti kebudayaan belia dan sistem pentadbiran masih berasaskan susunan yang berikut sukan malaysia 1986 pembesar empat lapan enam belas dan hlm 10 sultan tiga puluh dua empat pembesar utama raja muda perak ialah raja di hilir a orang kaya bendahara seri maharaja raja kecil besar raja kecil sulong b orang kaya besar maharaja diraja raja kecil tengah c orang kaya temenggong paduka raja raja kecil bongsu d orang kaya menteri paduka tuan pemerintahan kerajaan negeri dijalankan bersamasama majlis mesyuarat kerajaan 112244</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bab  Kesultanan Melayu Pahang Perak Terengganu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terengganu dan Selangor </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>kesultanan terengganu mengamalkan sistem perwarisan takhta waris ganti digelar yang dipertuan muda walau bagaimanapun dewan pangkuan diraja berhak memilih dan melantik sultan jumaah ini turut dikenali sebagai ahli alhal wa alaqad yang bermaksud ahli yang memilih dan menjadikan raja pemerintahan kerajaan negeri dijalankan bersamasama majlis mesyuarat kerajaan keris panjang diraja terengganu sumber mohamed anwar omar din dan nik anuar nik mahmud dirgahayu tuanku sejarah kesultanan terengganu 17082008 kuala terengganu yayasan diraja sultan mizan 2011 hlm 1 panji diraja terengganu kesultanan selangor mengamalkan sistem perwarisan takhta waris ganti digelar raja muda pelantikan sultan juga atas nasihat dan pengesahan dewan diraja dewan diraja bertanggungjawab membantu dan menasihati sultan dalam menjalankan fungsi baginda antara anggota dewan ini termasuklah raja muda tengku laksamana dan tengku bendahara pemerintahan kerajaan negeri dijalankan bersamasama majlis mesyuarat kerajaan panji diraja selangor keris panjang beruk berayun sumber pertabalan dan kemahkotaan duli yang maha mulia sultan selangor keix shah alam lembaga muzium selangor 2007 hlm 39 sistem pembesar empat lipatan yang diamalkan dalam kesultanan melayu melaka diwarisi oleh kesultanan pahang perak terengganu dan selangor namun begitu sistem ini disesuaikan mengikut acuan dan keperluan setiap negeri 125agama islam dalam pemerintahan kesultanan melayu melaka terkenal sebagai pusat penyebaran agama islam tradisi keagamaan ini diwarisi oleh negerinegeri melayu yang lain islam menjadi agama utama di setiap negeri yang beraja malahan agama islam kini termaktub dalam perlembagaan malaysia sebagai agama persekutuan keutamaan agama islam dalam kesultanan pahang perak terengganu dan selangor dapat dilihat dengan jelas melalui perkara yang berikut sultan merupakan ketua agama bagi setiap negerinya kedudukan ini diperihalkan dengan jelas dalam perlembagaan persekutuan dan undangundang tubuh kerajaan negeri institusi agama berperanan penting di setiap negeri dan bidang kuasa mereka mestilah dihormati misalnya masjid negeri selangor merupakan peranan mufti kadi mahkamah syariah dan jabatan simbol agama negeri agama islam institusi kesultanan mempunyai ikatan yang rapat dengan institusi agama tokohtokoh agama berperanan dalam pentadbiran istana dan negeri misalnya di negeri selangor mufti merupakan anggota dewan diraja sultan juga bertanggungjawab dalam mendaulatkan syiar islam misalnya tauliah penceramah agama dikeluarkan oleh pejabat istana setelah ditandatangani oleh sultan agama menjadi panduan membentuk masyarakat yang bersahsiah dan berakhlak mulia amalan amalan beragama membawa agama islam dalam pemerintahan membuktikan kepada kesejahteraan negara kepentingan amalan beragama di negara ini bincangkan aktivitilawatan ke galeri gallery walk tengkolok sultan tengkolok sultan tengkolok sultan tengkolok sultan pahang perak terengganu selangor 1 secara berkumpulan murid akan membandingkan tengkolok diraja di setiap negeri 2 dengan bimbingan guru setiap kumpulan akan menghasilkan replika tengkolok diraja hasil tugasan dipamerkan di dalam kelas 3 setiap kumpulan akan berbincang hasil kerja rakanrakan yang lain 126perundangan undangundang digubal bagi mengawal kehidupan bermasyarakat hukum kanun melaka menjadi asas kepada kelahiran undangundang bertulis negerinegeri melayu yang lain seperti hukum kanun pahang dan undangundang 99 perak warisan hukum kanun melaka terbukti dalam fasalfasal berhubung peraturan dan larangan istana kekeluargaan islam jenayah hutangpiutang dan hukum jual beli hukum kanun pahang undangundang 99 perak digubal semasa pemerintahan sultan abdul digunakan semasa pemerintahan sultan ghafur muhaiyuddin syah 15921614 dan iskandar dzulkarnain 17521765 mengandungi 92 fasal berbentuk soal jawab mengandungi 99 soalan dan jawapan sumber pusat manuskrip melayu perpustakaan negara malaysia sumber pusat manuskrip melayu perpustakaan negara malaysia perkembangan politik dan sosioekonomi menyebabkan berlaku perubahan dalam aspek perundangan kesultanan pahang perak terengganu dan selangor menggubal pula undangundang tubuh kerajaan negeri bagi menyesuaikan perubahan tersebut undangundang yang dihasilkan melengkapkan lagi sistem pemerintahan dan sistem kesultanan sesebuah negeri oleh itu sebagai warganegara yang bertanggungjawab kita perlu mematuhi undangundang dan peraturan yang terdapat di negara ini cerna minda bincangkan kesan kepada masyarakat nyatakan nama undangundang jika sesebuah kerajaan tidak mempunyai bertulis kesultanan pahang dan sistem perundangan kesultanan perak 127aktivitikumpulan pelangi rainbow groups 1 muridmurid dibahagikan kepada empat kumpulan utama 2 setiap kumpulan akan berbincang dan mencari maklumat tentang kandungan undangundang tubuh negeri di bawah dengan menggunakan pelbagai sumber 3 selepas berbincang bina kumpulan yang baharu 4 setiap ahli kumpulan akan menyatakan hasil perbincangan daripada kumpulan asal kepada ahli kumpulan yang baharu secara bergilirgilir undangundang tubuh kerajaan pahang diperkenalkan pada 1 februari 1948 semasa pemerintahan sultan abu bakar undangundang tubuh kerajaan negeri perak diperkenalkan pada 1 februari 1948 semasa pemerintahan sultan abdul aziz almutasim billah undangundang bagi diri kerajaan negeri terengganu dikenali sebagai itqan almuluk bi tadil alsuluk diperkenalkan pada 2 november 1911 ketika pemerintahan sultan zainal abidin iii undangundang tubuh kerajaan selangor diperkenalkan pada 1 februari 1948 semasa pemerintahan sultan hishamudin alam shah alhaj 128adat istiadat adat istiadat ialah aturan dan perbuatan yang telah lazim dilakukan sejak sekian lama istiadat turut melibatkan upacara tertentu adat istiadat merupakan identiti dan keunikan warisan kesultanan melayu antara adat istiadat ini termasuklah adat keputeraan adat perkahwinan istiadat pertabalan istiadat pengurniaan darjah kebesaran dan istiadat pemakaman adat keputeraan adat perkahwinan adat ini melibatkan upacara majlis perkahwinan diraja melalui proses melenggang perut ketika kandungan adat istiadat yang tersusun meliputi berusia tujuh bulan untuk membetulkan merisik kedudukan bayi di dalam perut ibu bagi meminang memudahkan proses kelahiran bertunang bayi diperdengarkan azan sebaik sahaja berinai besar dilahirkan malam sebelum bercukur apabila majlis perkahwinan putera atau puteri khatam alquran berusia tujuh hari pernikahan berendoi iaitu persandingan dan meletakkan bayi di istiadat persandingan bertepung tawar dalam buaian dan diraja di atas pelamin diperdengarkan santap beradab alunan marhaban buaian untuk adat bersiram di atas berendoi bayi panca persada adat istiadat yang diamalkan oleh kesultanan istiadat pemakaman pahang perak terengganu dan selangor istiadat ini meliputi merupakan warisan yang disesuaikan daripada tempoh berkabung bergantung pada pihak istana kesultanan melayu melaka keunikan adat ini pihak istana memberikan sedekah kepada rakyat menjadi lambang kedudukan yang istimewa dalam tempoh perkabungan golongan diraja dan institusi kesultanan melayu usungan disediakan untuk mengangkat jenazah adat istiadat ini juga merupakan warisan budaya ke tempat perkaman dikenali sebagai seraja melayu yang sangat bernilai dan wajar dipelihara diraja setelah jenazah dimakamkan nobat tidak akan tahukah anda dimainkan untuk tempoh tertentu tempoh perkabungan bergantung pada setiap negeri dan kemangkatan rajaraja tertentu contohnya tempoh perkabungan seraja diraja yang ditetapkan oleh kerajaan negeri sedang diarak ke tempat selangor semasa kemangkatan sultan pemakaman salahuddin abdul aziz shah pada tahun 2001 adalah untuk tempoh 40 hari kerajaan negeri perak pula mengumumkan tempoh cerna minda perkabungan semasa kemangkatan sultan azlan muhibbudin shah pada tahun 2014 nyatakan adatadat yang dilaksanakan secara selama 100 hari tertib dalam sesebuah perkahwinan diraja 129persuratan tradisi persuratan kesultanan melayu melaka diwarisi oleh negerinegeri melayu yang lain antara persuratan negeri pahang perak terengganu dan selangor yang masyhur termasuklah karya sejarah agama perubatan dan sastera rakyat karya sejarah karya perubatan hikayat pahang dikarang kitab tib disalin oleh haji mahmud oleh haji muhammad aljawi di terengganu pada tahun 1819 nor mengisahkan sejarah kesultanan pahang abad ke19 hikayat pahang kitab tib misa melayu dikarang oleh sumber koleksi mardiana nordin 2017 raja chulan mengisahkan sejarah kesultanan perak abad ke18 sastera rakyat misa melayu hikayat sang kancil cerita teladan syair tawarikh zainal abidin dan jenaka yang berasaskan manuskrip ketiga karangan tengku hikayat pelandok jenaka dibukukan dalam kalthum mengisahkan oleh daeng abdul hamid dari perak sejarah kesultanan terengganu karya ini mengandungi 20 buah cerita abad ke19 dan ke20 hikayat syair tawarikh pelandok zainal abidin jenaka ketiga hikayat isma yatim dibukukan oleh kenangkenangan selangor tengku ampuan mariam permaisuri dikarang oleh wan muhamad terengganu amin mengisahkan sejarah kesultanan selangor abad kenangkenangan ke19 dan ke20 selangor sumber koleksi mardiana nordin 2017 kepelbagaian jenis karya yang ditulis menunjukkan berkembangnya pengetahuan hikayat isma yatim masyarakat dan kesedaran untuk memelihara sumber koleksi mardiana nordin 2017 warisan kesultanan melayu perkembangan tradisi persuratan ini turut memperkukuh apakah jenisjenis karya persuratan kedudukan bahasa melayu dan penggunaan yang dihasilkan oleh masyarakat tulisan jawi negara kita hari ini 130ekonomi kegemilangan sistem ekonomi kesultanan melayu melaka telah diteruskan oleh kesultanan pahang perak terengganu dan selangor sehingga membawa kepada kemakmuran kesultanan masingmasing pelabuhan mata wang aktiviti perdagangan dijalankan melalui negeri perak terkenal dengan mata pelabuhan kesultanan perak dan selangor wang bongkah timah yang dinamakan memiliki kelebihan kedudukan yang strategik bidor sejak abad ke17 di selat melaka pelabuhan kuala selangor dan mata wang pitis yang diperbuat pangkalan batu di selangor serta pelabuhan daripada timah digunakan di pahang kuala sungai perak menjadi pusat perdagangan mulai pemerintahan sultan muhammad yang aktif pada abad ke17 hingga ke19 shah manakala mata wang tampang antara hasil dagangan utama termasuklah digunakan pada abad ke19 bijih timah kuala terengganu pula merupakan di terengganu sultan zainal abidin i pelabuhan entrepot pada abad ke18 barang memperkenalkan mata wang berupa yang didagangkan di pelabuhan ini ialah emas kupang emas selain itu terdapat mata bijih timah kain sutera senjata gula dan hasil wang pitis hutan di selangor turut ditemukan mata pelabuhan tersebut diuruskan oleh syahbandar wang syiling yang digunakan semasa dan pegawai pelabuhan yang lain sistem cukai pemerintahan sultan ibrahim shah yang cekap dilaksanakan bagi memastikan perdagangan berjalan lancar mata wang tampang sumber historical roots of islamic finance in malaysia ekonomi sara diri dan jual beli from the pre islamic era until ekonomi sara diri seperti pertanian penternakan 1983 kuala lumpur isra dan maybank islamic 2014 perlombongan mengutip hasil hutan dan hlm 43 perikanan dijalankan bagi menampung keperluan harian dan lebihannya untuk dijual perlombongan bijih timah merupakan kegiatan ekonomi yang utama di selangor dan perak kesultanan melayu melaka masyarakat di selangor juga mengusahakan mewariskan banyak aspek dalam tanaman padi dan tanaman sampingan seperti kehidupan masyarakat kesultanan buahbuahan dan sayursayuran manakala pahang perak terengganu dan masyarakat di perak merupakan antara selangor pula memelihara warisan tersebut dan memperkayakannya pengusaha utama hasil hutan seperti rotan sehingga membentuk identiti negara sumbu badak dan kayukayan pada abad ke17 yang menjadi kebanggaan rakyat dan ke18 pada abad ke18 negeri terengganu hari ini mengusahakan tanaman lada hitam dan perlombongan emas tanaman padi di selangor sumber cheah jin seng selangor 300 early postcards kuala lumpur editions didier millet 2011 hlm 175 131imbas kembali kesultanan melayu pahang perak terengganu dan selangor kesultanan pahang pengasasan kesultanan kesultanan perak pahang perak kesultanan terengganu terengganu dan selangor kesultanan selangor sistem pemerintahan warisan agama islam dalam kesultanan pemerintahan melayu melaka di perundangan pahang perak terengganu dan adat istiadat selangor persuratan ekonomi bab ini telah membincangkan pengasasan kesultanan melayu pahang perak terengganu dan selangor keempatempat negeri ini merupakan kelangsungan daripada kesultanan melayu melaka pemahaman terhadap perbincangan bab ini dapat menjadikan kita sebagai warganegara yang mentaati raja dan pemimpin serta berbangga dengan warisan negara keunikan sistem kesultanan yang dapat dilihat di negeri tersebut turut dimiliki oleh negeri melayu lain seperti kedah kelantan negeri sembilan dan perlis yang akan dibincangkan pada bab seterusnya 132pemahaman dan pemikiran kritis 1 pengasasan kesultanan terengganu berkait rapat dengan kesultanan johor riau antara berikut yang manakah berkaitan dengan pernyataan di atas a pembesar wakil pemerintah johor riau b waris raja patani yang menguasai johor riau c putera sultan johor riau berketurunan laksamana d keluarga diraja daripada susur galur bendahara johor riau 2 siapakah dua orang pembesar tempatan yang memohon pertabalan waris kesultanan melayu melaka sebagai sultan perak i tun saban ii tok temong iii raja muzaffar iv nakhoda kassim a i dan ii b ii dan iii c iii dan iv d i dan iv 3 kesultanan selangor diasaskan pada tahun 1766 antara berikut yang manakah berkaitan dengan pernyataan di atas a pemerintah tempatan yang diiktiraf b pembesar yang dilantik oleh sultan johor c putera bugis yang memenangi peperangan d pertabalan kerabat bugis oleh sultan perak 4 gambar menunjukkan istana maziah terengganu dahulu dan kini berdasarkan gambar di atas jawab soalan yang berikut a apakah peranan istana b senaraikan bandar diraja di negara kita c bincangkan kepentingan memelihara dan memulihara istana diraja 133pemahaman dan pemikiran kritis 5 susun peristiwa berikut dengan mencatatkan nombor 1 hingga 5 mengikut kronologi sultan zainal abidin i mendirikan pusat pemerintahan terengganu di tanjung baru kuala berang undangundang bagi diri kerajaan terengganu yang dikenali sebagai itqan almuluk bi tadil alsuluk digubal raja zainal dijadikan anak angkat oleh raja patani yang digelar nang chayam tun zainal abidin mengasaskan kesultanan terengganu pada tahun 1708 dengan gelaran sultan zainal abidin i tun zainal abidin berangkat ke terengganu diiringi oleh 80 orang keluarga patani 6 tradisi persuratan pahang perak terengganu dan selangor diwarisi sejak kesultanan melayu melaka berdasarkan maklumat di atas jawab soalan yang berikut a senaraikan jenis karya persuratan tersebut b apakah kepentingan karya sastera rakyat c pada pendapat anda bagaimanakah karya penulisan di negara kita dapat dibawa ke peringkat antarabangsa 7 lihat peta negeri pahang perak terengganu dan selangor di bawah a labelkan pusat pemerintahan terawal setiap kesultanan b pada pendapat anda mengapakah pusatpusat pentadbiran kerajaan melayu sentiasa siam berubah perlis c cadangkan strategi lain yang boleh digunakan untuk memantapkan pentadbiran kerajaan kedah terengganu kelantan perak lautchinaselatan pahang selat selangor melaka negeri 134 sembilan melaka johor singapuracakna dan cerminan sejarah nilai patriotisme dan iktibar apabila mengetahui sejarah pengasasan kesultanan melayu kita dapat menghargai warisan tradisi dan budaya bangsa pengetahuan sejarah pengasasan dan warisan kesultanan melayu dapat mengukuhkan jati diri bangsa kita harus bertanggungjawab mempertahankan warisan kesultanan melayu untuk memelihara identiti negara bangsa kita diri dan keluarga negara kita perlu memahami salasilah keluarga kita akan bersifat lebih terbuka setelah supaya kita bertanggungjawab dan mengetahui sejarah kesultanan melayu mengukuhkan ikatan kekeluargaan demi tersebut oleh itu secara tidak langsung maruah keluarga dapat memupuk perasaan sayang terhadap negara dan sentiasa berusaha untuk mempertahankan kedaulatan negara istana negara merupakan kediaman rasmi yang dipertuan agong yang menjadi simbol pengekalan sistem beraja yang diwarisi daripada sistem kesultanan negerinegeri melayu sumber koleksi dbp 2015 135bab8 kerajaan kedah kelantan negeri sembilan dan perlis istana anak bukit kedah sinopsis kegemilangan kerajaan alam melayu turut diwarisi menerusi pengasasan kerajaan kedah kelantan negeri sembilan dan perlis kerajaankerajaan ini diasaskan dalam tempoh masa yang berbezabeza dan mempunyai sejarah yang tersendiri kerajaankerajaan ini juga menjalinkan hubungan diplomatik dan perdagangan dengan negeri melayu yang lain istana lama seri menanti negeri sembilan kebijaksanaan pemerintah menghadapi cabaran sejak pengasasannya telah membolehkan setiap kerajaan ini berkembang makmur dan stabil apakah yang akan anda pelajari 1 memerihalkan pengasasan kerajaan kedah kelantan negeri sembilan dan perlis 2 menerangkan hubungan kerajaan kedah kelantan negeri sembilan dan perlis dengan negerinegeri melayu yang lain istana arau perlis sumber koleksi dbp 2017 113366</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bab  Kerajaan Kedah Kelantan Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dan Perlis </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menerangkan kepentingan menghargai pengasasan kerajaankerajaan melayu 2 menilai kepentingan menjaga hubungan baik dengan negara lain istana balai besar kelantan kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi pengasasan kerajaan kedah kelantan negeri sembilan dan perlis 2 meneroka bukti pengasasan kerajaan kedah kelantan negeri sembilan dan perlis 3 membuat interpretasi asas hubungan kerajaan kedah kelantan negeri sembilan dan perlis dengan negerinegeri melayu yang lain 4 membuat imaginasi bentuk hubungan antara kerajaan kedah kelantan negeri sembilan dan perlis dengan negerinegeri melayu yang lain 5 membuat rasionalisasi hubungan kerajaan kedah kelantan negeri sembilan dan perlis dengan negerinegeri melayu yang lain 11337781 pengasasan kerajaan kedah kelantan negeri sembilan dan perlis pengenalan pengasasan kerajaan kedah kelantan negeri sembilan dan perlis merupakan penerusan kegemilangan kerajaankerajaan alam melayu kerajaan kedah merupakan kerajaan terawal diasaskan di negara kita manakala kerajaan kelantan negeri sembilan dan perlis diasaskan setelah berakhirnya kesultanan melayu melaka kerajaan kedah gunung jerai kerajaan kedah diasaskan oleh keturunan sungai mas raja yang datang dari parsi maharaja derbar raja dari kuala parsi datang ke kuala sungai sungai merbok kedah pada sekitar merbok tahun 630 m ilustrasi kawasan kuala sungai merbok tempat tan dermadewa dan tun kedatangan maharaja derbar raja perkasa ketua orang melayu sumber adaptasi daripada replika kawasan lembah bujang muzium arkeologi lembah bujang kedah di kedah telah menghadap dan melantik maharaja derbar raja menjadi raja kedah spisetemma spyehmuerrainnt ahmana hbaerraajjaa did keerdbaahr berrmajual a dengan kedatangan maharaja derbar raja dari sebagai raja kedah telah disusuli dengan parsi ke kuala sungai merbokkedah yang pengiktirafan alat kebesaran yang dibawa ketika itu dikenali sebagai qalha pada sekitar dari parsi iaitu nobat kini nobat diwarisi tahun 630 masihi sebagai antara alat kebesaran kerajaan kedah tahukah anda menurut sumber arkeologi aktiviti baginda kemudiannya telah membina pusat perdagangan di pelabuhan sungai kerajaan di sungai mas mas kedah bermula sejak abad kelima cerna minda dua sumber utama pengasasan kerajaan kedah ialah apakah alat kebesaran diraja yang diiktiraf naskhah altarikh salasilah bersamasama pertabalan raja kedah yang negeri kedah yang mencatatkan pertama pengasas pertama dari parsi naskhah hikayat merong aktiviti mahawangsa yang mencatatkan laungan shout pengasas pertama daripada keturunan rom sarjana berdasarkan pelbagai sumber secara berkumpulan berpendapat rom ialah parsi anda diminta untuk mengumpulkan maklumat tentang pada masa tersebut nama lain bagi kedah dan menyatakannya secara lisan 138</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bab  Kerajaan Kedah Kelantan Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dan Perlis </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>kawasan pemerintahan kerajaan kedah berkembang menerusi pembukaan kota atau pusat pentadbiran baharu setelah seseorang pemerintah menaiki takhta tindakan ini juga merupakan strategi dalam menghadapi ancaman dari dalam dan dari luar kota siputih telah dibuka oleh tunku ahmad raja muda pada tahun 1282 bertujuan untuk menghadapi ancaman daripada siam dan acheh di utara kota siputih kemudiannya dijadikan tempat bersemayam oleh sultan kedah yang keenam sultan ibrahim 13211373 sultan muhammad jiwa zainal adilin muadzam shah ii sultan kedah ke19 17101778 merupakan antara pemerintah yang masyhur baginda telah mengasaskan alor setar yang kemudiannya diisytiharkan sebagai ibu negeri kedah u kedudukan kuala sungai merbok yang menghala ke selat melaka dan perlis gunung jerai iaitu puncak tertinggi di kedah telah menarik kehadiran pulau kota siputih langkawi kota sena pedagang kawasan tumpuan pedagang kota indera kayangan ini membolehkan kedah menjadi pusat perdagangan dan muncul sebagai kota naga sebuah negeri yang makmur kerajaan kedah yang diasaskan alor setar pada sekitar abad ketujuh kekal kedah hingga kini menerusi penggantian pemerintah daripada jurai keturunan kota bukit selat pinang pengasasnya melaka gunung jerai bukit meriamkota sungai mas kerajaan kedah petunjuk kota pentadbiran kerajaan kedah bagaimanakah kedah muncul sebagai pusat perdagangan peta lokasi kota pentadbiran kerajaan kedah yang makmur sumber adaptasi daripada ahmad sarji the rulers of malaysia singapura editions didier millet 2011 hlm 24 aktivitipenulisan pantas rocket writing balai besar kedah dibina pada tahun 1735 bersempena dengan pengisytiharan alor setar sebagai ibu negeri kedah dalam tempoh lima minit anda diminta untuk menyenaraikan binaan lain yang dibina sebagai tanda peringatan sesuatu peristiwa penting di negara kita 139kerajaan kelantan kelantan merupakan sebuah wilayah yang pernah dikuasai dan bergabung dengan kerajaan patani pengasasan kerajaan kelantan merupakan hasil daripada penyatuan dua wilayahnya oleh putera pemerintah tempatan kelantan merupakan sebahagian daripada negara patani besar yang diasaskan oleh raja sakti i pada tahun 1650 pathalung singgora patani pangkalan datu kemangkatan pemerintah terakhir kuala terengganu negara patani besar iaitu raja bahar selat pada tahun 1670 menyebabkan melaka kelantan berpecah kepada dua wilayah pemerintahan petunjuk negara patani besar kelantan barat kelantan timur peta wilayah negara patani besar yang berpusat di kota berpusat di kota dibangunkan oleh raja sakti i dari tahun 1650 kubang labu pangkalan datu hingga tahun 1670 sumber adaptasi daripada abdul razak mahmud ikhtisar sejarah kelantan kota bharu pustaka aman press 2002 hlm 14 long yunus putera pemerintah di kota kubang labu telah berjaya menyatukan tahukah anda keduadua wilayah ini dan mengasaskan kerajaan kelantan pada tahun 1762 baginda negara patani besar meliputi gabungan menaiki takhta dengan gelaran yang wilayah terengganu patani singgora dan dipertuan kelantan baginda mendapat pathalung pusat pentadbirannya adalah pengiktirafan daripada sultan terengganu di kota pangkalan datu pemerintahan kerajaan ini juga dikenali sebagai keluarga diraja jembal dan bertahan hingga penghujung abad ke17 pada tahun 1777 baginda telah memindahkan pusat pentadbiran ke kota galoh di timur tebing sungai kelantan baginda juga telah bagaimanakah pemerintah mengarahkan pembinaan masjid kampung menghadapi cabaran dalam laut yang merupakan simbol pentadbiran mengekalkan kemakmuran islam di kelantan negara 140sultan muhammad ii 18371886 merupakan antara pemerintah yang masyhur baginda telah mengasaskan kota bharu sebagai pusat pemerintahan pada tahun 1844 istana balai besar telah dibina sebagai tempat bersemayam dan pentadbiran kerajaan kelantan baginda telah menguatkuasakan undangundang syarak kesannya kelantan menjadi negeri yang aman kelantan juga makmur sebagai pusat perdagangan yang menjadi tumpuan para pedagang dari negara jiran dan negeri melayu yang lain keturunan long yunus telah mewarisi pemerintahan kerajaan kelantan hingga kini tahukah anda legenda pemerintahan raja perempuan dalam kerajaan kelantan kerajaan che siti wan kembang kelantan memerintah wilayah tebing sungai lebir yang kini dikenali sebagai kampung chali pada awal abad ke17 kijang yang merupakan binatang kesayangan baginda telah dijadikan sebagai antara simbol pemerintahan kerajaan kelantan wang emas kelantan semasa puteri saadong pemerintahan che siti wan kembang memerintah wilayah di kota jelasin sumber siri cintai malaysia negeri pada tahun 1667 yang kini dikenali kelantan darul naim kuala lumpur sebagai kampung kota penerbitan seri utama 1987 hlm 14 baginda pernah ditawan dan dibawa ke siam sumber abdul razak mahmud ikhtisar sejarah cerna minda kelantan kota bharu pustaka aman press sdn bhd 2002 hlm 12 bagaimanakah long yunus mengasaskan kerajaan kelantan yang kekal hingga kini aktivitisaya lihat saya fikir saya bertanya i see i think i wonder secara berkumpulan berdasarkan gambar di sebelah lakukan aktiviti yang berikut a ceritakan apakah yang anda lihat b bincangkan peranan istana c bagaimanakah kita dapat memelihara dan memulihara warisan seni bina istana lama d bandingkan ciriciri binaan istana pada masa dahulu dengan masa ini istana balai besar kelantan sumber siri cintai malaysia negeri kelantan darul naim kuala lumpur penerbitan seri utama 1987 hlm 11 141kerajaan negeri sembilan laut china kehadiran masyarakat minangkabau selatan ke beberapa wilayah di negeri sembilan telah membawa kepada pengasasan kerajaan negeri sembilan oleh raja melewar sel at negeri sembilan pada asalnya merupakan m el negeri naungan kesultanan johor riau ak sembilan a smeijnakan agwkaalb aauba dy akneg1 5b emraassayla rdakaarti lhainudtian m i siak n a n sumatera telah merantau dan mendiami g beberapa wilayah di negeri sembilan k padanga b a u pada tahun 1770 empat penghulu luak terdiri daripada sungai ujong jelebu johol dan rembau telah menghantar utusan untuk menjemput anak raja minangkabau di sumatera bagi peta menunjukkan kedatangan masyarakat minangkabau dirajakan di negeri sembilan ke wilayah di negeri sembilan sejak awal abad ke15 sumber adaptasi daripada abd rahman ali n rajendra dan v rajendra tawarikh dunia baru buku satu kuala lumpur longman malaysia sdn bhd 1982 hlm 106 raja minangkabau bersetuju mengutuskan raja melewar sebagai pemerintah di negeri sembilan raja melewar mengasaskan kerajaan negeri sembilan yang berpusat di seri menanti pada tahun 1773 baginda memakai gelaran yamtuan seri menanti dan mendapat pengiktirafan daripada pemerintah kesultanan johor riau makam raja melewar dan permaisuri tahukah anda di kampung astana raja rembau sumber koleksi dbp 2017 nama negeri sembilan merujuk persekutuan sembilan buah negeri dalam istilah minangkabau yang membawa pengertian kawasan atau daerah cerna minda sembilan buah negeri tersebut ialah sungai ujong jelebu jempol johol rembau tampin ulu muar ceritakan kembali proses pengasasan inas dan gunung pasir kerajaan negeri sembilan 142yamtuan antah 18721888 merupakan antara pemerintah yang masyhur baginda berusaha menjamin keamanan negeri daripada campur tangan kuasa luar jelebu kestabilan pemerintahan membolehkan negeri sembilan memperluas hubungan jempol perdagangan dengan kerajaan lain ulu muar tradisi melantik pemerintah dari minangkabau seri berakhir dengan kemangkatan yamtuan sungai ujong menanti gupnausnirg inas johol lenggang pertabalan yamtuan radin putera yamtuan lenggang pada tahun 1830 rembau menandakan bermulanya sistem penggantian selat tampin waris pemerintah tempatan daripada keturunan melaka yamtuan radin namun begitu kuasa memilih yamtuan peta menunjukkan persekutuan sembilan daerah kekal ditentukan oleh undang yang empat atau negeri pada peringkat awal dalam kerajaan iaitu sungai ujong jelebu johol dan rembau negeri sembilan seri menanti kekal menjadi tempat sumber adaptasi daripada ahmad sarji ed the rulers of malaysia singapura editions didier millet bersemayam yamtuan besar negeri 2011 hlm 55 sembilan hingga kini manakala istana di seremban merupakan istana hinggap aktivitistesen berputar rotating stations gambar menunjukkan istana seri menanti negeri sembilan dan keratan rentasnya anjung singgahsana 1 gambar ini diletakkan di stesen pertama dan stesen kedua dengan dicerakinkan soalan yang berbezabeza iaitu a nyatakan keunikan seni bina bangunan ini stesen pertama b apakah fungsi anjung dan singgahsana dalam binaan tersebut stesen kedua 2 bandingkan fungsi anjung rumah tradisional dengan rumah moden stesen ketiga 3 murid bersiap sedia di stesen yang ditetapkan oleh guru 4 dalam tempoh 10 minit murid menjawab soalan yang diberikan apabila masa tamat murid akan bergerak ke stesen berikutnya sehingga selesai 5 setiap kumpulan diberikan pen warna yang berbezabeza untuk menulis jawapan 143kerajaan perlis sejarah pembentukan kerajaan perlis melibatkan pengaruh kedah dan siam pelantikan syed hussin jamalullail sebagai pemerintah merupakan asas kepada pembentukan kerajaan perlis pada peringkat awal perlis merupakan sebahagian daripada wilayah kedah sultan kedah iaitu sultan muhyiddin mansur shah sultan dhiauddin mukarram shah i dan sultan dhiauddin mukarram shah ii telah menjadikan perlis sebagai pusat pemerintahan kerajaan sultan muhyiddin mansur shah sultan kedah ke14 16511661 telah membina kota sena yang menjadi asas kepada perkembangan bandar kangar sultan dhiauddin mukarram shah i sultan kedah ke15 16611688 telah mengasas dan membangunkan kota kayang yang merangkumi kawasan pelabuhan kuala perlis dan kota keran baginda mangkat pada tahun 1688 dan dimakamkan di kota kayang perlis sultan dhiauddin mukarram shah ii sultan kedah ke21 1798 1804 membangunkan kota kayang ii semasa menjadi raja muda membentuk mukim arau dengan melantik syed harun jamalullail sebagai penghulu pada tahun 1798 setul semasa di bawah pengaruh siam pada tahun siam 1839 wilayah kedah dipecahkan kepada perlis empat unit pentadbiran iaitu setul perlis kubang pasu dan kedah perlis ditadbir oleh syed hussin jamalullail kubang pasu pada tahun 1843 siam mengiktiraf syed selat hussin jamalullail sebagai pemerintah negeri kedah melaka perlis dengan gelaran phya songkhram ramu wichit willis asmara phya pelit peta menunjukkan negeri naungan siam syed hussin jamalullail telah menjadikan sumber adaptasi daripada ahmad ismail dan yazid arau sebagai pusat pentadbiran mat perlis indera kayangan sejarah pembentukan sebuah negeri berdaulat perlis perbadanan perpustakaan awam negeri perlis 1992 hlm vii 144muzium kota kayang perlis tempat yang menyimpan sejarah negeri perlis sumber koleksi ahmad salehee abdul 2017 pelantikan syed hussin jamalullail sebagai pemerintah menjadikan perlis sebagai sebuah negeri berdaulat keturunan jamalullail yang bergelar syed memerintah kerajaan perlis hingga kini dengan gelaran raja perlis cerna minda siapakah sultan kedah yang dimakamkan di kota kayang perlis replika bunga emas perlis sumber muzium kota kayang kangar kps tahukah anda pada masa yang sama sebenarnya raja dan pembesar perlis telah melancarkan satu gerakan wilayah setul kemudiannya telah berlumbalumba dan bersaing dengan sultan diserapkan sebagai wilayah siam kedah dalam menyemai perasaan baik dan mesra manakala kubang pasu kembali maharaja dan istana siam terhadapnya dari menjadi sebahagian wilayah kedah tahun 1841 hingga 1909 kerajaan perlis telah pada tahun 1859 menghantar tidak kurang daripada dua puluh bunga emas setiap tiga tahun kepada siam bunga mas emas merupakan sumber julie tang su chin sejarah kerajaan perlis sepohon bunga emas dan perkakas 18411957 dlm mbras 2002 hlm 95 pengiring dengan kadar yang ditentukan oleh pihak raja dan berdasarkan pernyataan di atas kerajaan siam bunga mas dihantar a buat intepretasi anda tentang bunga emas ke bangkok setiap tiga tahun sebagai b rasionalkan tindakan pemerintah dalam tanda persahabatan dan menjamin penghantaran bunga emas tersebut keselamatan 14582 hubungan kerajaan kedah kelantan negeri sembilan dan perlis dengan negerinegeri melayu yang lain pengenalan kedah kelantan negeri sembilan dan perlis telah muncul sebagai kerajaan yang berdaulat setiap kerajaan ini telah berusaha memantapkan pemerintahan masingmasing dengan menjalinkan hubungan dengan negerinegeri melayu yang lain hubungan tersebut terjalin dalam aspek diplomatik dan perdagangan terdapat tiga asas hubungan ini iaitu keserumpunan geografi dan agama asas hubungan tujuan pada peringkat awal pengasasan setiap kerajaan menjalinkan hubungan luar kerana hendak memperkukuh kedaulatan pemerintah telah menghantar utusan ke negeri melayu yang lain bagi mendapatkan pengiktirafan kedaulatan kerajaan kestabilan dalam negeri kemudiannya mendorong pemerintah berusaha menjalinkan hubungan luar untuk kemakmuran negeri 1 keserumpunan persamaan dalam aspek bahasa dan budaya mendorong wujud hubungan dengan negerinegeri melayu yang lain persamaan ini memudahkan interaksi sesama kerajaan setiap kerajaan bersikap toleransi dalam menerima amalan budaya kerajaan lain ilustrasi menggambarkan rombongan utusan diraja kerajaan negeri melayu ke negeri yang lain sumber adaptasi daripada ahmad sarji ed the rulers of malaysia singapura editions didier millet 2011 hlm 50 cerna minda bagaimanakah aspek keserumpunan mewujudkan hubungan antara sesebuah negeri dengan negeri melayu yang lain 146</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bab  Kerajaan Kedah Kelantan Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dan Perlis dengan Negerinegeri Melayu yang Lain </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2 geografi sempadan antara negeri yang berjiran memudahkan perhubungan antara tarikan perhubungan termasuklah hasil sumber alam dan sumber bumi sungai penting sebagai laluan perhubungan yang dikongsi secara bersamasama antara pangkalan alor tok pasai merupakan laluan negeri perdagangan pelabuhan kuala kedah kepentingan sungai ini mendorong setiap sumber kedah duludulu kedah perbadanan negeri berusaha menjamin keselamatan perpustakaan awam kedah 2003 hlm 76 laluan tersebut pembentukan pelabuhan di pinggir sungai telah menggalakkan hubungan dengan negeri berjiran dan kuasa luar negeri sembilan 3 linggi tanjung s agas melaka agama selat berlaku melalui penerimaan islam oleh melaka kualalinggi pemerintah diperkukuhkan dalam kegiatan keagamaan peta menunjukkan sungai linggi yang merupakan menerusi peranan ulama laluan penting perhubungan dan perdagangan serta berkongsi institusi pendidikan agama kawasan pungutan cukai kerajaan negeri sembilan menerusi kehadiran penuntut dari pelbagai sumber abd rahman ali n rajendra dan v rajendra tawarikh dunia baru buku satu kuala wilayah lumpur longman malaysia sdn bhd 1982 hlm 107 apakah kepentingan sungai kepada negara pada hari ini pembinaan masjid kampung laut di tebing sungai bangunan asal masjid kampung laut kini telah kelantan membantu usaha penyebaran islam dalam dipindahkan ke nilam puri dan terus dipelihara kalangan masyarakat tempatan dan pedagang luar dan dipulihara sumber koleksi dbp 2017 glosari sumber alam sesuatu yang diperoleh daripada tanah serta usaha yang dilakukan bagi memenuhi keperluan kehidupan contoh sumber alam ialah tanaman padi sumber bumi hasil galian seperti bijih timah 147hubungan diplomatik kerajaan kedah kelantan negeri sembilan dan perlis telah menjalinkan hubungan diplomatik dengan negerinegeri melayu yang lain hubungan diplomatik dijalinkan menerusi pengiktirafan kerajaan melayu yang lain bantuan pertahanan dan perkahwinan diraja cara jalinan hubungan diplomatik 1 pengiktirafan pengiktirafan bertujuan mengabsahkan sultan sebagai pemerintah hal ini mewujudkan hubungan antara kerajaan berdaulat yang mempunyai taraf yang sama 2 pertahanan pada abad ke15 sultan mahmud shah pemerintah kesultanan melayu pertahanan merupakan aspek penting melaka telah mengiktiraf kerajaan dalam memastikan kelangsungan sesebuah kedah sebagai kerajaan yang kerajaan hubungan pertahanan yang berdaulat manakala kerajaan kedah diwujudkan dapat mengekalkan kedaulatan mengakui pertuanan sultan melaka sesebuah kerajaan daripada campur tangan pada tahun 1775 sultan terengganu kuasa lain telah mengiktiraf kerajaan kelantan yang telah disatukan di bawah long yunus mendapat bantuan ketenteraan pemerintahan long yunus daripada kerajaan terengganu dan kerajaan reman di hulu perak dalam usaha untuk menyatukan kelantan pelantikan long gaffar dari kerajaan reman sebagai perdana menteri kelantan merangkap panglima perang peta telah membantu mengekalkan keamanan kerajaan di kelantan reman glosari mengabsahkan mengesahkan pelantikan seseorang sebagai pemerintah 1483 perkahwinan perkahwinan diraja antara sesebuah kerajaan merupakan amalan tradisi kerajaan negerinegeri melayu perkahwinan diraja akan mengukuhkan hubungan dan menjamin kedaulatan sesebuah kerajaan onang kening iaitu puteri kelantan dikahwinkan dengan sultan mahmud shah dari melaka hasil perkahwinan ini melahirkan raja muzaffar yang kemudiannya menjadi sultan perak yang pertama che ku wan iaitu puteri long yunus dikahwinkan dengan tengku muhammad putera sultan terengganu raja perlis iaitu raja syed hussin berkahwin dengan tengku nor asiah iaitu cucunda kepada sultan abdullah mukarram shah sultan kedah ke20 cerna minda bagaimanakah hubungan perkahwinan diraja dapat menjamin kedaulatan sesebuah kerajaan bagaimanakah sesebuah kerajaan dapat menjalinkan hubungan diplomatik pada masa ini singgahsana yang menjadi tempat persandingan pasangan diraja sumber koleksi dbp 2016 aktiviti kajian kes kedai kopi cafe seperti di kafe murid duduk secara berkumpulan di sebuah meja guru meletakkan tajuk perbincangan di tengahtengah meja tersebut iaitu hubungan diplomatik penting kota lukut dalam memastikan keselamatan dan negeri kelangsungan sesebuah kerajaan sembilan secara berkumpulan murid akan pertahanan menjadi asas kepada kelangsungan membincangkan tajuk ini sesebuah kerajaan buktikan 149hubungan perdagangan kerajaan kedah kelantan negeri sembilan dan perlis juga menjalinkan hubungan perdagangan dengan negerinegeri melayu yang lain hubungan perdagangan dijalinkan menerusi pembinaan pelabuhan dan hasil perdagangan tempatan 1 pelabuhan hubungan antara kerajaan berlaku melalui aktiviti perdagangan di pelabuhan pelabuhanpelabuhan ini menjadi asas kepada pembentukan hubungan dengan pedagang tempatan seperti melaka perak dan johor serta pedagang luar dari siam china arab dan kemboja kedah pangkalan lembah bujang pangkalan kuala merbok terletak di sungai merbok pangkalan kuala muda di sungai muda sultan muhammad jiwa 14721506 telah memperkemaskan penggunaan mata wang kedah di pelabuhan kelantan pangkalan galoh yang bermaksud pangkalan permata dibina di sungai kelantan menggunakan mata wang logam dinar dalam urusan perdagangan sejak tahun 1181 perlis pelabuhan kuala perlis di sungai perlis pekan kangar yang terletak di pertemuan cabang anak sungai perlis menjadi tempat pangkalan kuala merbok pertemuan pedagang sumber kedah duludulu kedah perbadanan perpustakaan negeri sembilan awam kedah 2003 hlm 90 pangkalan di sungai linggi pedagang rembau menguasai aktiviti perdagangan dengan pedagang luar perahu sagor diperbuat daripada batang balak yang ditebuk dan kegiatan digunakan bagi membawa hasil ekonomi dagangan tempatan ke pelabuhan negeri lembah bujang kedah melayu sumber muzium arkeologi lembah bujang kedah 1502 barang dagangan kekayaan hasil bumi dan kepelbagaian jenis barang dagangan menjadi tarikan pedagang tempatan dan dari luar alam melayu keperluan terhadap barang dagangan ini mendorong berlakunya hubungan perdagangan antara kerajaan kedah kedah memperdagangkan beras garam damar kapur barus dan beras emas urai manakala pedagang dari perak dan melaka membawa barang dagangan seperti arang kayu papan dan ikan kering kedah juga merupakan pembekal gading dan gajah bagi perdagangan entrepotnya kelantan kelantan memperdagangkan emas dan dikunjungi oleh pedagang dari dalam dan luar kepulauan melayu perlis arang kayu perlis memperdagangkan beras dan bijih timah dengan negeri jiran dan siam negeri sembilan negeri sembilan memperdagangkan bijih timah sirih kayu gaharu dan kapur barus dengan johor dan melaka bijih timah kerajaan kedah kelantan negeri sembilan dan perlis telah menjalin hubungan diplomatik dan perdagangan dengan negerinegeri melayu yang lain hubungan diplomatik ini telah menjamin kedaulatan kerajaankerajaan ini kekal hingga kini hubungan perdagangan pula telah menyumbang kepada kemakmuran dan perkembangan kerajaan aktivitidrama dramatisation secara berkumpulan lakonkan aktiviti urusan jual beli barang dagangan utama setiap kerajaan ini aktiviti kmd secara berkumpulan lakarkan bentuk mata wang dan barang keperluan pada masa dahulu masa ini dan masa hadapan perkara masa dahulu masa ini masa hadapan mata wang barang keperluan 151imbas kembali kerajaan kedah kelantan negeri sembilan dan perlis kerajaan kedah kerajaan kelantan pengasasan kerajaan negeri sembilan kerajaan perlis hubungan diplomatik hubungan kerajaan kedah kelantan negeri sembilan dan perlis dengan negeri negeri melayu yang lain hubungan perdagangan bab ini telah membincangkan penerusan kegemilangan kerajaan alam melayu menerusi pengasasan kerajaan kedah kelantan negeri sembilan dan perlis pelantikan pemerintah telah memantapkan sistem pentadbiran tempatan kerajaankerajaan ini telah berusaha mempertahankan kelangsungan kedaulatan masingmasing daripada ancaman luar melalui jalinan hubungan diplomatik dan perdagangan dengan negerinegeri melayu yang lain kelangsungan kegemilangan kerajaankerajaan ini dapat dilihat dari aspek warisan serta keunikannya yang masih kekal hingga hari ini dalam bab seterusnya 152pemahaman dan pemikiran kritis 1 undang sungai ujong undang jelebu undang johol undang rembau pembesar di atas bersetuju menghantar utusan bagi menjemput pemerintah dari minangkabau apakah nilai yang berkaitan dengan persetujuan pembesar tersebut a menghormati peraturan kerajaan b bertanggungjawab terhadap negara c permuafakatan dalam membuat keputusan d gigih mempertahankan sempadan wilayah 2 mengapakah pelabuhan penting kepada sesebuah kerajaan melayu a perluasan wilayah b lambang kedaulatan c menjamin keselamatan d meningkatkan kemakmuran 3 lengkapkan jadual di bawah dengan maklumat yang berikut arau long yunus seri menanti 1773 maharaja derbar raja 1762 kedah raja melewar kelantan syed hussin jamalullail 1843 kota kubang labu 630 m sungai mas negeri sembilan perlis kerajaan tahun pengasas lokasi pentadbiran 153pemahaman dan pemikiran kritis 4 jawab soalan yang berikut berdasarkan gambar di sebelah a apakah kuasa luar yang berkaitan dengan gambar tersebut b berikan pendapat anda terhadap tindakan pemerintah berkaitan dengan gambar tersebut 5 bincangkan penyelesaian bagi situasi di bawah situasi a kerajaan x menerima ancaman daripada kuasa lain yang lebih kuat apakah tindakan yang boleh diambil situasi b kerajaan y ingin memakmurkan negaranya apakah usaha terbaik yang perlu dilakukan situasi c pemerintah z ingin mengukuhkan kerajaannya yang berdaulat apakah antara bentuk hubungan yang boleh diambil 6 kekayaan hasil bumi serta kepelbagaian jenis barangan dagangan menjadi tarikan kepada kehadiran pedagang berdasarkan pernyataan di atas jawab soalan yang berikut a nyatakan hasil bumi yang diperdagangkan oleh kerajaan melayu b bagaimanakah kegiatan perdagangan dapat mewujudkan hubungan antara negeri melayu c pada pendapat anda apakah kriteria yang perlu ada bagi mewujudkan sebuah pelabuhan perdagangan yang baik 154cakna dan cerminan sejarah nilai patriotisme dan iktibar pengetahuan tentang sejarah berkaitan kerajaan melayu menyedarkan kita agar menghargai usaha yang dilakukan oleh pemerintah terdahulu memahami hubungan luar kerajaan melayu dengan negeri melayu lain memberikan pengetahuan tentang kepentingan memelihara hubungan baik demi kesejahteraan negara dasar berbaikbaik dengan negara jiran amat penting dalam mengekalkan kedaulatan negara dan dihormati di persada antarabangsa diri dan keluarga negara setiap ahli keluarga berperanan untuk menjaga hubungan baik dengan mewujudkan keluarga yang harmoni negara lain dapat menjamin kedaulatan negara kita hubungan baik dengan negara jiran menerusi asean telah membawa kesejahteraan dan kemakmuran kepada negara kita 155bab9 warisan kerajaan kedah kelantan negeri sembilan dan perlis istana jahar kelantan sumber koleksi dbp 2017 sinopsis aspek warisan kerajaan kedah kelantan dan perlis mencakupi sistem pemerintahan beraja adat istiadat perundangan persuratan dan kesenian aspek warisan negeri sembilan pula meliputi keunikan adat dan pemerintahannya warisan kegemilangan kerajaan kedah kelantan negeri sembilan dan perlis ini kekal hingga kini apakah yang akan anda pelajari 1 menjelaskan warisan kerajaan kedah kelantan dan perlis hingga kini 2 menghuraikan keunikan adat dan pemerintahan negeri sembilan replika istana raja melewar negeri sembilan sumber koleksi dbp 2017 115566</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bab  Warisan Kerajaan Kedah Kelantan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Negeri Sembilan dan Perlis </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 menghuraikan kepentingan menghargai warisan negeri melayu 2 merumuskan iktibar yang diperoleh daripada kelangsungan negeri melayu kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi warisan kerajaan kedah kelantan dan perlis yang masih kekal hingga hari ini 2 meneroka bukti warisan kerajaan kedah kelantan dan perlis yang masih kekal hingga hari ini 3 membuat interpretasi keunikan adat dan pemerintahan negeri sembilan 4 membuat imaginasi keunikan kesenian warisan kerajaan kedah kelantan dan perlis serta adat dan pemerintahan negeri sembilan 5 membuat rasionalisasi kepentingan menghargai warisan kerajaan kedah kelantan dan perlis serta keunikan adat dan pemerintahan negeri sembilan 11557791 warisan kerajaan kedah kelantan dan perlis pengenalan kelangsungan kewujudan kerajaan kedah kelantan dan perlis hingga kini turut diiringi dengan kegemilangannya mengharungi pelbagai cabaran sejak pengasasan lagi kemegahan dan kegemilangan kerajaan ini dapat dilihat menerusi warisan dalam aspek sistem pemerintahan beraja adat istiadat perundangan persuratan dan kesenian sistem pemerintahan beraja pengenalan institusi beraja oleh setiap kerajaan sejak pengasasan merupakan warisan yang kekal hingga hari ini warisan ini telah diperkembangkan menerusi pewujudan institusi raja berperlembagaan apabila negara mencapai kemerdekaan 1 penggunaan salasilah rajaraja perlis gelaran pemerintah kerajaan kedah dan kelantan dymm raja perlis pertama tuanku syed hussin jamalullail 18431873 menggunakan gelaran sultan kerajaan perlis menggunakan dymm raja perlis kedua gelaran raja tuanku syed ahmad jamalullail 18731897 2 cara pelantikan pengganti pemerintah dymm raja dymm raja dymm raja perlis ketiga perlis keempat perlis kelima pelantikan putera sultan atau tuanku syed tuanku syed tuanku syed raja sebagai pengganti safi jamalullail alwi jamalullail hamzah daripada jurai keturunan 18971904 19041943 jamalullail pemerintah pengasas 19431945 bagaimanakah kita dapat dymm raja perlis dymm raja perlis mempertahankan warisan keenam tuanku ketujuh tuanku syed institusi beraja syed putra jamalullail sirajuddin jamalullail 19452000 2000kini 158</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bab  Warisan Kerajaan Kedah Kelantan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Warisan Kerajaan Kedah Kelantan dan Perlis </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>sistem pemerintahan beraja dalam sesebuah negeri sejak diasaskan kekal diwarisi hingga hari ini pentadbiran wilayah kekal dengan pengubahsuaian mengikut keperluan sistem pemerintahan pada masa ini sultan atau raja merupakan hierarki tertinggi dalam pemerintahan beraja warisan ini dikekalkan dengan kedudukan sultan atau raja sebagai ketua bagi negeri serta sultan memiliki keistimewaannya negeri sultan atau raja juga bertanggungjawab sebagai ketua agama islam dan pembesar dilantik sebagai merupakan lambang wakil pentadbir bagi perpaduan rakyat pihak kerajaan dan bertanggungjawab terhadap pembesar jajahan atau daerah jajahandaerah warisan pentadbiran secara unit daerah ini masih wujud hingga kini penghulu mukim penghulu merupakan penguasa pada peringkat mukim penghulu berperanan sebagai orang perantaraan antara rakyat dengan pemerintah warisan pentadbiran peringkat mukim ini masih kekal hingga hari ini dengan kewujudan ketua kampung yang bertanggungjawab warisan untuk mentadbir unit yang lebih kecil kesultanan melayu cerna minda bagaimanakah penghulu dapat membantu pentadbiran setiap negeri aktiviti peta pemikiran thinking map 1 secara berkumpulan kumpulkan maklumat berkaitan keistimewaan sultan atau raja 2 bentangkan dalam bentuk peta pemikiran yang sesuai 159adat istiadat keserumpunan budaya kerajaan kedah kelantan dan perlis mewujudkan persamaan warisan adat istiadat diraja yang meliputi aspek keputeraan perkahwinan pertabalan penganugerahan darjah kebesaran dan pemakaman pemerintah alatalat kebesaran diraja turut diwarisi dan digunakan dalam setiap istiadat rasmi sistem pemerintahan raja yang berdaulat terpancar menerusi warisan istiadat pertabalan diraja pertabalan pemerintah bertujuan memaklumi rakyat dan bagi mengabsahkan kedaulatan raja 1 majlis pemasyhuran majlis pemasyhuran pengganti sultan atau raja disempurnakan sebelum buku atur cara majlis jenazah pemerintah dimakamkan pemasyhuran sultan abdul halim muazzam shah ahmad sarji abdul hamid ed the rulers of malaysia singapura editions didier millet 2011 hlm 30 2 istiadat pertabalan istiadat dimulai dengan mempersembahkan naskhah alquran dan alat kebesaran diraja sultan atau raja yang dimasyhurkan membaca watikah pertabalan dan kemudian mengucup keris kuasa menteri besar mengetuai seruan daulat tuanku pertabalan sultan kedah istiadat pertabalan raja perlis pada tahun sumber muzium kota kayang kangar 1959 3 penganugerahan bintang dan darjah kebesaran penganugerahan darjah kebesaran oleh sultan atau raja juga merupakan warisan yang kekal hingga hari ini penganugerahan ini merupakan lambang hubungan antara pemerintah dengan rakyat lazimnya penganugerahan ini disempurnakan bersempena dengan hari sambutan keputeraan pemerintah darjah kebesaran dianugerahkan sebagai pengiktirafan istiadat penganugerahan darjah kepada sultan atau raja kerabat diraja dan rakyat kebesaran kelantan oleh sultan yang berjasa muhammad v 160pingat darjah kebesaran darjah kerabat yang darjah dato paduka seri darjah setia mahkota amat dihormati dk setia sultan abdul halim perlis smp kelantan muazzam shah dhms darjah kebesaran kelantan aktiviti aktiviti kumpulan pelangi lukis ikut kreativiti rainbow groups stretch to sketch 1 murid dibahagikan kepada tiga kumpulan utama 2 berdasarkan pelbagai sumber setiap kumpulan akan mencari maklumat berkaitan adat istiadat bagi kerajaan kedah kelantan dan perlis kumpulan 1 adat istiadat keputeraan diraja kumpulan 2 adat istiadat perkahwinan diraja kumpulan 3 adat istiadat pemakaman pemerintah 3 selepas berbincang bina kumpulan baharu yang terdiri daripada ahli daripada tiga kumpulan asal 4 ahli kumpulan akan menyatakan hasil 1 secara berkumpulan hasilkan lakaran perbincangan daripada kumpulan asal kreatif berdasarkan ciri binaan masingmasing kepada ahli kumpulan keduadua istana di atas baharu secara bergilirgilir 2 bentangkan keistimewaan lakaran tersebut 161perundangan kerajaan kedah kelantan dan perlis memantapkan sistem pentadbiran dengan melaksanakan undangundang yang kemas dan teratur sistem perundangan ini bertujuan untuk menjamin keadilan rakyat melancarkan pentadbiran kerajaan dan memakmurkan negeri sistem perundangan ini diwarisi hingga kini dengan beberapa pengubahsuaian dan penambahbaikan penggantian pemerintah sultan atau raja hendaklah lelaki berketurunan raja berbangsa melayu dan beragama islam undangundang tubuh kerajaan kedah darulaman undangundang tubuh kerajaan perlis undangundang perlembagaan tubuh istiadat pemasyhuran raja muda kedah sumber koleksi dbp 2016 kerajaan kelantan peranan sultan atau raja kedudukan sultan atau raja sebagai ketua negeri ketua agama islam badan penasihat sultan atau raja undangundang kuasa majlis mesyuarat perlembagaan tubuh kerajaan negeri diketuai oleh kerajaan kelantan menteri besar sebagai yang dipertua sumber koleksi dbp 2016 tanggungjawab yang membantu sultan atau raja raja dalam dalam mentadbir negeri dan rakyat menjaga agama 162pemantapan undangundang islam kerajaan kedah memperkenalkan enakmen zakat yang diuruskan menerusi penubuhan sebuah jawatankuasa pada jemaah menteri semasa pemerintahan sultan tahun 1955 muhammad ii 18361886 di kelantan sumber ruslan zainuddin sejarah malaysia shah alam kerajaan kelantan memperkenalkan fajar bakti sdn bhd 2003 hlm 27 enakmen dan pekeliling berkaitan undangundang jenayah islam dan tanggungjawab sultan atau raja busana cara islam dalam kehidupan rakyatnya larangan kepada sultan atau raja menteri dan jemaah menteri hukum maksiat di kelantan ditulis pada menyerahkan negeri atau kuasa abad ke19 yang melarang perbuatan kepada kerajaan lain laga lembu dan persembahan menora sultan atau raja berhak memilih menteri besar hak rakyat dalam pentadbiran warganegara berumur 21 tahun atau lebih yang tinggal di dalam undangundang hukum maksiat di kelantan negeri layak menjadi ahli dewan sumber pusat manuskrip melayu perpustakaan undangan negeri mengikut negara malaysia perlembagaan persekutuan glosari sistem perundangan di negeri maksiat perbuatan berdosa yang melayu melanggar ajaran agama islam sebagai warganegara yang patriotik cerna minda bagaimanakah anda menghayati apakah tujuan penggubalan sesuatu prinsip rukun negara yang ketiga undangundang 163persuratan kegemilangan kerajaan kedah kelantan dan perlis turut mewariskan hasil karya persuratan yang sangat bernilai dan masih kekal hingga hari ini karyakarya persuratan ini masih menjadi asas rujukan utama dalam kewujudan sesebuah kerajaan karya sejarah altarikh salasilah negeri kedah merupakan karya muhammad hassan bin dato kerani muhammad arshad pada tahun 1927 mencatatkan sejarah istana kedah dan pentadbiran di perlis mengisahkan pengasasan dan senarai pemerintah pembukaan ibu kota alat kebesaran diraja iaitu nobat dan pengislaman pemerintah kerajaan kedah altarikh salasilah negeri kedah sumber koleksi mardiana nordin 2017 hikayat merong mahawangsa dihasilkan sekitar tahun 1821 mengisahkan pengasasan kerajaan kedah pembukaan kota pentadbiran dan pengislaman pemerintah hikayat merong mahawangsasumber pusat manuskrip melayu perpustakaan negara malaysia salasilah atau tarikh kerajaan kedah ditulis oleh wan yahya bin wan muhammad taib pada tahun 1911 mencatatkan secara kronologi maklumat jurai pemerintah negeri kedah dari tahun 630 m hingga tahun 1911 memaparkan perkembangan ekonomi dan pentadbiran kerajaan kedah menerusi pembahagian daerah bincangkan kepentingan karya persuratan dalam salasilah atau tarikh kerajaan kedah masyarakat pada masa kini sumber koleksi mardiana nordin 2017 164 syair sultan maulana dihasilkan pada zaman pemerintahan sultan ahmad tajuddin halim shah ii 1804 1845 berkaitan kisah perang tentera kedah dipersembahkan dalam bentuk syair syair sultan maulana sumber muhammad yusoff hashim syair sultan maulana kuala lumpur penerbit universiti malaya 1980 hlm 27 hikayat seri kelantan dipercayai ditulis pada tahun 1914 mengisahkan pemerintahan negeri kelantan sejak zaman che siti wan kembang puteri saadong dan raja abdullah hingga tahun 1900 hikayat seri kelantan sumber koleksi mardiana nordin 2017 detik2 sejarah kelantan ditulis oleh saad shukri bin haji muda pada tahun 1971 mencatatkan sejarah pengasasan kerajaan kelantan dan peristiwa penting setiap pemerintah detik2 sejarah kelantan aktiviti sumber saad shukri detik2 sejarah pembentangan hasil kendiri kelantan kota bharu penerbit pap kelantan 1971 self access learning 1 berdasarkan pelbagai sumber cari sinopsis sebuah karya sejarah 2 bentangkan hasil dapatan kajian kes karyakarya persuratan di sebelah sangat bernilai sebagai rujukan yang perlu dipelihara dan dipulihara pada masa ini bincangkan altarikh salasilah hikayat merong negeri kedah mahawangsa hikayat seri kelantan 165kesenian pengasasan kerajaan kedah kelantan dan perlis juga menyumbang kepada warisan kesenian warisan kesenian yang merupakan identiti unik setiap kerajaan ini masih kekal hingga hari ini aspek warisan tersebut termasuklah seni ukir seni bina seni pertukangan dan barang perhiasan seni kraf tangan seni persembahan dan seni silat 1 warisan seni ukir banyak diwarisi di kelantan dan kedah motif haiwan dalam karya telah digantikan dengan motif alam yang bersesuaian dengan amalan islam kekal sebagai hiasan pada istana rumah dan bangunan seperti masjid seni ukir mimbar masjid bermotifkan alam 2 warisan seni bina berupa binaan istana serta hiasan ukiran daripada kayu berkualiti keunikan binaan rumah tradisional melayu ialah tebar layar berbentuk v terbalik yang dihiasi ukiran bermotif alam banyak tiang yang menggunakan hasil hutan tempatan dan berdaya tahan dengan perubahan cuaca kiasan matahari ukiran tebuk rumah tradisional melayu keunikan tebar layar rumah tradisional kelantan 3 warisan seni pertukangan dan barang perhiasan pertukangan perhiasan daripada emas dan perak telah menyerlahkan kreativiti masyarakat tempatan pertukangan senjata tradisional seperti keris berkembang pesat terutamanya di kelantan seni pertukangan emas dan keris glosari motif sesuatu yang dijadikan corak cadangkan langkahlangkah untuk memelihara pada ukiran lukisan dan lainlain dan memulihara warisan kesenian negara 1664 warisan seni kraf tangan berkaitan dengan kreativiti hasil kraf tangan masyarakat seperti anyaman tikar dan bakul rotan kelantan terkenal dengan warisan pembuatan wau dan batik seni batik pembuatan wau 5 warisan seni persembahan merupakan keunikan pada setiap kerajaan awang batil merupakan penglipurlara di perlis wayang kulit telah diangkat sebagai warisan kebangsaan di bawah kategori warisan tidak ketara mek mulung merupakan teater tradisional negeri kedah yang kekal hingga kini wayang kulit 6 warisan seni silat merupakan seni atau kepandaian berjuang dengan menggunakan ketangkasan menyerang dan mempertahankan diri kini sebagai persembahan istimewa dalam sesuatu majlis dan menjadi acara yang dipertandingkan pada peringkat antarabangsa aktiviti warisan sistem pemerintahan beraja adat kerusi panas hot seating istiadat perundangan persuratan dan kesenian masih kekal hingga hari ini dengan beberapa 1 secara berkumpulan layari laman web pengubahsuaian warisan kesenian ini merupakan institut kraf negara wwwikngovmy dan tarikan kepada industri pelancongan negara dapatkan maklumat tentang peranan institut kegemilangan dan kemegahan kerajaan kedah ini dalam memelihara dan memulihara kelantan dan perlis dalam pelbagai aspek warisan kesenian negara merupakan warisan yang perlu kita hargai 2 wakil kumpulan akan membentangkan dapatan maklumat 3 murid lain boleh bertanya soalan cuba buat patung wayang kulit 1 lekatkan 3 lekatkan watak lidi sate alatan yang diperlukan wayang pada 1 watak wayang kulit kulit pada belakang 2 kertas keras kertas keras patung 3 pisau atau gunting dan gunting 4 gam pita pelekat dan benang 5 lidi sate 2 tebuk dan 4 hasil ikatkan tugasan bahagian patung tangan yang wayang dipotong kulit 11667792 keunikan adat dan pemerintahan negeri sembilan pengenalan keserumpunan alam melayu telah membawa perantau dari minangkabau menetap di kawasan rembau sungai ujong dan johol di negeri sembilan serta naning masyarakat ini membawa bersamasama amalan tradisi dan adat resam asal iaitu adat perpatih walaupun pada hari ini adat perpatih menerima perubahan semasa namun masih tetap mengekalkan warisan keunikannya aspek keunikan ini berkaitan dengan jurai keturunan sebelah ibu pelaksanaan hukuman perkahwinan upacara kedim dan wanita mewarisi harta pusaka jurai keturunan sebelah ibu keunikan kaum perempuan dianggap ibu adat soko iaitu ibu yang melahirkan perpatih anggota masyarakat setiap anak merupakan anggota suku ibunya anggota suku dianggap sedarah kerana berasal daripada moyang perempuan yang sama sebelah ibu tahukah anda adat perpatih yang diamalkan oleh pelaksanaan hukuman kebanyakan orang melayu di negeri bersifat pemulihan dengan memberikan sembilan dan naning melaka kini adalah pertimbangan terhadap pesalah ke arah berdasarkan adat minangkabau yang kebaikan dibawa oleh dato perpatih nan sebatang mengutamakan perasaan dan kepentingan pengamalan adat ini telah disesuaikan pesalah dengan adat orang tempatan peraturan sekiranya berlaku kesalahan kecil yang diguna pakai adalah bertujuan untuk maka boleh diselesaikan dengan saling melindungi kepentingan individu dan bermaafan ataupun denda yang ringan masyarakat cerna minda glosari mengapakah adat perpatih teromba katakata adat berbentuk prosa dan puisi yang menggalakkan perkahwinan mengandungi peraturan undangundang nasihat salasilah di luar suku yang di dalamnya terdapat adat yang sebenarbenar adat adat yang diadakan adat yang teradat dan adat istiadat untuk dijadikan sandaran 168</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bab  Warisan Kerajaan Kedah Kelantan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Keunikan Adat dan Pemerintahan Negeri Sembilan </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>perkahwinan perkahwinan sesama suku tidak digalakkan kerana dianggap sebagai sebuah keluarga besar dan bersaudara menggalakkan perkahwinan di luar suku bagi mewujudkan hubungan persaudaraan antara suku seseorang lelaki yang berkahwin akan menjadi anggota keluarga suku isterinya dan digelar orang semenda orang mendatang wanita yang berkahwin sesama suku akan hilang hak mewarisi pusaka manakala lelaki pula akan hilang hak untuk menyandang jawatan dalam adat namun begitu jika hendak mengembalikan majlis perkahwinan hak perlu menjalankan adat memulih pusaka upacara kedim menerima orang dari suku lain atau orang luar menjadi ahli suku seseorang itu akan bersumpah taat setia dan bersaudara dengan ahli suku yang akan disertai serta dibuat penghebahan darah dicecah doa ditampung sumpah dilabuh quran dijunjung sumber nordin selat sistem sosial adat perpatih kuala lumpur utusan publications distributors sdn bhd 1982 hlm 131 wanita mewarisi pusaka glosari wanita akan mewarisi harta pusaka termasuk tanah dan rumah bertujuan suku anggota masyarakat yang dikelaskan supaya wanita tidak terabai mengikut nenek moyang iaitu keturunan sebelah diwarisi secara turun temurun ibu terdapat 12 suku di negeri sembilan daripada ibu kepada anak perempuan iaitu biduanda batu hampar paya kumbuh mungkal tiga nenek semelenggang selemak batu belang tanah datar anak acheh anak kps melaka dan tiga batu rasionalkan keunikan warisan orang semenda adat perpatih lelaki yang berkahwin akan tinggal di rumah isteri dan menjadi anggota suku isteri aktiviti bertanggungjawab mengerjakan tanah peta pemikiranthinking map pusaka isteri mestilah berkelakuan baik dan menjaga nama suku isterinya 1 secara berkumpulan layari internet berperanan penting dalam keluarga seperti dan kumpulkan beberapa teromba atau mengendalikan urusan peminangan perbilangan dalam adat perpatih dan tafsirkan maksudnya perbilangan peribahasa yang melahirkan 2 bandingkan adat perpatih dengan adat katakata yang menjadi sama ada peraturan temenggung undangundang atau nasihat yang dapat dijadikan 3 dapatan kajian dibentangkan dalam peta pegangan pemikiran yang sesuai 169keunikan pemerintahan di negeri sembilan sistem pentadbiran adat di negeri sembilan yang menggunakan sistem adat perpatih merupakan amalan pentadbiran adat yang unik terdapat tiga kumpulan utama dalam masyarakat di negeri sembilan iaitu perut suku dan luak yang berkuasa melantik penyandang pesaka adat atau pemimpin pelantikan pemimpin pemimpin dalam adat perpatih ialah ketua adat seperti ibu soko buapak lembaga undang dan yamtuan besar atau yang dipertuan besar penyandang pesaka adat pada semua peringkat dipilih hasil permuafakatan luak daerah atau jajahan merupakan kumpulan ketiga dan terbesar yamtuan dalam susunan masyarakat besar minangkabau atau yang dipertuan besar suku merupakan unit kedua dalam sosiopolitik adat perpatih undang dibentuk oleh beberapa perut yang menjadikan keluarga berkenaan semakin besar lembaga perut unit terkecil yang ahlinya buapak daripada keturunan sebelah ibu anak buah dan ibu soko sistem pemerintahan di negeri sembilan hierarki pemerintahan adat perpatih tahukah anda penghulu merupakan ketua luak atau daerah bagi inas bincangkan kepentingan terachi jempol ulu muar dan gunung pasir amalan muafakat dalam ibu soko dikenali dengan beberapa nama contohnya pelantikan pemimpin di luak johol sebagai ibu waris di luak tampin sebagai ibu telapak dan di minangkabau sebagai bundo kanduang 1701 yamtuan besar atau yang dipertuan besar negeri sembilan yang dipertuan besar dipilih oleh undang yang empat berperanan sebagai ketua negeri menjadi lambang kesatuan dan persekutuan adat pemasyhuran tuanku muhriz ibni almarhum tuanku munawir sebagai yang dipertuan besar negeri sembilan ke11 2 undang undang merupakan ketua luak yang dilantik oleh lembaga undang yang empat ialah undang sungai ujong undang jelebu undang johol dan undang rembau undang yang empat akan berkerapatan bagi memilih seorang yang layak daripada keturunan yamtuan radin untuk menjadi yamtuan besar atau yang dipertuan besar 3 lembaga lembaga merupakan ketua suku dan dilantik oleh buapak peranan lembaga memilih undang dan penghulu menjaga keamanan dan keselamatan menyelesaikan pertelingkahan antara suku mengurus pembahagian harta pusaka 4 buapak anak buah dalam perut akan melantik seorang ketua yang digelar buapak buapak menjadi ketua rujukan aspek yang berkaitan dengan adat dan hukum 5 ibu soko mengetahui memahami dan menghafal adat dan asal usul kelompok kekeluargaan yang diwakilinya terlibat secara langsung dalam pemilihan dan pelantikan buapak dalam kelompok yang diwakilinya jika tiada ibu soko semua peringkat pelantikan pemimpin adat di negeri sembilan tidak boleh dilaksanakan pelantikan pemimpin secara muafakat oleh ketua yang bergelar ibu soko buapak lembaga dan undang bagaimanakah prinsip merupakan amalan demokrasi pengekalan pegangan demokrasi diamalkan adat perpatih dalam kalangan masyarakat di negeri dalam adat perpatih sembilan hingga hari ini merupakan penghargaan terhadap warisan adat ini 171imbas kembali warisan kerajaan kedah kelantan negeri sembilan dan perlis sistem pemerintahan beraja adat istiadat aspek warisan kerajaan perundangan kedah kelantan dan perlis persuratan kesenian keunikan adat dan pemerintahan negeri sembilan keunikan adat perpatih yamtuan besar jurai keturunan sebelah ibu atau yang dipertuanbesar pelaksanaan hukuman undang perkahwinan upacara kedim lembaga wanita mewarisi pusaka buapak anak buah dan ibu soko hierarki pentadbiran adat perpatih melalui permuafakatan lantikan daripada peringkat bawah warisan kegemilangan kerajaan alam melayu menerusi kerajaan kedah kelantan perlis serta keunikan adat dan pemerintahan negeri sembilan kekal hingga hari ini kesedaran terhadap pemeliharaan dan pemuliharaan warisan ini merupakan tanggungjawab kita bersamasama demikianlah juga dengan keunikan warisan di sarawak dan sabah yang akan dibincangkan dalam bab seterusnya 172pemahaman dan pemikiran kritis 1 mengapakah istiadat penganugerahan darjah kebesaran oleh sultan atau raja diwarisi hingga kini a berkongsi kesejahteraan negeri b mendaulatkan pemerintahan beraja c peruntukan dalam undangundang negeri d lambang hubungan antara pemerintah dengan rakyat 2 apakah peranan undangundang dalam pemerintahan sesebuah kerajaan a menjamin keadilan b menjadi lambang perpaduan c mengelak ancaman pihak luar d mengekalkan kedudukan pembesar 3 lengkapkan jadual di bawah dengan maklumat yang betul penggunaan gelaran pemerintah kerajaan gelaran pemerintah kedah perlis kelantan negeri sembilan 4 syair sultan maulana dihasilkan pada zaman pemerintahan sultan ahmad tajuddin halim shah ii 18041845 berkaitan kisah perang tentera kedah dipersembahkan dalam bentuk syair berdasarkan maklumat karya persuratan di atas jawab soalan yang berikut a nyatakan keistimewaan karya tersebut b cadangkan langkahlangkah karya ini dapat dipelihara dan dipulihara c hasilkan satu rangkap syair berkaitan pencapaian cemerlang sekolah anda 173pemahaman dan pemikiran kritis 5 isikan tempat kosong dengan maklumat yang betul peranan undang peranan lembaga buapak 6 petunjuk 1 anjung 4 2 serambi 3 3 rumah ibu 4 rumah dapur 2 1 berdasarkan ilustrasi seni bina rumah tradisional di atas jawab soalan yang berikut a apakah keunikan yang terdapat pada seni bina tersebut b bandingkan ruang rumah tradisional dengan rumah sekarang c sekiranya anda diberi peluang membina rumah lakarkan bentuk dan seni bina yang anda gemari 7 a jelaskan asal usul adat perpatih di negeri sembilan b apakah keistimewaan kedudukan wanita dalam adat perpatih c berikan tafsiran anda tentang perbilangan hidup dikandung adat mati dikandung tanah 174cakna dan cerminan sejarah nilai patriotisme dan iktibar pengetahuan tentang keunikan warisan dan adat negerinegeri melayu menyedarkan kita tentang kepentingan menghargai keunikan tersebut keunikan aspek warisan dan adat mendidik kita agar sentiasa mempertahankan kepelbagaian budaya bangsa negara kita kita perlu bersikap kreatif dan inovatif dalam mengekalkan warisan dan adat bagi meneruskan kegemilangan negara tercinta diri dan keluarga negara mengetahui kepentingan mempertahankan memahami warisan dan adat bangsa dapat nilainilai murni dan warisan dalam memupuk semangat bersatu padu ke arah usaha membentuk institusi keluarga yang kewujudan sebuah tamadun bangsa yang harmoni unggul perarakan bergajah pada istiadat keberangkatan balik seri paduka baginda duli yang maha mulia yang dipertuan agong ke14 almarhum tuanku abdul halim muazzam shah dan raja permaisuri agong tuanku hajah haminah ke negeri kedah di lapangan terbang antarabangsa kuala lumpur yang menggambarkan warisan kegemilangan dan keunikan kerajaan alam melayu sumber koleksi jabatan warisan negara 2016 175u bab angkor champa 10 laut funan china selatan sarawak dan kedah tua gangga nagara sabah laut sulawesi srivijaya borneo sinopsis sarawak dan sabah merupakan sebahagian daripada alam melayu masyarakat sarawak dan sabah telah mempunyai sistem pentadbiran dan pemerintahan laut banda majapahit mereka sendiri mereka telah menyesuaikan kehidupan harian dengan bentuk muka bumi khususnya sungai lautan hindi hal ini telah mewujudkan keunikan kepada warisan budaya masyarakatnya yang berlainan dari satu tempat ke satu tempat mengikut kaum masingmasing apakah yang akan anda pelajari 1 menjelaskan sejarah sarawak dan sabah sebagai sebahagian daripada kerajaan alam melayu 2 menerangkan pemerintahan tempatan di sarawak dan sabah 3 menghuraikan kegiatan masyarakat sarawak dan sabah 4 menghuraikan keunikan yang terdapat di sarawak dan sabah apakah elemen kewarganegaraan dan nilai sivik yang anda dapati 1 merumuskan kepentingan memanfaatkan alam sekitar secara bijaksana 2 menghuraikan kepentingan permuafakatan dalam kalangan masyarakat 1763 menerangkan kepentingan sikap bijaksana untuk meneruskan kelangsungan hidup 4 menilai kepentingan semangat kekitaan dalam sebuah negara 117766u angkor champa laut funan china selatan kedah tua gangga nagara laut sulawesi srivijaya borneo laut banda majapahit lautan hindi peta asal sarawak dan sabah sumber adaptasi daripada maps of malaya and borneo the collections of hrh sultan sharafuddin idris shah and dato richard curtis kuala lumpur didier millet 2006 hlm 180 kemahiran pemikiran sejarah yang anda dapati 1 memahami kronologi pembentukan pemerintahan tempatan di sarawak dan sabah 2 meneroka bukti petempatan awal dan keistimewaan corak budaya dan kehidupan masyarakat di sarawak dan sabah 3 membuat interpretasi keunikan yang terdapat di sarawak dan sabah 4 membuat imaginasi kehidupan penduduk di sarawak dan sabah 5 membuat rasionalisasi bentuk pemerintahan tempatan di sarawak dan sabah 117777101 sarawak dan sabah dalam alam melayu pengenalan sarawak dan sabah merupakan antara kawasan yang terletak di alam melayu kedudukan keduadua kawasan ini di barat daya hingga utara pulau borneo telah mendedahkannya dengan perkembangan yang berlaku di alam melayu terutama dalam aspek perdagangan dan keagamaan di keduadua kawasan ini juga muncul beberapa pelabuhan seiring dengan kemunculan kerajaan masyhur seperti funan champa srivijaya angkor majapahit kedah tua dan gangga nagara kepesatan kerajaan yang masyhur ini telah mendorong kemajuan kegiatan perdagangan di sarawak dan sabah hubungan sarawak dan sabah dalam alam melayu sejak sebelum masihi penduduk di sarawak dan sabah telah mempunyai hubungan dengan alam melayu dan dunia luar seperti kemunculan pusat pembuatan tembikar di bukit tengkorak semporna sabah penduduk di bukit tengkorak ini telah menjalankan kegiatan perdagangan dengan kawasan di luar sabah pada abad ketiga pula muncul chupo iaitu pelabuhan di utara sabah pelabuhan ini menjadi tempat mengeksport besi ke funan dan champa pada abad ketujuh santubong muncul sebagai pusat perdagangan utama di sarawak terdapat penemuan barangan tembikar zaman dinasti tang dan sung di santubong pelabuhan ini membekalkan kapur barus kayu laka lilin lebah madu dan kulit penyu pada abad ke13 muncul industri peleburan bijih besi di santubong selain santubong beberapa lagi pusat perdagangan muncul di sarawak seperti gedong bukit sandong dan kalka pusat perdagangan ini menjalankan kegiatan perdagangan dengan kerajaan siam vietnam dan china kemajuan pesat perdagangan di sarawak dan sabah pada ketika itu menjadi tarikan kepada kerajaan alam melayu untuk meluaskan pengaruhnya hal ini menyebabkan beberapa kawasan di pesisir pantai barat laut borneo menjadi kawasan pengaruh kerajaan alam melayu ini kerajaan srivijaya pernah meluaskan pengaruhnya di selatan sarawak bagi mengawal perdagangan di laut china selatan kerajaan majapahit turut mempunyai pengaruh di sarawak dan di utara sabah jumpaan gendang gangsa jenis moko di pulau banggi sabah membuktikan terdapat hubungan perdagangan antara kerajaan majapahit dengan penduduk di utara sabah gendang gangsa di pulau banggi sabah kemerosotan majapahit telah membawa kepada perkembangan pengaruh kerajaan sambas brunei dan sulu di kawasan barat dan utara pantai pulau borneo di sarawak berlaku penyebaran kuasa oleh kerajaan gendang gangsa sambas dan kesultanan melayu brunei kerajaan ini dikenali sebagai sambas mengambil peluang daripada kemerosotan gendang gangsa timbang dayang yang majapahit dengan meluaskan pengaruhnya ke samarahan dibuat di pulau jawa sadong sarawak sungai sarawak saribas dan kalka pada abad ke14 kesultanan melayu brunei sumber adnan jusoh gendang gangsa di borneo satu tinjauan semula terhadap penemuan gendang telah muncul dan menjalinkan persahabatan dengan gangsa di sabah dan kalimantan jurnal persatuan kerajaan sambas persahabatan ini membolehkan muzium malaysia bil 36 2017 hlm 4 14 dan 17 kerajaan sambas menyerahkan wilayahnya di sarawak kepada kesultanan melayu brunei kesultanan melayu brunei juga meluaskan pengaruhnya ke utara cerna minda borneo kemunculan kesultanan sulu di utara borneo pula telah membawa kepada tersebarnya pengaruh nyatakan kepentingan hubungan sarawak mereka di pantai timur laut borneo dan sabah dengan kerajaan alam melayu 178</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sarawak dan Sabah dalam Alam Melayu </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kebangkitan kesultanan melayu brunei telah melemahkan pusat perdagangan di sarawak kerana tumpuan perdagangan dialihkan ke brunei manakala kesultanan sulu yang muncul pada abad ke15 telah meningkatkan kegiatan perdagangan di utara sabah kawasan ini kaya dengan hasil laut dan hutan terutama sarang burung yang menjadi tarikan pedagang china keduadua kesultanan ini kemudian mengalami kemerosotan menjelang abad ke19 apabila bersaing dengan kuasa barat sarawak dan sabah juga dipengaruhi oleh kedatangan agama hindu buddha dan islam pengaruh agama ini dibawa secara tidak langsung oleh kerajaan alam melayu di keduadua kawasan ini pada zaman kegemilangan kerajaan srivijaya terdapat tinggalan objekobjek agama buddha di santubong selain itu terdapat penemuan patung ganesha di limbang pengaruh kesultanan melayu brunei di sarawak dan sabah telah membawa penyebaran agama islam di pesisir pantai sarawak dan sabah kesan ketara penyebaran islam ini ialah penerimaan agama islam oleh kebanyakan penduduk pesisir pantai sarawak dan sabah kesultanan sulu pula memainkan peranan penting dalam penyebaran agama islam di pantai timur sabah objekobjek emas berkaitan dengan agama buddha dijumpai di santubong sumber heidi munan sarawak historical landmarks kuching mucow books company 2015 hlm 62 hubungan antara sarawak dan sabah dengan kerajaan alam melayu dan pedagang luar menunjukkan sikap keterbukaan masyarakat di keduadua kawasan ini menerima pengaruh dari luar sikap keterbukaan penduduk di keduadua kawasan ini juga membantu kemajuan perdagangan dan menunjukkan sikap toleransi dalam menerima pengaruh agama dari luar tahukah anda bukti penemuan pelabuhan di sarawak ialah berdasarkan sumber arkeologi dan sumber luar para pengkaji seperti tom harrison f e treloar stanley j corner w g solheim ii jan wisseman christie c doherty r buckley a gnanaratnam p beavit dan w beavitt telah melakukan cari gali dan penyelidikan di santubong mereka telah menemukan pelbagai objek barang dagangan kawasan peleburan bijih besi dan keagamaan di santubong jan wisseman christie pula menyatakan bahawa santubong ialah poni seperti yang dinyatakan oleh sumber china manakala lucas chin bersamasama pasukannya pula menjalankan usaha cari gali di gedong bukit sandong dan kalka mereka telah menemukan pelbagai barang dagangan dari luar sarawak manakala tapak chupo pula dibuktikan melalui sumber china yang menyebut tentang adanya sebuah kawasan pelabuhan di utara borneo 179102 kemunculan pemerintahan tempatan pengenalan di sarawak dan sabah telah wujud beberapa bentuk pemerintahan tempatan yang tersusun dan tersendiri bentuk pemerintahan ini wujud berdasarkan kawasan geografi iaitu pedalaman dan lembah sungai sarawak pemerintahan tempatan di sarawak dibentuk di pedalaman dan lembah sungai di pedalaman penduduknya membentuk sistem kepimpinan kesukuan mengikut kaum masingmasing di lembah sungai pula terdapat pemerintahan tempatan yang kemudiannya berubah kepada pemerintahan wilayah kuasa besar alam melayu seperti kerajaan sambas dan kesultanan melayu brunei 1 kepimpinan kesukuan batu berhala ini dijumpai di di kawasan pedalaman sarawak terdapat kepimpinan samarahan yang kesukuan yang berbeza daripada kawasan muara dikaitkan dengan kerajaan samadong sungai setiap kaum mempunyai ketuanya yang bebas daripada kawalan manamana kuasa dari luar masyarakat iban mempunyai ketua mereka sendiri sabah yang dikenali sebagai tuai rumah bagi kaum kayan samadong pemimpin mereka dikenali sebagai kelunan maren lokasi samarahan u dan sadong atau hipun uma pemimpin kaum kenyah pula digelar masa abad ketujuh peran lepo manakala pemimpin kaum kelabit dikenali sebagai laih rayeh sibu srajang 2 kepimpinan lembah sungai hubungan dengan kerajaan alam melayu membentuk pemerintahan peta kedudukan pemerintahan kerajaan dan wakil raja di sarawak tempatan awal di sarawak sawaku a kerajaan sumber sanib said sejarah awal lokasi santubong dan kepulauan melayu lima buah negeri di sarawak terdapat kerajaan sekitar sungai sarawak warisan sarawak yang hilang di kawasan lembah sungai iaitu pengasas datu merpati current research in malaysia vol1 sawaku samadong kalka saribas no1 oktober 2012 hlm 2249 masa abad ketujuh dan melano wujud interaksi antara kerajaan ini dengan kerajaan luar kerajaan ini telah muncul sejak batu gambar di santubong membuktikan kewujudan abad ketujuh dan berakhir pada kerajaan sawaku sekitar abad ke14 sumber nik hassan shuhaimi nik abdul rahman ed early history singapura editions didier millet 1998 180 hlm 199</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kemunculan Pemerintahan Tempatan </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>b wakil raja pengaruh kerajaan di alam melayu ke atas sarawak membawa kepada terbentuknya sistem wakil raja di sarawak hal ini berlaku bermula dengan pengaruh kerajaan majapahit kerajaan sambas menyambung sistem ini dengan melantik pemimpin tempatan sebagai wakil mereka manakala kesultanan melayu brunei pula melantik dua wakilnya sama ada wakil terus dari brunei atau pemimpin tempatan kawasan kekuasaan mereka adalah di sekitar dan sepanjang sungai yang mereka wakili wakilwakil raja ini menjalankan pemerintahan dalam aspek kehakiman kebajikan dan menjaga keamanan kawasan yang mereka wakili mereka juga mengutip cukai daripada penduduk dan aktiviti perdagangan semasa pentadbiran kesultanan melayu brunei usaha telah dibuat untuk menguatkan hubungan mereka dengan kaumkaum di pedalaman suku kaum di pedalaman ini diiktiraf oleh kesultanan melayu brunei dan diberi gelaran orang kaya kalkalokasi kuala sungai kalka pengasas dayang hubu dan lokasi memainkan peranan dalam pembentukan dayang ruku pemerintahan tempatan di sarawak penduduk di lembah sungai ditadbir menerusi kerajaan dan wakil raja penduduk di kawasan pedalaman pula membentuk pentadbiran berdasarkan suku kaum dan puak tertentu keduadua bentuk melano kepimpinan ini menjelaskan bahawa penduduk lokasi sungai retus sabah sarawak telah mempunyai pentadbiran yang pengasas tugau tersusun dan teratur masa abad ke11 u tahukah anda bukti tentang lima kerajaan di sarawak saribas ini ialah berdasarkan manuskrip luar dan sibu lokasi pertemuan antara tempatan sumber kerajaan majapahit iaitu srajang batang saribas dan sungai negarakertagama yang ditulis sekitar abad rimbas ke14 menyatakan terdapat empat kerajaan pengasas pengiran di sarawak iaitu sawaku kalka samadong temenggung abdul kadir pusat tandang sari muara dan melano berdasarkan silsilah rajaraja sungai rimbas brunei dan syair awang semaun pula telah wujud lima kerajaan di sarawak iaitu kalka serawak sawaku saribas samarahan samadong dan mukah melano selain itu beberapa manuskrip tempatan membuktikan kewujudan kerajaankerajaan ini seperti dalam hikayat datu merpati jepang yang menyatakan terdapat kerajaan di santubong cerna minda dan syair tarsilah cetera dato gudam dan temenggong abdul qadir negeri saribas yang nyatakan dua bentuk pemerintahan mengaitkan kewujudan kerajaan saribas dan di sarawak kalka 181sabah masyarakat di sabah mempunyai sistem pemerintahan tempatan berdasarkan lokasi tertentu masyarakat di kawasan pedalaman sabah membentuk kepimpinan kesukuan yang hampir sama antara satu kaum dengan kaum yang lain di kawasan lembah sungai pentadbiran kerajaan diketuai oleh wakil raja dan ketua bebas 1 kepimpinan kesukuan masyarakat pedalaman di sabah telah mempunyai kepimpinan kesukuan yang tersusun dan bebas daripada kawalan kuasakuasa luar hal ini boleh dilihat dalam kepimpinan kesukuan kaum kadazandusun murut dan orang sungai kaum kadazandusun murut dan orang sungai mempunyai bentuk kepimpinan yang sama keduadua kaum mempunyai seorang ketua yang dikenali sebagai orang tua bobohizan bobolian bagi kaum kadazandusun dan babalian bagi kaum murut pula akan mengurus soal adat dan pantang larang ketua kaum murut sumber owen rutter the kewujudan petempatan di pedalaman sabah telah pagans of north borneo membentuk kepimpinan kesukuan yang berdasarkan singapura oxford university kaumkaum tertentu keterbukaan kawasan lembah press 1985 hlm 40 sungai pula membawa kepada kemunculan tiga corak kepimpinan yang berbeza mengikut pengaruh kesultanan melayu brunei kesultanan sulu dan ketua bebas cerna minda apakah peranan bobohizanbobolian 2 kepimpinan lembah sungai kawasan lembah sungai di sabah terdedah kepada pengaruh kesultanan melayu menerusi wakil brunei wakil sulu dan ketua bebas a wakil raja pengaruh dari brunei dan sulu di sabah adalah menerusi wakilwakil raja kuasa pemerintah wakil raja ini adalah dalam aspek kehakiman menjaga keamanan dan kebajikan penduduk mereka juga akan mengutip cukai daripada penduduk dan aktiviti perdagangan 182b ketua bebas kepimpinan ini diketuai oleh seorang ketua bebas mereka ini mentadbir wilayah di muara sungai ketuaketua bebas di sabah terdiri daripada syarif osman yang menguasai kawasan marudu dan datu kurunding yang menguasai kawasan tungku ketua bebas ini menegakkan kekuasaan dan menjalankan undangundang sendiri mereka ini biasanya mempunyai pertalian dengan keluarga diraja sama ada dari brunei sulu atau keturunan arab sharif penduduk di bawah pemerintahan mereka terdiri daripada pengikut mereka u laut china selatan ketuabebas laut sulu sabah wakil wakil sulu brunei kepimpinankesukuan petunjuk kawasan wakil brunei kawasan kepimpinan kesukuan kawasan wakil sulu laut sulawesi kawasan ketua bebas peta kedudukan pemerintahan tempatan di sabah penduduk sarawak dan sabah sudah mempunyai pemerintahan tempatan yang muncul di lembah sungai dan pedalaman hal ini menunjukkan bahawa penduduk di keduadua kawasan ini mempunyai kesedaran dalam aspek kepimpinan dan bertanggungjawab menjaga hal ehwal kawasan serta kaumnya aktivitifikirpasangankongsi thinkpairshare 1 secara individu kumpulkan maklumat berkaitan suku kaum dan bentuk pentadbiran di sarawak dan sabah 2 bincangkan hasil dapatan dengan rakan sekelas 3 kongsikan hasil perbincangan di dalam kelas 183103 kegiatan ekonomi masyarakat sarawak dan sabah pengenalan kedudukan dan tempat tinggal masyarakat di sarawak dan sabah mempengaruhi kegiatan harian mereka bentuk muka bumi di sarawak dan sabah ini boleh dibahagikan kepada tiga kawasan iaitu pedalaman muara sungai atau lembah sungai dan pesisir pantai sarawak sejarah kegiatan ekonomi masyarakat di sarawak berkembang di kawasan pedalaman lembah sungai dan pesisir pantai jadual kegiatan ekonomi masyarakat sarawak berdasarkan lokasi lokasi kegiatan kaum pedalaman mengutip hasil hutan keny ah kaya n memburu haiwan liar iban kelab it menanam padi pena n puna n lembah sungai menanam padi mela yu mela nau menanam buahbuahan iban bidayuh dan sayursayuran bisaya pesisir pantai perdagangan mela yu mela nau menangkap ikan kedayan membuat perahu perusahaan sagu menuai padi oleh penduduk pedalaman kawasan pedalaman lembah sungai pesisir pantai kawasan petempatan dan kegiatan ekonomi masyarakat sarawak pembuatan sagu oleh penebangan kaum melanau pokok sagu 184</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kegiatan Ekonomi Masyarakat Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sabah sejarah kegiatan ekonomi masyarakat di sabah berkembang di kawasan pedalaman lembah sungai dan pesisir pantai jadual kegiatan ekonomi masyarakat sabah berdasarkan lokasi lokasi kegiatan kaum pedalaman mengutip hasil hutan murut menanam padi mengutip sarang burung lembah sungai menanam padi kadazandusun menanam buahbuahan rungus dan sayursayuran orang sungai pesisir pantai menangkap ikan melayu brunei membuat perahu bajau mengutip hasil laut iranun perdagangan suluk kawasan pedalaman mengutip sarang burung layang lembah sungai layang pesisir pantai kawasan petempatan dan kegiatan ekonomi masyarakat sabah masyarakat sarawak dan sabah bijak memanfaatkan alam sekitar dalam mengembangkan kegiatan ekonomi mereka kebijaksanaan ini telah mendorong mereka mempelbagaikan sumber keluaran harian dan sumber ekonomi demi kelangsungan kehidupan sungai menjadi nadi kehidupan utama di sarawak dan sabah orang bajau terlibat dalam aktiviti bincangkan mencari hasil laut 185104 keunikan masyarakat bumiputera sarawak dan sabah pengenalan penduduk sarawak dan sabah yang berbilang kaum dan budaya menyebabkan kawasan ini memiliki keunikan tradisi dan warisan yang tersendiri masyarakat bumiputera sarawak keunikan masyarakat bumiputera di sarawak boleh dilihat dari segi kepelbagaian kaumnya seperti iban melayu orang ulu bidayuh dan melanau terdapat beberapa lagi kaum bumiputera yang lain seperti bisayah bukitan dusun kedayan kajang kejaman lahanan lisum lugat sebop sekapan sipeng tagal tanjong dan ukit kepelbagaian ini disebabkan oleh sejarah budaya setiap kaum yang berbezabeza kepelbagaian kaum ini juga merupakan keunikan masyarakat sarawak yang berlainan latar belakang iban melayu kaum iban yang berasal dari sungai kapuas kehadiran kaum melayu bermula dengan mula berhijrah dan menetap di kawasan hulu kemunculan kerajaankerajaan awal sungai batang lupar dan sungai rajang di sarawak kebanyakan kaum melayu hingga sungai baram menetap di kawasan pesisir pantai sarawak sumber lembaga pelancongan sarawak cerna minda sumber lembaga pelancongan sarawak namakan sukusuku kaum yang terdapat di sarawak 186</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Keunikan Masyarakat Bumiputera Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>orang ulu orang ulu terdiri daripada pelbagai melanau kaum yang mendiami kawasan sejak dari dahulu kaum pedalaman sarawak mereka terdiri melanau mendiami kawasan daripada kaum kayan kenyah tengah sarawak kelabit penan dan punan kaum bidayuh kayan dan kenyah berasal dari sungai kayan dan berhijrah kaum bidayuh berasal dari ke kawasan hulu sungai rajang sungkung kalimantan balui baram dan hulu kemena dan kemudian berhijrah ke selatan sarawak sumber lembaga sumber koleksi suffian pelancongan sarawak mansor 2016 sumber lembaga pelancongan sarawak u brunei limbang miri laut china selatan bintulu mukah sarawak sibu sarikei srajang kapit petunjuk orang ulu iban kuching melayu sri aman melanau kalimantan bidayuh indonesia peta menunjukkan taburan masyarakat di sarawak sumber adaptasi daripada hood salleh peoples and traditions singapura editions didier millet 2006 hlm 7879 187masyarakat bumiputera sabah masyarakat bumiputera sabah juga unik dari segi kepelbagaian kaumnya kepelbagaian sejarah budaya setiap kaum menyebabkan masyarakat di sabah mempunyai keunikan tradisi yang tersendiri keunikan kaum ini boleh dilihat mengikut kaumkaum seperti kadazandusun murut bajau suluk dan orang sungai terdapat beberapa kaum lain di sabah seperti balabak atau molbog binadan bisaya bulungan idahan kadayan berunai iranun cocos lundayeh rungus tagaas dan tatana u petunjuk kadazandusun bajau kebanyakan kaum kadazandusun kadazandusun mendiami kawasan penampang murut papar tuaran tambunan dan kudat suluk ranau menurut catatan sejarah orang sungai nama dusun diberi oleh orang brunei yang bermaksud petani kota belud pedalaman sumber lembaga kebudayaan negeri sabah kota kinabalu ranau sandakan tambunan bajausama beaufort keningau terdapat dua pendapat tentang asal usul kaum bajau sama iaitu dari sambaungan zamboanga dan johor tenom kebanyakan kaum bajausama menetap di kawasan pantai lahad s a b a h timur dan pantai barat sabah keunikan kaum bajausama datu yang tinggal di kawasan pantai barat sabah ialah budaya b menunggang kuda ru pensiangan nei tawau semporna sarawak peta taburan masyarakat di sabah pada tahun 1870an sumber adaptasi daripada d s ranjit singh the making of sabah 18651941 the dynamics of indigenous society kuala lumpur penerbit universiti malaya 2000 hlm 29 kaum bajausama di pantai barat sabah terkenal dengan budaya menunggang kuda sumber lembaga kebudayaan negeri sabah peraturan dan adat resam masyarakat sabah 188murut kebanyakan kaum murut tinggal di kawasan tenom hingga kalabakan menurut catatan sejarah nama murut diberikan oleh orang brunei yang bermaksud orang bukit atau orang dari pedalaman pergunungan yang terpencil sumber lembaga kebudayaan u negeri sabah petunjuk bajau suluk kadazandusun kaum suluk berasal dari kepulauan murut sulu dan ramai yang menetap di kawasan kudat suluk pantai timur sabah orang sungai kota orang sungai belud orang sungai kebanyakannya tinggal di sungai kinabatangan sungai sugut sungai paitan dan sungai labuk kota kinabalu ranau sandakan mereka dikenali dengan pelbagai tambunan nama mengikut tempat tinggal seperti dumpas dan buludupi beaufort keningau tenom tahukah anda lahad s a b a h datu tamu merupakan pasar terbuka yang b sudah menjadi warisan sejak dahulu ru pensiangan lagi di pasar tamu terdapat jualan nei pelbagai barangan seperti barang basah tawau semporna buahbuahan kraf tangan dan pakaian tamu menjadi tempat pertemuan sarawak kaumkaum di sabah aktivitipembentangan hasil kendiri self access learning 1 buat kajian tentang cara hidup salah satu kaum di sarawak atau sabah 2 bentangkan hasil dapatan anda 189kepentingan sungai sungai telah memainkan peranan penting kepada masyarakat di sarawak dan sabah sejak turun temurun kepentingannya boleh dilihat hingga hari ini sungai digunakan dalam kegiatan harian penduduk seperti alat perhubungan kawasan petempatan sumber rezeki kegiatan perdagangan dan aktiviti rekreasi kegunaan harian sungai menjadi sumber bekalan air untuk minum mandi dan membasuh pakaian serta pinggan mangkuk pengangkutan sampan dan bot menjadi pengangkutan utama untuk membawa penumpang dan barang melalui sungai petempatan sungai menjadi kawasan petempatan yang dikenali sebagai kampung air sumber rezeki sungai merupakan sumber rezeki kepada penduduk di kawasan sekitar sungai perdagangan masyarakat menjalankan kegiatan perdagangan dan jual beli di sungai sejak zamanberzaman kegiatan rekreasi sungai menjadi tempat kegiatan rekreasi seperti pesta regata dan acara perahu berhias sungai amat mempengaruhi kehidupan masyarakat di sarawak dan sabah fungsi sungai masih kekal hingga hari ini kepentingan sungai ini juga menunjukkan terdapat persamaan dengan petempatan awal dan pengasasan kerajaan alam melayu 190aktiviti saya lihat saya fikir saya bertanya i see i think i wonder u sugut s labuk s s pada s kinabatangasn segam a darbursusnaeliam s abah s laut china selatan sbaram sarawak srajang lupar batang iknadliomnaenstaina kuching s berdasarkan dua peta di atas secara berkumpulan lakukan aktiviti yang berikut 1 namakan kawasan yang anda tahu berdasarkan peta lama di atas 2 kawasan petempatan di sarawak dan sabah muncul di kawasan lembah sungai nyatakan keistimewaan kawasan lembah sungai 3 bentuk muka bumi sarawak dan sabah menjadi faktor utama perkembangan tamadun masyarakat di kawasan ini bincangkan 4 dapatan yang diperoleh dibentangkan di dalam kelas secara bergilirgilir 191kesenian penghasilan barang kesenian merupakan salah satu keunikan masyarakat di sarawak dan sabah barangan yang dihasilkan mempunyai pelbagai kegunaan dan dihiasi dengan pelbagai motif yang menarik pada peringkat awal barangan kesenian yang dihasilkan adalah untuk kegunaan sendiri dan dijual secara kecilkecilan untuk sara diri apabila terdapat lebihan dan permintaan barangan kesenian ini dikomersialkan dan didagangkan secara tidak langsung kegiatan ini menambahkan pendapatan masyarakat sarawak pua kumbu merupakan hasil kerja tangan kaum sintung duduk dihasilkan oleh kaum iban untuk iban yang dibuat daripada kain kapas pua kumbu membawa benih padi lanji untuk membawa hasil digunakan dalam pelbagai majlis seperti kelahiran padi dan basong untuk memburu perkahwinan dan kematian sintung lanji basong menenun kain pua kumbu duduk orang ulu pula menghiasi pua kumbu bakul mereka dengan keringkam manik simbolsimbol naga merupakan kerja manusia burung kenyalang bakul tangan kaum tenunan dan harimau yang dihiasi pembawa melayu yang kain kraf tangan pada bakulnya digunakan bayi dibuat daripada oleh golongan atasan pelbagai jenis kaum melanau kain seperti kain menghasilkan kapas dan kain wanita melayu pertukangan penutup kepala iaitu sutera kain memakai terendak terendak terendak tersebut disulam keringkam digunakan semasa dengan benang kerjakerja harian emas perak dan dan adat tertentu tembaga termasuk pesta kaul tiang totem dihasilkan oleh orang ulu yang melambangkan status masyarakat patung burung kenyalang hanya mayat patung burung kenyalang merupakan golongan atasan lambang kepahlawanan kaum iban ukiran boleh diletak tinggi patung ini digunakan sebagai pemberi di atas tiang ini semangat kepada pahlawan iban patung tiang totem ini juga menjadi penjaga rumah panjang daripada semangat jahat dan penyakit bagaimanakah kita dapat melestarikan alam sekitar bagi menghasilkan barangan kraf tangan 119922sabah masyarakat di kawasan kaum rungus menggubah inavol pedalaman menghasilkan dan menghasilkan selendang bakul yang mempunyai yang berwarnawarni pelbagai kegunaan seperti wakid untuk membawa barang yang tayen besar tayen untuk membawa hasil dari inavol kebun dan barang wakid hantaran perkahwinan dan buan sebagai tempat menggubah inavol menyimpan barang buan kaum iranun menghasilkan kaum bajausama kain dastar yang menghasilkan biasa digunakan tenunan sebagai tanjak kraf tangan pelbagai barangan kain yang berwarnawarni daun serdang yang daripada daun serdang dikeringkan seperti tikar pandan dan menenun dastar duang tudung saji pertukangan dastar duang kaum bajausama masih mewarisi cara pembuatan barangan besi seperti guuk badi untuk memotong rumput dan pida untuk upacara perkahwinan guuk badi pida hasil kesenian masyarakat sarawak dan sabah mempunyai keunikan yang tersendiri hasilhasil seni ini digunakan untuk kegunaan harian dan dalam tahukah anda upacara adat tertentu kita perlulah menghargai warisan kesenian yang unik jaket kulit kayu merupakan dan unggul ini hasil kesenian yang dihasilkan oleh penduduk di pedalaman kegiatan sabah seperti kaum murut sosiobudaya masyarakat sabah 193perayaan perayaan merupakan warisan masyarakat sarawak dan sabah yang unik sambutan perayaannya penuh dengan adat yang diamalkan sejak zamanberzaman dan kekal hingga hari ini setiap perayaan mempunyai sejarah tradisinya yang tersendiri dan unik sarawakmasyarakat di sarawak mempunyai pelbagai perayaan yang berdasarkan kaum kaum iban bidayuh dan orang ulu merayakan pesta menuai atau gawai dayak bagi masyarakat iban pula upacara miring diadakan semasa gawai dayak upacara ini dilakukan untuk menyatakan rasa terima kasih kepada petara atau tuhan salah satu keunikan gawai dayak ialah acara kumang dan keling gawai iaitu pemilihan ratu cantik dan jejaka tampan peserta dalam kumang gawai sumber koleksi lembaga pelancongan sarawak 2016 kaum bisaya dan kadayan pula masingmasing mengadakan pesta babulang dan makan tahun pesta babulang merupakan pesta menuai manakala makan tahun diadakan sebagai tanda kesyukuran atas hasil yang diperoleh oleh petani kaum melanau pula mengadakan pesta kaul yang bertujuan untuk mengelak malapetaka buruk oleh roh jahat yang dipanggil sebagai ipok lumba kerbau merupakan salah satu acara dalam acara tibau diadakan sempena pesta kaul iaitu pesta babulang permainan berayun oleh golongan lelaki sumber koleksi lembaga pelancongan sarawak 2016 sumber koleksi lembaga pelancongan sarawak 2016 194sabahsalah satu perayaan yang unik dalam masyarakat sabah ialah pesta kaamatan dari segi sejarah dan budaya perayaan ini diraikan oleh penduduk kadazandusun dan murut perayaan ini merupakan simbol kesyukuran untuk meraikan semangat padi atau bambaazon atau bambarayon upacara kesyukuran kepada semangat padi ini dijalankan oleh bobohizanbobolian dengan melakukan upacara kesyukuran ini penduduk berharap agar tahun hadapan mereka akan mendapat lebih banyak hasil tuaian padi antara acara yang diadakan dalam pesta ini termasuklah pertandingan ratu cantik atau unduk ngadau acara ini berkaitan dengan asal usul pengorbanan huminodun tahukah anda menurut kepercayaan kaum kadazandusun huminodun merupakan seorang puteri iaitu anak kinoingan atau minamangun pencipta yang mengorbankan dirinya untuk membantu manusia dalam kesusahan semasa musim peserta dalam unduk ngadau kemarau sumber lembaga kebudayaan negeri sabah pesta regata lepa merupakan perayaan memperingati peranan lepa dalam kehidupan kaum bajausama di pantai timur sabah dalam perayaan ini kaum bajausama menghiasi lepa selain itu pelbagai acara lain diadakan seperti perlumbaan perahu keunikan bobohizanbobolian ialah beliau merupakan wanita sumber lembaga kebudayaan negeri sabah lepa akan dihiasi semasa pesta regata lepa sumber lembaga kebudayaan negeri sabah sambutan perayaan masyarakat sarawak dan sabah penuh dengan tradisi yang mengimbau sejarah dan budaya nenek moyang mereka perayaan tersebut juga merupakan unsur glosari keserumpunan alam melayu yang sentiasa majlis rumah menghargai alam semula jadi yang membantu regata perlumbaan perahu terbuka pesta kehidupan mereka seharian kaamatan 195tarian ngajat tarian datun julud tarian ini berasal daripada kaum orang ulu tarian ini sebagai lambang kegembiraan dan terima kasih penarinya ialah wanita yang memakai pakaian berwarnawarni dengan perhiasan kepala bulu burung kenyalang digunakan semasa menari tarian ini diiringi oleh sumber lembaga alat muzik tradisional iaitu sape pelancongan sarawak sumber lembaga pelancongan sarawak tarian ngajat ditarikan oleh kaum iban dan orang ulu terdapat beberapa jenis tarian ngajat iban seperti ngajat indu dan ngajat lesung tarian ngajat ditarikan sebagai pemberi semangat kepada para pejuang yang hendak pergi sarawak berperang kepelbagaian kaum di sarawak membawa kepada kelahiran pelbagai bermukun persembahan tarian yang unik dan menarik hal ini dapat dilihat dengan kepelbagaian pakaian alatan tarian dan rentak tariannya yang berbezabeza antara satu kaum dengan kaum yang lain sumber hedda morrison sarawak singapura times book international 1982 bermukun merupakan acara bergendang keunikan bermukun ini ialah gendangnya yang dipalu alat muzik tradisional sape mengiringi oleh wanita dan penarinya hanya persembahan tarian lelaki tarian ini biasa ditarikan datun julud semasa majlis perkahwinan sumber lembaga semasa bermukun para pemukul pelancongan sarawak gendang akan berbalas pantun 196sumazau sumazau ialah tarian kaum kadazandusun terdapat variasi tarian ini mengikut kawasan seperti di penampang dan papar tarian ini ditarikan semasa pesta kaamatan dan majlis magunatip keramaian perkataan sumazau diambil daripada perkataan sazau yang merujuk pergerakan tangan penari seperti seekor burung helang sumber lembaga kebudayaan negeri sabah sumber lembaga kebudayaan tarian ini ditarikan oleh kaum murut negeri sabah di kawasan pedalaman tarian yang menggunakan dua batang buluh ini ditarikan semasa majlis keramaian sabah limbai masyarakat sabah memiliki pelbagai jenis tarian yang diwarisi sejak zamanberzaman setiap kaum memiliki tarian yang unik dan berbeza daripada satu kaum dengan kaum yang lain begitu juga halnya dengan hiasan baju penari peralatan yang digunakan dan gerak tarinya sumber irene benggon charuruks dan janette padasian eds cultures customs and tradtions of sabah malaysia an introduction kota kinabalu sabah tourism promotion corporation 1992 tarian kaum bajausama dari pantai barat sabah ini ditarikan secara berpasangan pasangan wanita akan memakai sarimpak seni muzik masyarakat hiasan kepala tarian ini ditarikan semasa sarawak dan majlis perkahwinan dan majlis keramaian sabah keunikan tarian penduduk sarawak dan sabah ini muncul kerana kepelbagaian penduduknya yang kreatif dalam mengatur gerak tari yang tersendiri dan mempunyai tujuan tertentu keunikan tarian ini terus diwarisi hingga hari ini 197semak ayat seni bina dalam aspek seni bina masyarakat sarawak dan sabah mempunyai sejarah pembinaan rumah yang unik setiap seni bina ini walaupun kelihatan mempunyai persamaan tetapi terdapat ciriciri tersendiri dan unik sarawak di sarawak terdapat tiga bentuk seni bina yang unik iaitu rumah panjang rumah tinggi dan rumah baruk rumah panjang rumah panjang merupakan seni bina kaum iban bidayuh dan orang ulu rumah panjang dibina untuk tujuan keselamatan dan pertahanan serta mewujudkan kerjasama dalam kalangan penduduk di rumah panjang fungsi selain menjadi tempat tinggal rumah panjang ini merupakan tempat berinteraksi dan mengadakan acaraacara perayaan bahan pembuatan kayu keras digunakan terutama kayu belian atapnya dibuat rumah panjang daripada daun tebal seperti daun rumbia bilik ruang bilik bagi setiap keluarga ruai tempat berkumpul untuk majlis sosial tanju ruang pelbagai guna rumah panjang iban sumber adaptasi daripada hood salleh peoples and traditions singapura editions didier millet 2006 hlm 9091 198semak ayat rumah tinggi rumah tinggi merupakan hasil binaan unik kaum melanau fungsi rumah ini dibina tinggi iaitu 10 meter dari aras tanah untuk mengelak serangan musuh bahan pembuatan kayu keras dan bulat seperti belian menjadi bahan utama dalam pembuatan rumah ini rumah tinggi melanau rumah baruk rumah baruk merupakan seni bina tersendiri yang dihasilkan oleh kaum bidayuh seni bina baruk ialah bulat dan berbentuk kon dengan puncaknya dihiasi dengan lambang burung kenyalang fungsi rumah ini menjadi tempat menyimpan tengkorak menyimpan senjata pusat ritual mesyuarat dan majlis sosial yang lain bahan pembuatan kayu keras iaitu belian digunakan untuk membina baruk atapnya akan rumah baruk ditutup dengan daun rumbia dan sumber adaptasi daripada hood salleh peoples and traditions singapura editions didier millet 2006 dinding pula diperbuat daripada buluh hlm 8889 seni bina rumah di sarawak mempunyai persamaan dari segi bahan binaannya iaitu menggunakan sumber hutan namun begitu cerna minda setiap kaum menggunakan kebijaksanaan masingmasing untuk membentuk seni bina nyatakan kepentingan rumah panjang yang tersendiri dalam kehidupan seharian 199sabah di sabah terdapat juga rumah panjang namun begitu rumah panjang ini direka dengan beberapa ciri tersendiri dan unik keunikan seni bina masyarakat sabah ini terserlah lagi dengan menjadikan perahu sebagai kediaman di kawasan pantai timur sabah rumah panjang rungus kaum rungus juga membina rumah panjang yang dikenali sebagai vinatang keistimewaan rumah panjang rungus ini ialah bilik tidurnya dibina dengan kedudukan kepala pada sudut tepat arah gunung kinabalu fungsi rumah panjang ini menjadi kediaman dan kubu pertahanan daripada serangan musuh kaum rungus membina rumah ini untuk mewujudkan semangat bekerjasama dan melindungi ahliahlinya bahan pembuatan kayu bulat buluh kulit kayu dan daun nipah ongkob merupakan ruang bilik keluarga apad tempat berkumpul untuk majlismajlis tertentu dan tempat sumber adaptasi daripada hood salleh peoples and santai bersamasama penghuni traditions singapura editions didier millet 2006 rumah panjang hlm 120121 cerna minda nyatakan fungsi pembinaan rumah panjang kaum rungus dan murut 200rumah panjang murut kaum murut juga membina rumah panjang terdapat pelbagai nama yang merujuk rumah panjang murut seperti tulus dan pahun fungsi rumah panjang ini dibina atas faktor keselamatan dan pertahanan keunikan rumah panjang ini boleh dilihat dengan 1 1 1 1 1 1 1 pintu rumahnya yang dibina di tepi rumah dan terdapat ruang memanjang 3 3 2 yang memisahkan bilikbilik keluarga di bahagian tengah pula terdapat tempat 4 pertemuan dan lantai untuk tarian atau lansaran petunjuk1 sulap bilik keluarga bahan pembuatan 2 lansaran lantai tarian kayu bulat kulit kayu dan daun tolidus 3 tobon pintu utama 4 salo ruang terbesar yang digunakan untuk majlis sosial dan agama lepalepa merupakan perahu yang dibuat oleh kaum bajausama di pantai timur sabah yang bukan sahaja untuk mengangkut barang tetapi dijadikan tempat kediaman bahan pembuatan lepa diperbuat daripada pelbagai jenis kayu seperti kayu obasuluk seraya matamata dan gagir bahagian atapnya pula diperbuat daripada daun nipah apabila lepa hendak dibuat beberapa perkara perlu diberi perhatian seperti hari dan bulan untuk mengambil kayu dan bahan lain untuk membuatnya pembinaan rumah masyarakat sabah sangat unik kerana mereka menggunakan kebijaksanaan untuk menghasilkan rumah yang mempunyai ciriciri budaya mereka sendiri masyarakat sarawak dan sabah menggunakan kebijaksanaan mereka dalam memanfaatkan sumber alam sekitar untuk meneruskan kelangsungan hidup mereka juga menerima pengaruh luar terutama daripada alam melayu untuk meningkatkan kualiti hidup yang lebih baik hal ini menyedarkan kita lepa bahawa kerajinan dan sikap terbuka membantu sumber adaptasi daripada kemajuan diri dan negara hood salleh peoples and traditions singapura editions didier millet 2006 hlm 125 201imbas kembali sarawak dan sabah dalam alam melayu perdagangan keagamaan kemunculan pemerintahan tempatan u klpdeoaanyklkgaanaasgsia rksuu dkaulaay sanugn ghaui bkua dlkaan lcsaehulinata kepimpinan kesukuan t an ketua kepimpinan lembah sungai sldmaaonamk ssaaasadi daoo nsbngaagmd akreathuajunh sabah u mlppm ueo e anl k a l s g aaua a n s b si o aa r ssu b iu a t t n d d gu ka ag n e i a u rm1 1 e u t uk sa h h i n g g a wb ra kn iel s a b b e a b h a s wsualukil l a u t su l u slspmeaeokanwkistgaaaaaskrsi u a sa ussbnaa gdndat aukit b eusto uamnrjgauew hrdpaa aknt i sibusrajang astsslpp n euu a eu o t m n n r na k s i g ga rg e b a aa at an sa i i bsig s r rta g a p as i iu t m m n ae n n dp r gbbt g ae e a a a n n m s s s gg b au id s r r a i ua a nb nlr a i k s m a d d a ui n ar r a petunkkkkjuaaaa wwwwk aaaa u ssss aaaa nnnn i kwwkeeaaptkkuiiimall kk b spb ee r uienu ps l buan ui a n m e k s ik up e ain s n u a k n uan laut s u l a w e s i kegiatan ekonomi masyarakat sarawak dan sabah kegiatan ekonomi masyarakat sarawak kegiatan ekonomi masyarakat sabah keunikan masyarakat bumiputera sarawak dan sabah masyarakat bumiputera kepentingan sungai kesenian perayaan tarian seni bina bab ini telah memberikan gambaran bahawa sarawak dan sabah merupakan sebahagian daripada alam melayu pemerintahan tempatan menunjukkan bahawa telah wujud sistem berorganisasi dalam masyarakat sarawak dan sabah mereka telah menyesuaikan diri dengan bentuk muka bumi dalam kegiatan sosioekonomi hal ini telah mewujudkan kepelbagaian warisan budaya yang unik di sarawak dan sabah 202pemahaman dan pemikiran kritis 1 apakah bentuk pemerintahan tempatan di sarawak dan sabah i pentadbiran lembah sungai ii pentadbiran pedalaman iii pemerintahan pembesar iv pemerintahan beraja a i dan ii b i dan iv c ii dan iii d iii dan iv 2 apakah maksud lambang patung burung kenyalang a melambangkan kaum iban b melambangkan senjata kaum iban c melambangkan perpaduan kaum iban d melambangkan kepahlawanan kaum iban 3 lengkapkan jadual di bawah dengan maklumat yang tepat negeri lokasi kegiatan ekonomi sarawak pesisir pantai sabah kawasan pedalaman 4 sarawak dan sabah mempunyai keunikan dari segi masyarakatnya yang berbilang kaum budaya dan warisan yang tersendiri berdasarkan pernyataan di atas jawab soalan yang berikut a apakah keunikan budaya masyarakat sarawak dan sabah b bagaimanakah kita dapat meraikan kepelbagaian dan keunikan budaya masyarakat 203pemahaman dan pemikiran kritis 5 berdasarkan gambar di atas jawab soalan yang berikut a apakah yang dapat anda lihat dalam gambar di atas b apakah fungsi binaan ini c pada pendapat anda bagaimanakah warisan kesenian ini dapat dipelihara dan dipulihara 6 sungai memainkan peranan penting kepada masyarakat di sarawak dan sabah berdasarkan pernyataan di atas jawab soalan yang berikut a senaraikan kepentingan sungai kepada penduduk tempatan b bagaimanakah anugerah tuhan ini dapat dipelihara 7 berdasarkan gambar rumah panjang kaum rungus di atas jawab soalan yang berikut a apakah yang anda boleh jelaskan tentang seni bina rumah panjang b bagaimanakah rumah panjang boleh mewujudkan dan memperkukuh hubungan antara penghuninya c mengapakah kita perlu mengekalkan warisan negara 204cakna dan cerminan sejarah nilai patriotisme dan iktibar kepelbagaian budaya mendidik kita supaya menghargai dan mengekalkan warisan masyarakat yang unik kita perlu berbangga dengan adat resam pelbagai kaum untuk mengekalkan jati diri kelangsungan warisan suku kaum yang pelbagai ini boleh meningkatkan imej negara di pentas antarabangsa diri dan keluarga negara sikap bertolak ansur dan menghormati kepelbagaian budaya ini mewujudkan sesama ahli keluarga penting untuk perpaduan yang membentuk kestabilan menjamin keharmonian ahli keluarga bagi dan kemajuan negara memupuk sikap ini kita harus menghormati kepelbagaian dalam kalangan ahli keluarga perpaduan dalam kepelbagaian merupakan keunikan warisan negara kita yang diwarisi sejak zamanberzaman dan harus terus dipelihara 205bibliografi buku dan jurnal a aziz deraman 2005 masyarakat dan kebudayaan malaysia kuala lumpur dewan bahasa dan pustaka a samad ahmad penyelenggara1985 kerajaan johor riau kuala lumpur dewan bahasa dan pustaka a samad ahmad penyelenggara 1986 sulalatus salatin kuala lumpur dewan bahasa dan pustaka abdul hadi haji hassan 1928 sejarah alam melayu singapura fraser and neave abdul razak mahmud 2002 ikhtisar sejarah kelantan kota bharu pustaka aman press abdullah zakaria ghazali dan mardiana nordin ed 2012 kedah warisan dan sejarah bangi ikatan ahli arkeologi malaysia abdullah zakaria ghazali 1996 terengganu tokoh pentadbiran dan perjuangan kuala lumpur persatuan muzium malaysia adnan jusoh 2017 gendang gangsa di borneo satu tinjauan semula terhadap penemuan gendang gangsa di sabah dan kalimantan jurnal persatuan muzium malaysia kuala lumpur persatuan muzium malaysia ahamad ismail dan yazid mat 1992 perlis indera kayangan sejarah pembentukan sebuah negeri berdaulat kangar perbadanan perpustakaan awam negeri perlis ahmad bahri mardi 2016 kota tinggi dalam sejarah kota tinggi persatuan sejarah malaysia cawangan kota tinggi ahmad fawzi mohd basri 1986 cempaka sari sejarah kesultanan negeri perak ipoh yayasan perak ahmad jelani halimi 2006 perdagangan dan perkapalan melayu di selat melaka kuala lumpur dewan bahasa dan pustaka ahmad sarji abdul hamid ed 2011 the rulers of malaysia singapura edition didier millet andaya barbara watson dan leonard y andaya 1983 sejarah malaysia kuala lumpur macmillan publishers andaya leonard y1987 kerajaan johor 16411728 kuala lumpur dewan bahasa dan pustaka asmah haji omar 2008 ensiklopedia bahasa melayu kuala lumpur dewan bahasa dan pustaka asyaari muhamad 2001 arkeologi kota sayong johor bahru yayasan warisan johor awang azman awang pawi ed 2014 wajah melayu sarawak kota samarahan institut asia timur unimas bambang budi utomo dan nik hassan shuhaimi nik abdul rahman 2008 zaman klasik di nusantara tumpuan kajian di sumatera kuala lumpur dewan bahasa dan pustaka bernard sellato ed 2012 plated arts from the borneo rainforest jakarta dan singapura the lontar foundation dan nus press bulbeck david et al1998 southeast asian exports since the 14th century cloves pepper coffee and sugar singapura institute of southeast asian studies buyong adil 1980 sejarah kedah kuala lumpur dewan bahasa dan pustaka cady john f 1964 southeast asia it historical development new york mc grawhill books company charlie anak ungang 2014 etnik bidayuh budaya dan warisan kuching institut pendidikan guru malaysia kampus batu lintang coedes george 1968 the indianized states of southeast asia honolulu eastwest center press coedes george 2010 asia tenggara masa hindubuddha diterjemah oleh winarsih partaningrat jakarta efeo ding choo ming 2016 manuskrip melayu sumber maklumat peribumi bangi penerbit ukm empiang jabu 1989 the traditional values and functions of pua kumbu dlm sarawak museum journal 611989 ensiklopedia sejarah dan kebudayaan melayu kuala lumpur dewan bahasa dan pustaka freeman michael dan jacques claude 2007 ancient angkor bangkok rivers books ltd gallop annabel teh1994 the legacy of the malay letters london british library hall dge1987 sejarah asia tenggara kuala lumpur dewan bahasa dan pustaka hall kenneth r 1999economic history of early southeast asia dlm nicholas tarling ed the cambridge history of southeast asia volume one from early times to c1500 cambridge cambridge university press irene benggon charuruks dan janette padasian eds 1992 cultures customs and traditions of sabah malaysia an introduction kota kinabalu sabah tourism promotion corporation ismail hussein 1993 antara dunia melayu dengan dunia kebangsaan bangi penerbit ukm junaidi payne 2000 this is borneo london new holland publishers uk ltd kamarudin abrazak 1998 peninggalan sejarah di pesisiran sungai johor johor bahru yayasan warisan johor kamarudin abrazak 2005 kesultanan johor riau sehingga 1699 dalam ilustrasi johor bahru yayasan warisan johor khoo kay kim 1985 raja lumusultan salehuddin the founding of the selangor dynasty dlm jmbras 452 kong yuan zhi 2000 pelayaran zheng he dan alam melayu bangi penerbit ukm liang liji 1966 hubungan empayar melakadinasti ming abad ke15 bangi penerbit ukm mardiana nordin 2002 hikayat negeri johor kedudukannya sebagai naskhah pensejarahan negeri selangor dlm arkeologi dan sejarah kuala lumpur persatuan muzium malaysia mardiana nordin 2003 sultan dan rakyat satu perbincangan dari naskhah misa melayu dlm malaysia dari segi sejarah 31 mardiana nordin 2004 selangor sehingga 1766 catatan dari beberapa teks melayu dlm seri alam jurnal lembaga muzium selangor darul ehsan mardiana nordin 2008 politik kerajaan johor riau 17181862 johor bahru yayasan warisan johor 206</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bab  Sarawak dan Sabah </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibliografi </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>marriot h 1916 a fragment of the history of terengganu dlm jsbras 72 maspero georges 2002 the champa kingdom the history of extinct vietnamese culture bangkok white lotus maxwell we 2013 an account of the malay chiri a sanskrit formula hong kong forgotten books mohd zain musa dan nik hassan shuhaimi nik abdul rahman ed 2003 masyarakat cam sepanjang zaman bangi ikatan ahli arkeologi malaysia muhammad saleh haji awang 1983 sejarah darul iman hingga 1337h1918m kuala lumpur utusan publications and distributors muhammad yamin1986 gajah mada pahlawan persatuan nusantara jakarta balai pustaka muhammad yusoff hashim dan aruna gopinath 1992 tradisi pensejarahan pahang darul makmur 18001930 petaling jaya tempo publishing muhammad yusoff hashim 1989 kesultanan melayu melaka kuala lumpur dewan bahasa dan pustaka muhammad yusoff hashim 2006 kisah melaka 1511 melaka institut kajian sejarah dan patriotisme malaysia muhammad yusoff hashim ed 2008 tun perak melaka institut kajian sejarah dan patriotisme malaysia nik hassan shuhaimi nik abdul rahman 1990 kingdom of srivijaya as social political and cultural entity dlm j kathirithambywells and villiers john the southeast asian port and polity rise and demise singapura singapore university press nik hassan shuhaimi nik abdul rahman etal 2016 asal usul melayu induknya di benua sunda tanjung malim universiti pendidikan sultan idris nordin selat 1982 sistem sosial adat perpatih kuala lumpur utusan publications and distributors norhalim hj ibrahim1995 negeri yang sembilan daerah kecil pusaka adat warisan kerajaan berdaulat shah alam fajar bakti sdn bhd ong puay liu 2006 rumah panjang tradisi rungus dalam arus pembangunan perbezaan pengertian dlm akademika 68 1 poline bala 2016 masyarakat kelabit tradisi dan perubahan sosial kuala lumpur institut terjemahan dan buku malaysia r hamzah yunus1992 peninggalan sejarah di pulau penyengat riau yayasan kebudayaan indera sakti raja chullan 1997 misa melayu kuala lumpur penerbit pustaka antara ramlah adam ed 2016 pemerintahan beraja di alam melayu merentas zaman kuala lumpur dewan bahasa dan pustaka ranjit singh 2000 the making of sabah 18651941 the dynamics of indigenous society kuala lumpur dewan bahasa dan pustaka saidaitul nornis hj mahali 2012 bajau pantai barat kuala lumpur institut terjemahan dan buku malaysia sandin b 1980 iban adat and augury pulau pinang penerbit universiti sains malaysia sanib said 1999 the history of sarawak where do we begin dlm the sarawak museum journal 75 suffian mansor 2015 perubahan sistem pentadbiran sarawak 1840 1963 dlm ahmad kamal ariffin mohd rus dan noor ain mat noor ed dasar dan tadbir dalam sejarah kuala lumpur penerbit universiti malaya sutan takdir alisjahbana 2008 indonesia social and cultural revolution jakarta dian rakyat tang su chin julie 2002 sejarah kerajaan perlis 18411957 mbras kuala lumpur the legacy of malay manuscripts 2012 kuala lumpur perpustakaan negara malaysia wallace alfred russel 2009 the annotated malay archipelago oxford john beaufoy pubiications wang gungwu1998 the nanhai trade the early history of chinese trade in the south china sea singapura times academic press wheatley paul 2010the golden khersonese kuala lumpur penerbit universiti malaya winstedt ro dan rj wilkinson 1974 the chiri or coronation address dlm a history of perak mbras reprint no3 wolters ow1975 the fall of srivijaya in malay history kuala lumpur oxford university press zainal abidin abdul wahid 2004 kesultanan melayu melaka melaka institut kajian sejarah dan patriotisme malaysia laman sesawang utusan online dicapai pada 15 februari 2017 bayon temple and leper king terrace temple in siem reap dicapai pada 15 februari 2017 dicapai pada 15 februari 2017 senarai penuh bibliografi buku teks sejarah tingkatan 2 207indeks adat istiadat 130 kerajaan angkor 8 27 penghulu bendahari 77 adat perpatih 168 170 kerajaan alam melayu 14 1720 perang johorjambi 100 adat temenggung 79 32 64 perayaan 194 agama buddha 17 54 57 59 kerajaan brunei 178 persamaan budaya 7 agama hindu 54 57 59 kerajaan champa 8 11 40 pesta kaamatan 195 agama islam 59 82 kerajaan funan 13 18 44 pua kumbu 192 alam melayu 2 4 180 kerajaan gangga nagara 9 13 pusat perdagangan 84 altarikh salasilah negeri kedah kerajaan kedah tua 9 12 138 164 kerajaan majapahit 8 13 178 raja kechil 102 angkor thom 12 63 kerajaan negeri sembilan 142 rumah panjang 201 angkor wat 64 kerajaan perlis 14445 ryukyu 89 animisme 56 kerajaan sarawak 180 asimilasi 62 kerajaan srivijaya 8 58 178 seni bina 198 awang batil 167 kesenian 192 sistem kepimpinan kesukuan 180 keserumpunan budaya 160 182 bahasa austronesia 6 kesultanan terengganu 120 sistem pembesar empat lipatan bahasa dan tulisan 40 kesultanan johor riau 98 100 102 7677 125 bahasa sanskrit 40 104 sistem pemerintahan 24 26 34 bahasa serumpun 6 kesultanan melayu melaka 72 76 170 bajau 193 80 91 131 sistem pemerintahan beraja 159 bendahara 77 kesultanan pahang 116 124 sistem perundangan 162 bidayuh 187 kesultanan perak 118 124 struktur sosial 51 buapak 171 kesultanan selangor 12223 125 suku 170 bunga emas 145 ketua negeri 172 sulalatus salatin 108 candi borobudur 31 54 62 kitab tib 165 sultan alauddin i 99 106 che bong nga 27 konsep beraja 60 sultan iskandar dzulkarnain 119 che siti wan kembang 141 konsep daulat 54 sultan mahmud shah 91 kota kara 99 sultan muzaffar shah 75 china 89 syahbandar 86 laksamana 77 syair sultan maulana 165 dinamisme 56 lembaga 171 syair tawarikh zainal abidin long yunus 148 ketiga 128 hikayat hang tuah 108 luak 170 syed hussin jamalullail 145 hikayat iskandar zulkarnain 45 hikayat merong mahawangsa 138 mahabhrata 45 tajul salatin 109 164 masyarakat sabah 184 tarian 196 hikayat muhammad ali hanafiah 45 masyarakat sarawak 184 temenggung 77 hikayat pahang 128 melanau 187 tulisan palava 41 hikayat sang kancil 129 misa melayu 128 tun seri lanang 109 hikayat seri kelantan 165 murut 189 hubungan diplomatik 19 148 undang 171 hubungan perdagangan 150 nagarakertagama 45 undangundang 99 perak 126 hukum kanun melaka 77 78 83 undangundang adat 79 126 orang laut 87 undangundang islam 163 hukum kanun pahang 126 orang semenda 169 undangundang laut melaka 78 orang sungai 189 83 institusi agama 131 orang uiu 187 194 undangundang tubuh kerajaan jayavarman vii 12 negeri 127 parameswara 73 unesco 6 kadazandusun 182 195 patih gajah mada 12 upu bugis 101 karya sejarah 128 pelabuhan kerajaan 62 kegiatan perlombongan 33 pelabuhan pembekal 62 wayang kulit 7 167 kegiatan pertanian 46 pembesar berempat 76 kepentingan sungai 190 pembesar berlapan 76 125 208</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
